--- a/Financial Analysis/Models (Tech).xlsx
+++ b/Financial Analysis/Models (Tech).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Documents\GitHub\FinanceModels\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0FE06-B089-4D2E-995F-F32192D159DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF40C99-7586-495B-936E-C90CBF9CD045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E122305-8C8A-4700-8BB3-18DD9512A165}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="201">
   <si>
     <t>Company</t>
   </si>
@@ -681,13 +681,19 @@
   </si>
   <si>
     <t>LRN US</t>
+  </si>
+  <si>
+    <t>2024 EV/R</t>
+  </si>
+  <si>
+    <t>TakeTwo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0\x"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
@@ -699,6 +705,7 @@
     <numFmt numFmtId="172" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="173" formatCode="[$£-809]#,##0"/>
     <numFmt numFmtId="174" formatCode="[$$-4809]#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -794,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -870,6 +877,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,23 +915,23 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>183.75</v>
+            <v>205.35</v>
           </cell>
           <cell r="E3">
-            <v>45755</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45771</v>
+            <v>45861</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>2760310.875</v>
+            <v>3067066.53</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>44569</v>
+            <v>34736</v>
           </cell>
         </row>
       </sheetData>
@@ -933,19 +946,29 @@
             <v>93736</v>
           </cell>
           <cell r="BD17">
-            <v>111865.525968</v>
+            <v>109071.23270399999</v>
           </cell>
           <cell r="BE17">
-            <v>117035.70172405441</v>
+            <v>111609.40499560322</v>
           </cell>
           <cell r="BF17">
-            <v>121596.57000020859</v>
+            <v>116111.91671326966</v>
           </cell>
           <cell r="BG17">
-            <v>125976.67287998067</v>
+            <v>120425.82935936152</v>
           </cell>
           <cell r="BN17">
-            <v>148670.6362795716</v>
+            <v>138569.03331198409</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BC23">
+            <v>0.46206349815233932</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BC26">
+            <v>0.31510222870075566</v>
           </cell>
         </row>
         <row r="30">
@@ -961,12 +984,12 @@
         </row>
         <row r="36">
           <cell r="BQ36">
-            <v>-1.8371852205646189E-2</v>
+            <v>-0.16472620891373135</v>
           </cell>
         </row>
         <row r="37">
           <cell r="BQ37" t="str">
-            <v>Fairly valued</v>
+            <v>Slightly overvalued</v>
           </cell>
         </row>
       </sheetData>
@@ -989,28 +1012,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>525</v>
-          </cell>
-          <cell r="F3">
+            <v>559.39</v>
+          </cell>
+          <cell r="E3">
             <v>45751</v>
           </cell>
-          <cell r="H3">
+          <cell r="G3">
             <v>45771</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>478642.49999999994</v>
+            <v>507982.05899999995</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-8962</v>
+            <v>-10908</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>487604.49999999994</v>
+            <v>518890.05899999995</v>
           </cell>
         </row>
       </sheetData>
@@ -1025,19 +1048,19 @@
             <v>12874</v>
           </cell>
           <cell r="Z17">
-            <v>14369.14817</v>
+            <v>14232.637769999998</v>
           </cell>
           <cell r="AA17">
-            <v>16841.553170400006</v>
+            <v>16850.852171999999</v>
           </cell>
           <cell r="AB17">
-            <v>18211.010242992004</v>
+            <v>18222.929010719999</v>
           </cell>
           <cell r="AC17">
-            <v>19319.803928769124</v>
+            <v>19333.689526972801</v>
           </cell>
           <cell r="AJ17">
-            <v>24524.228624948606</v>
+            <v>24545.132127553396</v>
           </cell>
         </row>
         <row r="21">
@@ -1048,14 +1071,24 @@
             <v>0.12228065981353087</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="Y22">
+            <v>0.63812262576774237</v>
+          </cell>
+        </row>
         <row r="24">
           <cell r="AM24">
             <v>0.06</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="Y26">
+            <v>0.55320055383959954</v>
+          </cell>
+        </row>
         <row r="30">
           <cell r="AM30">
-            <v>-0.30789247181110724</v>
+            <v>-0.35142924937740316</v>
           </cell>
         </row>
         <row r="31">
@@ -1134,6 +1167,16 @@
             <v>16265.158423182946</v>
           </cell>
         </row>
+        <row r="41">
+          <cell r="BQ41">
+            <v>0.46056373058057626</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="BQ42">
+            <v>0.26710665651305471</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="BL47">
             <v>0.27599656870505318</v>
@@ -1338,9 +1381,19 @@
             <v>0.10149337925301349</v>
           </cell>
         </row>
+        <row r="39">
+          <cell r="Y39">
+            <v>0.45143596447487233</v>
+          </cell>
+        </row>
         <row r="40">
           <cell r="AN40">
             <v>0.06</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Y43">
+            <v>0.17378471988248137</v>
           </cell>
         </row>
         <row r="46">
@@ -1373,18 +1426,18 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>83.6</v>
+            <v>112.86</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45783</v>
           </cell>
           <cell r="G3">
-            <v>45789</v>
+            <v>45880</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>196075.44</v>
+            <v>265074.28200000001</v>
           </cell>
         </row>
         <row r="8">
@@ -1394,7 +1447,7 @@
         </row>
         <row r="9">
           <cell r="D9">
-            <v>190845.44</v>
+            <v>259844.28200000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1409,19 +1462,19 @@
             <v>464.10000000000019</v>
           </cell>
           <cell r="AM18">
-            <v>835.43674499999997</v>
+            <v>912.45863900000018</v>
           </cell>
           <cell r="AN18">
-            <v>1390.8552371999997</v>
+            <v>1408.7244116000004</v>
           </cell>
           <cell r="AO18">
-            <v>2078.6341469519998</v>
+            <v>2195.9199466512005</v>
           </cell>
           <cell r="AP18">
-            <v>2891.7309941960007</v>
+            <v>3176.2438977184956</v>
           </cell>
           <cell r="AW18">
-            <v>6378.8486158075857</v>
+            <v>7176.9459905069034</v>
           </cell>
         </row>
         <row r="22">
@@ -1432,6 +1485,16 @@
             <v>0.28776234775965137</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="AL23">
+            <v>0.80247085921686323</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AL24">
+            <v>0.10829203601591407</v>
+          </cell>
+        </row>
         <row r="26">
           <cell r="AZ26">
             <v>0.06</v>
@@ -1439,7 +1502,7 @@
         </row>
         <row r="32">
           <cell r="AZ32">
-            <v>-0.58666400706025246</v>
+            <v>-0.65985115258855642</v>
           </cell>
         </row>
         <row r="33">
@@ -2013,23 +2076,23 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>551.44000000000005</v>
-          </cell>
-          <cell r="F3">
-            <v>45751</v>
-          </cell>
-          <cell r="H3">
-            <v>45770</v>
+            <v>573.16999999999996</v>
+          </cell>
+          <cell r="E3">
+            <v>45777</v>
+          </cell>
+          <cell r="G3">
+            <v>45861</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>112383.47200000002</v>
+            <v>117213.26499999998</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>7912.7333752884415</v>
+            <v>9337.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2044,19 +2107,19 @@
             <v>1138</v>
           </cell>
           <cell r="AD14">
-            <v>1685.6336250000006</v>
+            <v>1714.8216375000011</v>
           </cell>
           <cell r="AE14">
-            <v>2698.4914175999993</v>
+            <v>2705.1588352000008</v>
           </cell>
           <cell r="AF14">
-            <v>3283.3523622400012</v>
+            <v>3302.4492121600006</v>
           </cell>
           <cell r="AG14">
-            <v>3895.3281177728009</v>
+            <v>3926.5754672320013</v>
           </cell>
           <cell r="AN14">
-            <v>7289.7932242782799</v>
+            <v>7420.0315107195465</v>
           </cell>
         </row>
         <row r="18">
@@ -2067,14 +2130,24 @@
             <v>0.18313580433305665</v>
           </cell>
         </row>
+        <row r="19">
+          <cell r="AC19">
+            <v>0.30141006827027372</v>
+          </cell>
+        </row>
         <row r="20">
           <cell r="AQ20">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="AC23">
+            <v>8.7092451987494421E-2</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="AQ27">
-            <v>-0.25016144459347034</v>
+            <v>-0.20391486232627898</v>
           </cell>
         </row>
         <row r="28">
@@ -2102,28 +2175,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>60.96</v>
+            <v>62.89</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45776</v>
           </cell>
           <cell r="G3">
-            <v>45777</v>
+            <v>45867</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>60301.632000000005</v>
+            <v>62210.788</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>5527</v>
+            <v>4407</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>54774.632000000005</v>
+            <v>57803.788</v>
           </cell>
         </row>
       </sheetData>
@@ -2138,19 +2211,19 @@
             <v>4147</v>
           </cell>
           <cell r="AJ17">
-            <v>5202.2908079999997</v>
+            <v>5156.212074</v>
           </cell>
           <cell r="AK17">
-            <v>5767.3797854400027</v>
+            <v>5834.1117946800023</v>
           </cell>
           <cell r="AL17">
-            <v>6306.4111987968017</v>
+            <v>6256.3108258560005</v>
           </cell>
           <cell r="AM17">
-            <v>6761.7767353918107</v>
+            <v>6424.7147770915208</v>
           </cell>
           <cell r="AT17">
-            <v>7492.5196882285127</v>
+            <v>7007.5450830848313</v>
           </cell>
         </row>
         <row r="21">
@@ -2161,14 +2234,24 @@
             <v>6.8052803063383793E-2</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="AI22">
+            <v>0.40538415573796271</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="AX23">
             <v>0.08</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="AI26">
+            <v>0.16746862911595434</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="AX29">
-            <v>0.44345022948092061</v>
+            <v>0.35514137882871299</v>
           </cell>
         </row>
         <row r="30">
@@ -2478,10 +2561,10 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>58.22</v>
+            <v>74.09</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
             <v>45784</v>
@@ -2489,17 +2572,17 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>38850.205999999998</v>
+            <v>50255.246999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>4019.8</v>
+            <v>4510.5</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>35836.805999999997</v>
+            <v>46751.446999999993</v>
           </cell>
         </row>
       </sheetData>
@@ -2514,19 +2597,19 @@
             <v>-935.1</v>
           </cell>
           <cell r="AR19">
-            <v>-514.98131720000038</v>
+            <v>-645.97905000000014</v>
           </cell>
           <cell r="AS19">
-            <v>-79.798835358000503</v>
+            <v>-190.06624810800022</v>
           </cell>
           <cell r="AT19">
-            <v>417.1052011499994</v>
+            <v>287.02723014899908</v>
           </cell>
           <cell r="AU19">
-            <v>923.69251983036531</v>
+            <v>778.71748128609477</v>
           </cell>
           <cell r="BB19">
-            <v>3075.1302764581133</v>
+            <v>2894.0092545097446</v>
           </cell>
         </row>
         <row r="23">
@@ -2538,13 +2621,21 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="AQ27">
+            <v>0.26724042198778453</v>
+          </cell>
           <cell r="BE27">
             <v>0.08</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="AQ28">
+            <v>-0.29516935036091063</v>
+          </cell>
+        </row>
         <row r="33">
           <cell r="BE33">
-            <v>-0.32008553378821236</v>
+            <v>-0.5028026588253911</v>
           </cell>
         </row>
         <row r="34">
@@ -2572,28 +2663,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>52.7</v>
+            <v>44.8</v>
           </cell>
           <cell r="E3">
-            <v>45758</v>
+            <v>45779</v>
           </cell>
           <cell r="G3">
-            <v>45778</v>
+            <v>45870</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>32642.38</v>
+            <v>27552</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>2845.2000000000007</v>
+            <v>1980.4000000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>29797.18</v>
+            <v>25571.599999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2608,19 +2699,19 @@
             <v>2897.1000000000013</v>
           </cell>
           <cell r="Z30">
-            <v>482.28284520000005</v>
+            <v>378.20919960000106</v>
           </cell>
           <cell r="AA30">
-            <v>815.27382816000022</v>
+            <v>1211.5398576160012</v>
           </cell>
           <cell r="AB30">
-            <v>1434.0540926184005</v>
+            <v>1915.5502761472021</v>
           </cell>
           <cell r="AC30">
-            <v>1925.6700331818413</v>
+            <v>2239.8032370161568</v>
           </cell>
           <cell r="AJ30">
-            <v>2532.0798113299024</v>
+            <v>3019.6110421165531</v>
           </cell>
         </row>
         <row r="36">
@@ -2638,7 +2729,7 @@
         </row>
         <row r="42">
           <cell r="AN42">
-            <v>-0.17606632725014193</v>
+            <v>0.11667361343101468</v>
           </cell>
         </row>
         <row r="43">
@@ -2646,7 +2737,7 @@
             <v>0.36851967779247219</v>
           </cell>
           <cell r="AN43" t="str">
-            <v>Slightly overvalued</v>
+            <v>Slightly undervalued</v>
           </cell>
         </row>
         <row r="47">
@@ -2674,88 +2765,83 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>149.62</v>
+            <v>96.02</v>
           </cell>
           <cell r="E3">
-            <v>45764</v>
+            <v>45751</v>
           </cell>
           <cell r="G3">
-            <v>45785</v>
+            <v>45790</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>8513.3780000000006</v>
+            <v>17715.689999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1262.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>7250.5780000000004</v>
+            <v>1951.1000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="AZ3">
-            <v>4727.8999999999996</v>
+          <cell r="V3">
+            <v>1300.3</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="AZ13">
-            <v>454.49999999999966</v>
-          </cell>
-          <cell r="BA13">
-            <v>449.57382599999983</v>
-          </cell>
-          <cell r="BB13">
-            <v>445.48834746</v>
-          </cell>
-          <cell r="BC13">
-            <v>441.07713379859996</v>
-          </cell>
-          <cell r="BD13">
-            <v>443.01880423842584</v>
-          </cell>
-          <cell r="BK13">
-            <v>451.90847390519497</v>
+          <cell r="V13">
+            <v>-484.2000000000001</v>
+          </cell>
+          <cell r="W13">
+            <v>196.49439999999973</v>
+          </cell>
+          <cell r="X13">
+            <v>339.83764319999977</v>
+          </cell>
+          <cell r="Y13">
+            <v>460.92067101599946</v>
+          </cell>
+          <cell r="Z13">
+            <v>580.42539640355994</v>
+          </cell>
+          <cell r="AG13">
+            <v>870.80586984382603</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="AY17">
-            <v>-2.7815200945136453E-2</v>
-          </cell>
-          <cell r="AZ17">
-            <v>7.9735635859716769E-3</v>
+          <cell r="U17">
+            <v>0.2059397030148491</v>
+          </cell>
+          <cell r="V17">
+            <v>0.61728855721393039</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="AZ18">
-            <v>0.30677467797542246</v>
+          <cell r="V18">
+            <v>0.90502191801891874</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="AZ19">
-            <v>0.11516741047822494</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="BN20">
+          <cell r="AJ19">
             <v>0.08</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="V22">
+            <v>-0.43097746673844506</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AJ25">
+            <v>-0.4201885933883216</v>
+          </cell>
+        </row>
         <row r="26">
-          <cell r="BN26">
-            <v>-0.23066366640452585</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="BN27" t="str">
-            <v>Slightly overvalued</v>
+          <cell r="AJ26" t="str">
+            <v>Overvalued</v>
           </cell>
         </row>
       </sheetData>
@@ -2778,70 +2864,83 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>96.02</v>
-          </cell>
-          <cell r="F3">
-            <v>45751</v>
-          </cell>
-          <cell r="H3">
-            <v>45790</v>
+            <v>7.86</v>
+          </cell>
+          <cell r="E3">
+            <v>45777</v>
+          </cell>
+          <cell r="G3">
+            <v>45867</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>17370.018</v>
+            <v>13332.918</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1670.3</v>
+            <v>-406</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>13738.918</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="V3">
-            <v>1300.3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="V13">
-            <v>-484.2000000000001</v>
-          </cell>
-          <cell r="W13">
-            <v>224.29629999999995</v>
-          </cell>
-          <cell r="X13">
-            <v>394.28181599999988</v>
-          </cell>
-          <cell r="Y13">
-            <v>496.32664398000003</v>
-          </cell>
-          <cell r="Z13">
-            <v>596.15461994340012</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="U17">
-            <v>0.2059397030148491</v>
-          </cell>
-          <cell r="V17">
-            <v>0.61728855721393039</v>
+          <cell r="AQ3">
+            <v>5361.4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AQ15">
+            <v>-697.69999999999982</v>
+          </cell>
+          <cell r="AR15">
+            <v>-257.5282720000007</v>
+          </cell>
+          <cell r="AS15">
+            <v>-11.275192191999793</v>
+          </cell>
+          <cell r="AT15">
+            <v>132.78307062092836</v>
+          </cell>
+          <cell r="AU15">
+            <v>216.41383488513557</v>
+          </cell>
+          <cell r="BB15">
+            <v>477.40761037466183</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="AJ19">
+          <cell r="AP19">
+            <v>9.561475944195319E-4</v>
+          </cell>
+          <cell r="AQ19">
+            <v>0.16395293300334335</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AQ20">
+            <v>0.53851605923825863</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AQ21">
+            <v>-0.14682732122206885</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BE22">
             <v>0.08</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="AJ25">
-            <v>-0.36407237828778038</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AJ26" t="str">
-            <v>Overvalued</v>
+        <row r="54">
+          <cell r="BE54">
+            <v>-0.33764030354459329</v>
           </cell>
         </row>
       </sheetData>
@@ -2864,73 +2963,78 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>7.93</v>
+            <v>73.25</v>
           </cell>
           <cell r="E3">
             <v>45751</v>
           </cell>
           <cell r="G3">
-            <v>45771</v>
+            <v>45803</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>13451.659</v>
+            <v>22458.45</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-267.69999999999982</v>
+            <v>8383.2000000000007</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>13719.359</v>
+            <v>14075.25</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="AQ3">
-            <v>5361.4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AQ15">
-            <v>-697.69999999999982</v>
-          </cell>
-          <cell r="AR15">
-            <v>-256.86973999999924</v>
-          </cell>
-          <cell r="AS15">
-            <v>-42.118379839999193</v>
-          </cell>
-          <cell r="AT15">
-            <v>125.97534720256085</v>
-          </cell>
-          <cell r="AU15">
-            <v>217.46516903044258</v>
-          </cell>
-          <cell r="BB15">
-            <v>563.55633356373778</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AP19">
-            <v>9.561475944195319E-4</v>
-          </cell>
-          <cell r="AQ19">
-            <v>0.16395293300334335</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="BE22">
+          <cell r="AP3">
+            <v>4665.2999999999993</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AP14">
+            <v>1009.8999999999994</v>
+          </cell>
+          <cell r="AQ14">
+            <v>984.13692099999992</v>
+          </cell>
+          <cell r="AR14">
+            <v>1020.4692323920002</v>
+          </cell>
+          <cell r="AS14">
+            <v>1013.2984622599199</v>
+          </cell>
+          <cell r="AT14">
+            <v>1012.8674818394792</v>
+          </cell>
+          <cell r="AZ14">
+            <v>1075.1792418610989</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AO18">
+            <v>3.0571363532893248E-2</v>
+          </cell>
+          <cell r="AP18">
+            <v>3.0481744085878892E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BC21">
             <v>0.08</v>
           </cell>
         </row>
-        <row r="53">
-          <cell r="BE53">
-            <v>-0.28652956601637836</v>
+        <row r="27">
+          <cell r="BC27">
+            <v>-7.5975386540388157E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BC28" t="str">
+            <v>Fairly valued</v>
           </cell>
         </row>
       </sheetData>
@@ -2953,18 +3057,18 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>360.79</v>
+            <v>435.28</v>
           </cell>
           <cell r="E3">
-            <v>45755</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45776</v>
+            <v>45868</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>2682112.8600000003</v>
+            <v>3235218.5999999996</v>
           </cell>
         </row>
         <row r="8">
@@ -2984,19 +3088,19 @@
             <v>88488</v>
           </cell>
           <cell r="AV17">
-            <v>101152.82631099995</v>
+            <v>100270.81956400006</v>
           </cell>
           <cell r="AW17">
-            <v>117737.47990989001</v>
+            <v>116879.68056410999</v>
           </cell>
           <cell r="AX17">
-            <v>127720.2824728074</v>
+            <v>126432.79531779507</v>
           </cell>
           <cell r="AY17">
-            <v>135662.49833809285</v>
+            <v>134480.25517988933</v>
           </cell>
           <cell r="BF17">
-            <v>167651.30291836866</v>
+            <v>167085.07339030603</v>
           </cell>
         </row>
         <row r="22">
@@ -3012,14 +3116,24 @@
             <v>0.13149611872684797</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="AU26">
+            <v>0.70009717200278587</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AU27">
+            <v>0.45352634278779386</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="BI28">
-            <v>5.3517905418773992E-2</v>
+            <v>-0.1306971479613509</v>
           </cell>
         </row>
         <row r="29">
           <cell r="BI29" t="str">
-            <v>Fairly valued</v>
+            <v>Slightly overvalued</v>
           </cell>
         </row>
       </sheetData>
@@ -3042,78 +3156,90 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>73.25</v>
+            <v>486.42</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45803</v>
+            <v>45875</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>22458.45</v>
+            <v>22132.11</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>8383.2000000000007</v>
+            <v>1082.5999999999999</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>14075.25</v>
+            <v>21049.510000000002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="AP3">
-            <v>4665.2999999999993</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AP14">
-            <v>1009.8999999999994</v>
-          </cell>
-          <cell r="AQ14">
-            <v>984.13692099999992</v>
-          </cell>
-          <cell r="AR14">
-            <v>1020.4692323920002</v>
-          </cell>
-          <cell r="AS14">
-            <v>1013.2984622599199</v>
-          </cell>
-          <cell r="AT14">
-            <v>1012.8674818394792</v>
-          </cell>
-          <cell r="AZ14">
-            <v>1075.1792418610989</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AO18">
-            <v>3.0571363532893248E-2</v>
-          </cell>
-          <cell r="AP18">
-            <v>3.0481744085878892E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="BC21">
+          <cell r="AC3">
+            <v>748.1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AC15">
+            <v>88.699999999999974</v>
+          </cell>
+          <cell r="AD15">
+            <v>125.01772000000005</v>
+          </cell>
+          <cell r="AE15">
+            <v>184.95692937500004</v>
+          </cell>
+          <cell r="AF15">
+            <v>270.2450169</v>
+          </cell>
+          <cell r="AG15">
+            <v>354.22822119599982</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AB19">
+            <v>0.43734776725304458</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.40858595368103923</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20">
+            <v>0.72784387114022187</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AR22">
             <v>0.08</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="BC27">
-            <v>-7.5975386540388157E-2</v>
+        <row r="24">
+          <cell r="AC24">
+            <v>8.381232455554069E-2</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="BC28" t="str">
-            <v>Fairly valued</v>
+          <cell r="AR28">
+            <v>-0.65814945001941016</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AR29" t="str">
+            <v>Overvalued</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AN43">
+            <v>910.22809902242375</v>
           </cell>
         </row>
       </sheetData>
@@ -3136,90 +3262,88 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>310.01</v>
+            <v>12.7</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45784</v>
+            <v>45874</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>13919.448999999999</v>
+            <v>13944.599999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>785.8</v>
+            <v>1822.9000000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>13133.648999999999</v>
+            <v>12121.699999999997</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="3">
-          <cell r="AC3">
-            <v>748.1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AC15">
-            <v>88.699999999999974</v>
-          </cell>
-          <cell r="AD15">
-            <v>117.56309199999988</v>
-          </cell>
-          <cell r="AE15">
-            <v>181.39875499999997</v>
-          </cell>
-          <cell r="AF15">
-            <v>266.05404514999987</v>
-          </cell>
-          <cell r="AG15">
-            <v>349.6044035974997</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AB19">
-            <v>0.43734776725304458</v>
-          </cell>
-          <cell r="AC19">
-            <v>0.40858595368103923</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AC20">
-            <v>0.72784387114022187</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AR22">
+        <row r="7">
+          <cell r="Y7">
+            <v>3766.2000000000003</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Z17">
+            <v>296.87220480000059</v>
+          </cell>
+          <cell r="AA17">
+            <v>420.54475509000019</v>
+          </cell>
+          <cell r="AB17">
+            <v>524.94156068649954</v>
+          </cell>
+          <cell r="AC17">
+            <v>572.38438085189262</v>
+          </cell>
+          <cell r="AD17">
+            <v>616.36569738837795</v>
+          </cell>
+          <cell r="AJ17">
+            <v>724.44399682955964</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AN23">
             <v>0.08</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="AC24">
-            <v>8.381232455554069E-2</v>
+          <cell r="X24">
+            <v>0.65216157948485232</v>
+          </cell>
+          <cell r="Y24">
+            <v>0.29329349953641692</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Y25">
+            <v>0.58762147522701935</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="AR28">
-            <v>-0.48276090564846819</v>
+          <cell r="Y28">
+            <v>0.12259040943125696</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="AR29" t="str">
+          <cell r="AN29">
+            <v>-0.32894234972067471</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AN30" t="str">
             <v>Overvalued</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="AN43">
-            <v>903.67385900421982</v>
           </cell>
         </row>
       </sheetData>
@@ -3242,78 +3366,88 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>10.36</v>
+            <v>78.150000000000006</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45782</v>
+            <v>45866</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>11270.644</v>
+            <v>11644.35</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1512.4000000000005</v>
+            <v>1503.2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>9758.2439999999988</v>
+            <v>10141.15</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="7">
-          <cell r="Y7">
-            <v>3766.2000000000003</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="Z17">
-            <v>303.49784900000031</v>
-          </cell>
-          <cell r="AA17">
-            <v>456.92357161199971</v>
-          </cell>
-          <cell r="AB17">
-            <v>568.85512020544002</v>
-          </cell>
-          <cell r="AC17">
-            <v>620.25302472713383</v>
-          </cell>
-          <cell r="AD17">
-            <v>716.54640673339497</v>
-          </cell>
-          <cell r="AJ17">
-            <v>836.28375176539021</v>
+        <row r="3">
+          <cell r="AV3">
+            <v>4554.8999999999996</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AV18">
+            <v>631.49999999999989</v>
+          </cell>
+          <cell r="AW18">
+            <v>648.75758120000035</v>
+          </cell>
+          <cell r="AX18">
+            <v>748.28422614399983</v>
+          </cell>
+          <cell r="AY18">
+            <v>770.59021232831992</v>
+          </cell>
+          <cell r="AZ18">
+            <v>783.3193960868864</v>
+          </cell>
+          <cell r="BF18">
+            <v>883.23712245597414</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AU22">
+            <v>-5.2964374628214017E-2</v>
+          </cell>
+          <cell r="AV22">
+            <v>5.9648714667907221E-2</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="AN23">
+          <cell r="AV23">
+            <v>0.43298425871039981</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AV24">
+            <v>0.14377922676677862</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BI25">
             <v>0.08</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="X24">
-            <v>0.65216157948485232</v>
-          </cell>
-          <cell r="Y24">
-            <v>0.29329349953641692</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AN29">
-            <v>-0.1126517168571709</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AN30" t="str">
-            <v>Slightly overvalued</v>
+        <row r="31">
+          <cell r="BI31">
+            <v>-4.3547613894122761E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="BI32" t="str">
+            <v>Fairly valued</v>
           </cell>
         </row>
       </sheetData>
@@ -3430,88 +3564,85 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>71.540000000000006</v>
+            <v>82.36</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45782</v>
+            <v>45867</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>10673.768</v>
+            <v>7338.2759999999998</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1502.8</v>
+            <v>-1676.2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>9170.9680000000008</v>
+            <v>9014.4760000000006</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="AR3">
-            <v>4606.5749999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AR18">
-            <v>618.58199999999965</v>
-          </cell>
-          <cell r="AS18">
-            <v>711.36306362499977</v>
-          </cell>
-          <cell r="AT18">
-            <v>801.23706914000013</v>
-          </cell>
-          <cell r="AU18">
-            <v>825.12573710620006</v>
-          </cell>
-          <cell r="AV18">
-            <v>838.96848049124037</v>
-          </cell>
-          <cell r="BB18">
-            <v>945.94553201326505</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AQ22">
-            <v>-5.2964374628214017E-2</v>
-          </cell>
-          <cell r="AR22">
-            <v>7.1670350122135629E-2</v>
+          <cell r="Z3">
+            <v>3330.6000000000004</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="AR23">
-            <v>0.4344687756087765</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AR24">
-            <v>0.15152309470702194</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="BE25">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="BE31">
-            <v>0.10377013281789149</v>
+          <cell r="Z23">
+            <v>199.2000000000003</v>
+          </cell>
+          <cell r="AA23">
+            <v>150.26912399999998</v>
+          </cell>
+          <cell r="AB23">
+            <v>358.60669531200028</v>
+          </cell>
+          <cell r="AC23">
+            <v>432.95125278024017</v>
+          </cell>
+          <cell r="AD23">
+            <v>488.513168767362</v>
+          </cell>
+          <cell r="AK23">
+            <v>767.49804230282518</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Z27">
+            <v>0.29858078602620086</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Z28">
+            <v>0.29216957905482505</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AO30">
+            <v>0.09</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="BE32" t="str">
-            <v>Slightly undervalued</v>
+          <cell r="Z32">
+            <v>7.4160811865729995E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AO36">
+            <v>-0.35523475844729624</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AO37" t="str">
+            <v>Overvalued</v>
           </cell>
         </row>
       </sheetData>
@@ -3534,85 +3665,88 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>73.5</v>
+            <v>149.62</v>
           </cell>
           <cell r="E3">
-            <v>45756</v>
+            <v>45764</v>
           </cell>
           <cell r="G3">
-            <v>45778</v>
+            <v>45785</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>6548.8499999999995</v>
+            <v>8513.3780000000006</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-1629.1</v>
+            <v>1262.8</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>8177.9499999999989</v>
+            <v>7250.5780000000004</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="Z3">
-            <v>3330.6000000000004</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Z23">
-            <v>199.2000000000003</v>
-          </cell>
-          <cell r="AA23">
-            <v>238.72730960000027</v>
-          </cell>
-          <cell r="AB23">
-            <v>504.26543477760021</v>
-          </cell>
-          <cell r="AC23">
-            <v>599.2175455562882</v>
-          </cell>
-          <cell r="AD23">
-            <v>674.82399552379991</v>
-          </cell>
-          <cell r="AK23">
-            <v>948.73067900168962</v>
+          <cell r="AZ3">
+            <v>4727.8999999999996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AZ13">
+            <v>454.49999999999966</v>
+          </cell>
+          <cell r="BA13">
+            <v>449.57382599999983</v>
+          </cell>
+          <cell r="BB13">
+            <v>445.48834746</v>
+          </cell>
+          <cell r="BC13">
+            <v>441.07713379859996</v>
+          </cell>
+          <cell r="BD13">
+            <v>443.01880423842584</v>
+          </cell>
+          <cell r="BK13">
+            <v>451.90847390519497</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AY17">
+            <v>-2.7815200945136453E-2</v>
+          </cell>
+          <cell r="AZ17">
+            <v>7.9735635859716769E-3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AZ18">
+            <v>0.30677467797542246</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AZ19">
+            <v>0.11516741047822494</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BN20">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BN26">
+            <v>-0.29684783704459616</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="Z27">
-            <v>0.29858078602620086</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Z28">
-            <v>0.29216957905482505</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AO30">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Z32">
-            <v>7.4160811865729995E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AO36">
-            <v>5.2231953691133093E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AO37" t="str">
-            <v>Fairly valued</v>
+          <cell r="BN27" t="str">
+            <v>Overvalued</v>
           </cell>
         </row>
       </sheetData>
@@ -3635,28 +3769,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>60</v>
+            <v>59.53</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45783</v>
           </cell>
           <cell r="G3">
-            <v>45771</v>
+            <v>45869</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>8753.9999999999982</v>
+            <v>8727.098</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>2058.5</v>
+            <v>2256.1</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>6695.4999999999982</v>
+            <v>6470.9979999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -3671,19 +3805,19 @@
             <v>-129.40000000000018</v>
           </cell>
           <cell r="AQ18">
-            <v>11.911727999999531</v>
+            <v>-8.2235920000007852</v>
           </cell>
           <cell r="AR18">
-            <v>221.74054400000037</v>
+            <v>196.63455295999964</v>
           </cell>
           <cell r="AS18">
-            <v>367.46020472000026</v>
+            <v>342.45798946879961</v>
           </cell>
           <cell r="AT18">
-            <v>490.2996515480005</v>
+            <v>465.99155682684778</v>
           </cell>
           <cell r="BA18">
-            <v>667.49017543233765</v>
+            <v>644.32339683926773</v>
           </cell>
         </row>
         <row r="24">
@@ -3699,9 +3833,19 @@
             <v>0.09</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="AP27">
+            <v>0.43898169086001887</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AP28">
+            <v>-5.3079485496146134E-2</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="BD32">
-            <v>-0.19948232694771839</v>
+            <v>-0.2009046635940247</v>
           </cell>
         </row>
         <row r="33">
@@ -3729,32 +3873,91 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>139.97999999999999</v>
+            <v>159.55000000000001</v>
           </cell>
           <cell r="E3">
-            <v>45772</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45776</v>
+            <v>45881</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>6089.1299999999992</v>
+            <v>6940.4250000000002</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>301.89999999999998</v>
+            <v>307.70000000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>5787.23</v>
+            <v>6632.7250000000004</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="Z3">
+            <v>2366.0300000000002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Z13">
+            <v>333.28025000000036</v>
+          </cell>
+          <cell r="AA13">
+            <v>407.45271719999994</v>
+          </cell>
+          <cell r="AB13">
+            <v>459.67040872000001</v>
+          </cell>
+          <cell r="AC13">
+            <v>490.07085759580002</v>
+          </cell>
+          <cell r="AD13">
+            <v>512.97105644649412</v>
+          </cell>
+          <cell r="AJ13">
+            <v>605.61560325345488</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Y17">
+            <v>0.1103189289213018</v>
+          </cell>
+          <cell r="Z17">
+            <v>0.15976177638351086</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Z18">
+            <v>0.40182584329023741</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AM19">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Z20">
+            <v>0.18119254616382729</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AM25">
+            <v>-0.12398551427679472</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AM26" t="str">
+            <v>Slightly overvalued</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3972,10 +4175,10 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>166.7</v>
+            <v>165.81</v>
           </cell>
           <cell r="E3">
-            <v>45771</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
             <v>45862</v>
@@ -3983,7 +4186,7 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>2032072.9999999998</v>
+            <v>2021223.9000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -4026,6 +4229,16 @@
             <v>0.13866243322901561</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="AU31">
+            <v>0.58200435406179107</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AU32">
+            <v>0.32109777211457696</v>
+          </cell>
+        </row>
         <row r="33">
           <cell r="BI33">
             <v>0.06</v>
@@ -4033,7 +4246,7 @@
         </row>
         <row r="39">
           <cell r="BI39">
-            <v>0.17985662830320859</v>
+            <v>0.18618961424609415</v>
           </cell>
         </row>
         <row r="40">
@@ -4356,10 +4569,10 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>11.39</v>
+            <v>13.77</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45780</v>
           </cell>
           <cell r="G3">
             <v>45832</v>
@@ -4367,7 +4580,7 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>3338.4090000000006</v>
+            <v>4035.9870000000001</v>
           </cell>
         </row>
         <row r="10">
@@ -4377,7 +4590,7 @@
         </row>
         <row r="11">
           <cell r="D11">
-            <v>4595.9531696113081</v>
+            <v>5293.5311696113076</v>
           </cell>
         </row>
         <row r="13">
@@ -4437,12 +4650,12 @@
         </row>
         <row r="31">
           <cell r="BC31">
-            <v>0.47478324345323664</v>
+            <v>0.21988243594280066</v>
           </cell>
         </row>
         <row r="32">
           <cell r="BC32" t="str">
-            <v>Undervalued</v>
+            <v>Slightly undervalued</v>
           </cell>
         </row>
       </sheetData>
@@ -4556,28 +4769,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>15</v>
-          </cell>
-          <cell r="F3">
-            <v>45751</v>
-          </cell>
-          <cell r="H3">
-            <v>45771</v>
+            <v>16.87</v>
+          </cell>
+          <cell r="E3">
+            <v>45776</v>
+          </cell>
+          <cell r="G3">
+            <v>45890</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>1327.5</v>
+            <v>1509.865</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>93.9</v>
+            <v>126.8</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>1233.5999999999999</v>
+            <v>1383.0650000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -4589,55 +4802,55 @@
         </row>
         <row r="27">
           <cell r="AB27">
-            <v>106.2141045000001</v>
+            <v>113.24559999999995</v>
           </cell>
           <cell r="AC27">
-            <v>138.91624085999987</v>
+            <v>138.23346399999994</v>
           </cell>
           <cell r="AD27">
-            <v>170.45307595219995</v>
+            <v>166.66507059200003</v>
           </cell>
           <cell r="AE27">
-            <v>182.54290103168199</v>
+            <v>178.35527070432005</v>
           </cell>
           <cell r="AF27">
-            <v>193.13506186367351</v>
+            <v>186.25340380022882</v>
           </cell>
           <cell r="AL27">
-            <v>230.4903218822634</v>
+            <v>220.38014208892315</v>
           </cell>
         </row>
         <row r="34">
           <cell r="Z34">
-            <v>0.19909502262443413</v>
+            <v>0.15774446823697352</v>
           </cell>
           <cell r="AA34">
-            <v>0.2148427672955977</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AA38">
+            <v>0.14796547472256472</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AA40">
             <v>0.7256160695796231</v>
           </cell>
         </row>
-        <row r="39">
-          <cell r="AO39">
+        <row r="41">
+          <cell r="AO41">
             <v>0.1</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="AA41">
-            <v>0.19092979913025471</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="AO45">
-            <v>0.4949184142731724</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="AO46" t="str">
-            <v>Undervalued</v>
+        <row r="43">
+          <cell r="AA43">
+            <v>0.19631393663284327</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AO47">
+            <v>0.11399138868960712</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AO48" t="str">
+            <v>Slightly undervalued</v>
           </cell>
         </row>
       </sheetData>
@@ -5041,18 +5254,18 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>179.8</v>
+            <v>189.98</v>
           </cell>
           <cell r="E3">
-            <v>45755</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45771</v>
+            <v>45869</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>1897249.6</v>
+            <v>2016903.6719999998</v>
           </cell>
         </row>
         <row r="8">
@@ -5072,19 +5285,19 @@
             <v>59248</v>
           </cell>
           <cell r="AY21">
-            <v>68538.312910000066</v>
+            <v>72231.661406549974</v>
           </cell>
           <cell r="AZ21">
-            <v>88366.472454824994</v>
+            <v>90374.257434135041</v>
           </cell>
           <cell r="BA21">
-            <v>97453.956771787256</v>
+            <v>99401.937973583466</v>
           </cell>
           <cell r="BB21">
-            <v>105030.7812352725</v>
+            <v>106950.90373861681</v>
           </cell>
           <cell r="BI21">
-            <v>123185.60267232871</v>
+            <v>125117.97854561971</v>
           </cell>
         </row>
         <row r="27">
@@ -5095,6 +5308,16 @@
             <v>0.1099089224666614</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="AX28">
+            <v>0.48854393464156787</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AX29">
+            <v>0.1075194487420038</v>
+          </cell>
+        </row>
         <row r="30">
           <cell r="BL30">
             <v>0.05</v>
@@ -5102,7 +5325,7 @@
         </row>
         <row r="36">
           <cell r="BL36">
-            <v>8.8029229814509335E-2</v>
+            <v>4.0562329874762826E-2</v>
           </cell>
         </row>
         <row r="37">
@@ -5751,78 +5974,78 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>18.45</v>
+            <v>4.4400000000000004</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
-          </cell>
-          <cell r="G3">
-            <v>45741</v>
+            <v>45780</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>?</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>184.03874999999999</v>
+            <v>43.067999999999998</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>42.906336088154269</v>
+            <v>140.4951856946355</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>141.13241391184573</v>
+            <v>-97.427185694635497</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="O5">
-            <v>712.375</v>
+            <v>334.37624999999997</v>
           </cell>
         </row>
         <row r="23">
           <cell r="O23">
-            <v>-8.9289999999999505</v>
+            <v>-65.195625000000021</v>
           </cell>
           <cell r="P23">
-            <v>-4.1479499999999918</v>
+            <v>-75.811683750000014</v>
           </cell>
           <cell r="Q23">
-            <v>0.25370300000004137</v>
+            <v>-85.133768362500035</v>
           </cell>
           <cell r="R23">
-            <v>6.864712200000076</v>
+            <v>-92.999013768375065</v>
           </cell>
           <cell r="S23">
-            <v>9.7365742740000307</v>
+            <v>-99.507942011156317</v>
           </cell>
           <cell r="Z23">
-            <v>0.78859206231218193</v>
+            <v>-121.34020466225257</v>
           </cell>
         </row>
         <row r="27">
           <cell r="N27">
-            <v>0.27266636891469398</v>
+            <v>-5.0000000000000044E-2</v>
           </cell>
           <cell r="O27">
-            <v>0.25</v>
+            <v>-0.35</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AC30">
+          <cell r="AA30">
             <v>0.15</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="AC37">
-            <v>-0.7539115941398663</v>
+          <cell r="AA37">
+            <v>0.42025776126590375</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="AC38" t="str">
-            <v>Heavily overvalued</v>
+          <cell r="AA38" t="str">
+            <v>Undervalued</v>
           </cell>
         </row>
       </sheetData>
@@ -5845,23 +6068,23 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>527</v>
+            <v>597.02</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45770</v>
+            <v>45868</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>1335259.9000000001</v>
+            <v>1508669.54</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>55059</v>
+            <v>47569</v>
           </cell>
         </row>
       </sheetData>
@@ -5876,19 +6099,19 @@
             <v>60810</v>
           </cell>
           <cell r="AV13">
-            <v>73128.653576000012</v>
+            <v>69360.091948000016</v>
           </cell>
           <cell r="AW13">
-            <v>80578.024901017605</v>
+            <v>75476.544138124795</v>
           </cell>
           <cell r="AX13">
-            <v>85532.19012960192</v>
+            <v>80130.824444583006</v>
           </cell>
           <cell r="AY13">
-            <v>89761.144705129947</v>
+            <v>84128.878349144317</v>
           </cell>
           <cell r="BF13">
-            <v>99526.259052551919</v>
+            <v>93021.975836658021</v>
           </cell>
         </row>
         <row r="17">
@@ -5899,19 +6122,27 @@
             <v>0.21697701430040461</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="AU18">
+            <v>0.81664437689969605</v>
+          </cell>
+        </row>
         <row r="19">
+          <cell r="AU19">
+            <v>0.41234042553191491</v>
+          </cell>
           <cell r="BI19">
-            <v>0.06</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="25">
           <cell r="BI25">
-            <v>0.11007147873450451</v>
+            <v>7.9710547986230784E-2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="BI26" t="str">
-            <v>Slightly undervalued</v>
+            <v>Fairly valued</v>
           </cell>
         </row>
       </sheetData>
@@ -6080,28 +6311,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>334.1</v>
+            <v>347.6</v>
           </cell>
           <cell r="E3">
-            <v>45751</v>
+            <v>45781</v>
           </cell>
           <cell r="G3">
-            <v>45776</v>
+            <v>45867</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>620657.57000000007</v>
+            <v>641356.76</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-4518</v>
+            <v>-5541</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>625175.57000000007</v>
+            <v>646897.76</v>
           </cell>
         </row>
       </sheetData>
@@ -6116,19 +6347,19 @@
             <v>19743</v>
           </cell>
           <cell r="Z18">
-            <v>20965.943490000001</v>
+            <v>19387.48919</v>
           </cell>
           <cell r="AA18">
-            <v>22808.922058560001</v>
+            <v>23778.803052560004</v>
           </cell>
           <cell r="AB18">
-            <v>23968.045488447999</v>
+            <v>24995.355212788003</v>
           </cell>
           <cell r="AC18">
-            <v>24681.266346551041</v>
+            <v>25749.556051681644</v>
           </cell>
           <cell r="AJ18">
-            <v>28234.823411367186</v>
+            <v>29643.615199106629</v>
           </cell>
         </row>
         <row r="22">
@@ -6139,14 +6370,22 @@
             <v>0.10023581294214923</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="Y23">
+            <v>0.82564159661526471</v>
+          </cell>
+        </row>
         <row r="24">
           <cell r="AN24">
             <v>0.06</v>
           </cell>
         </row>
         <row r="30">
+          <cell r="Y30">
+            <v>0.65676668707899566</v>
+          </cell>
           <cell r="AN30">
-            <v>-0.35091503803599566</v>
+            <v>-0.34683629154151641</v>
           </cell>
         </row>
         <row r="31">
@@ -6458,13 +6697,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20152DE-9CAD-4B68-A904-3CD5A32D5038}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AE80"/>
+  <dimension ref="B1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y36" sqref="Y36"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6474,22 +6713,22 @@
     <col min="4" max="4" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" style="8"/>
     <col min="8" max="18" width="8.88671875" style="7"/>
-    <col min="19" max="19" width="8.88671875" style="10"/>
-    <col min="20" max="23" width="10" style="7" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="7"/>
-    <col min="26" max="26" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="7"/>
-    <col min="30" max="30" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="10"/>
+    <col min="21" max="24" width="10" style="7" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" style="7"/>
+    <col min="27" max="27" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="7"/>
+    <col min="31" max="31" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D1" s="7"/>
-      <c r="AD1"/>
       <c r="AE1"/>
+      <c r="AF1"/>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6544,42 +6783,45 @@
       <c r="S2" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -6595,62 +6837,66 @@
       <c r="L3" s="2"/>
       <c r="M3" s="4">
         <f t="shared" ref="M3:R3" si="0">TRIMMEAN(M4:M1048576,80%)</f>
-        <v>22.232510933845937</v>
+        <v>22.679034854684605</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>23.676161872684311</v>
+        <v>25.105121300587093</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>18.693774023767013</v>
+        <v>19.070810881802391</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>16.768541115500412</v>
+        <v>16.749983330221287</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>15.34063896753098</v>
+        <v>15.701174206326655</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>12.742239298469389</v>
+        <v>13.481513827176512</v>
       </c>
       <c r="S3" s="23"/>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3:Y3" si="1">TRIMMEAN(T4:T1048576,80%)</f>
-        <v>0.11593112622452993</v>
+      <c r="T3" s="32">
+        <f t="shared" ref="T3:Z3" si="1">TRIMMEAN(T4:T1048576,80%)</f>
+        <v>3.4178769674376195</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="1"/>
-        <v>0.12494001369767301</v>
+        <v>0.10680281587009642</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="1"/>
-        <v>0.69309596416231212</v>
+        <v>0.12154904211131447</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="1"/>
-        <v>0.1829920236674194</v>
+        <v>0.57565628849809225</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="1"/>
-        <v>7.9999999999999988E-2</v>
+        <v>0.17183058360319287</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="1"/>
-        <v>-0.10677868464902869</v>
-      </c>
-      <c r="Z3" s="14" t="e">
-        <f>INDEX(Z4:Z60,MODE(MATCH(Z4:Z60,Z4:Z60,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AD3"/>
+        <v>8.076923076923076E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.12975489028566323</v>
+      </c>
+      <c r="AA3" s="14" t="str">
+        <f>INDEX(AA4:AA60,MODE(MATCH(AA4:AA60,AA4:AA60,0)))</f>
+        <v>Overvalued</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -6659,19 +6905,19 @@
       </c>
       <c r="D4" s="12">
         <f>[1]Main!$D$3</f>
-        <v>183.75</v>
+        <v>205.35</v>
       </c>
       <c r="E4" s="8">
         <f>[1]Main!$D$5</f>
-        <v>2760310.875</v>
+        <v>3067066.53</v>
       </c>
       <c r="F4" s="8">
         <f>[1]Main!$D$8</f>
-        <v>44569</v>
+        <v>34736</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G9" si="2">E4-F4</f>
-        <v>2715741.875</v>
+        <v>3032330.53</v>
       </c>
       <c r="H4" s="8">
         <f>[1]Model!BC17</f>
@@ -6679,87 +6925,97 @@
       </c>
       <c r="I4" s="8">
         <f>[1]Model!BD17</f>
-        <v>111865.525968</v>
+        <v>109071.23270399999</v>
       </c>
       <c r="J4" s="8">
         <f>[1]Model!BE17</f>
-        <v>117035.70172405441</v>
+        <v>111609.40499560322</v>
       </c>
       <c r="K4" s="8">
         <f>[1]Model!BF17</f>
-        <v>121596.57000020859</v>
+        <v>116111.91671326966</v>
       </c>
       <c r="L4" s="8">
         <f>[1]Model!BG17</f>
-        <v>125976.67287998067</v>
+        <v>120425.82935936152</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ref="M4:Q10" si="3">$G4/H4</f>
-        <v>28.972239854484936</v>
+        <v>32.349689873687801</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="3"/>
-        <v>24.276843571779736</v>
+        <v>27.801377639411189</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="3"/>
-        <v>23.20438836179364</v>
+        <v>27.16913086419067</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="3"/>
-        <v>22.334033558638549</v>
+        <v>26.115584134987024</v>
       </c>
       <c r="Q4" s="9">
         <f t="shared" si="3"/>
-        <v>21.557498010661995</v>
+        <v>25.180067649368247</v>
       </c>
       <c r="R4" s="9">
         <f>G4/[1]Model!$BN$17</f>
-        <v>18.266834278512885</v>
+        <v>21.883175898130119</v>
       </c>
       <c r="S4" s="10">
         <f>[1]Model!$BC$5</f>
         <v>391035</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="31">
+        <f>G4/S4</f>
+        <v>7.7546269004053343</v>
+      </c>
+      <c r="U4" s="11">
         <f>[1]Model!BB$30</f>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="U4" s="11">
+      <c r="V4" s="11">
         <f>[1]Model!BC$30</f>
         <v>2.021994077514111E-2</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="11">
+        <f>[1]Model!$BC$23</f>
+        <v>0.46206349815233932</v>
+      </c>
       <c r="X4" s="11">
+        <f>[1]Model!$BC$26</f>
+        <v>0.31510222870075566</v>
+      </c>
+      <c r="Y4" s="11">
         <f>[1]Model!$BQ$30</f>
         <v>0.05</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Z4" s="11">
         <f>[1]Model!$BQ$36</f>
-        <v>-1.8371852205646189E-2</v>
-      </c>
-      <c r="Z4" s="11" t="str">
+        <v>-0.16472620891373135</v>
+      </c>
+      <c r="AA4" s="11" t="str">
         <f>[1]Model!$BQ$37</f>
-        <v>Fairly valued</v>
-      </c>
-      <c r="AA4" s="8" t="s">
+        <v>Slightly overvalued</v>
+      </c>
+      <c r="AB4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AC4" s="7">
         <v>1976</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AE4" s="17">
         <f>[1]Main!$E$3</f>
-        <v>45755</v>
-      </c>
-      <c r="AE4" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF4" s="17">
         <f>[1]Main!$G$3</f>
-        <v>45771</v>
+        <v>45861</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6829,50 +7085,54 @@
         <f>[2]Model!$Y$3</f>
         <v>198750.4</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="31">
+        <f t="shared" ref="T5:T10" si="4">G5/S5</f>
+        <v>12.224282668110353</v>
+      </c>
+      <c r="U5" s="11">
         <f>[2]Model!W$18</f>
         <v>1.2585452658115224</v>
       </c>
-      <c r="U5" s="11">
+      <c r="V5" s="11">
         <f>[2]Model!X$18</f>
         <v>1.1420340763599355</v>
       </c>
-      <c r="V5" s="11">
+      <c r="W5" s="11">
         <f>[2]Model!$X$19</f>
         <v>0.74989463359310937</v>
       </c>
-      <c r="W5" s="11">
+      <c r="X5" s="11">
         <f>[2]Model!$X$22</f>
         <v>0.62418293140838488</v>
       </c>
-      <c r="X5" s="11">
+      <c r="Y5" s="11">
         <f>[2]Model!$AL$20</f>
         <v>0.05</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Z5" s="11">
         <f>[2]Model!$AL$26</f>
         <v>0.37440044199781752</v>
       </c>
-      <c r="Z5" s="7" t="str">
+      <c r="AA5" s="7" t="str">
         <f>[2]Model!$AL$27</f>
         <v>Undervalued</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AB5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AC5" s="7">
         <v>1993</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AE5" s="17">
         <f>[2]Main!$E$3</f>
         <v>45755</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AF5" s="17">
         <f>[2]Main!$G$3</f>
         <v>45804</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -6881,11 +7141,11 @@
       </c>
       <c r="D6" s="12">
         <f>[3]Main!$D$3</f>
-        <v>360.79</v>
+        <v>435.28</v>
       </c>
       <c r="E6" s="8">
         <f>[3]Main!$D$5</f>
-        <v>2682112.8600000003</v>
+        <v>3235218.5999999996</v>
       </c>
       <c r="F6" s="8">
         <f>[3]Main!$D$8</f>
@@ -6893,7 +7153,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>2639946.8600000003</v>
+        <v>3193052.5999999996</v>
       </c>
       <c r="H6" s="8">
         <f>[3]Model!AU17</f>
@@ -6901,87 +7161,97 @@
       </c>
       <c r="I6" s="8">
         <f>[3]Model!AV17</f>
-        <v>101152.82631099995</v>
+        <v>100270.81956400006</v>
       </c>
       <c r="J6" s="8">
         <f>[3]Model!AW17</f>
-        <v>117737.47990989001</v>
+        <v>116879.68056410999</v>
       </c>
       <c r="K6" s="8">
         <f>[3]Model!AX17</f>
-        <v>127720.2824728074</v>
+        <v>126432.79531779507</v>
       </c>
       <c r="L6" s="8">
         <f>[3]Model!AY17</f>
-        <v>135662.49833809285</v>
+        <v>134480.25517988933</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="3"/>
-        <v>29.833953304402861</v>
+        <v>36.084583220323658</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>26.098597105762895</v>
+        <v>31.844285444998913</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="3"/>
-        <v>22.422314984323386</v>
+        <v>27.319142083457095</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="3"/>
-        <v>20.669754316915675</v>
+        <v>25.254939527154363</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="3"/>
-        <v>19.459665658086486</v>
+        <v>23.74365363695042</v>
       </c>
       <c r="R6" s="9">
         <f>G6/[3]Model!$BF$17</f>
-        <v>15.746652808808893</v>
+        <v>19.110340230938036</v>
       </c>
       <c r="S6" s="10">
         <f>[3]Model!$AU$5</f>
         <v>239781</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="31">
+        <f t="shared" si="4"/>
+        <v>13.316537173504154</v>
+      </c>
+      <c r="U6" s="11">
         <f>[3]Model!AT$23</f>
         <v>6.8820295556564215E-2</v>
       </c>
-      <c r="U6" s="11">
+      <c r="V6" s="11">
         <f>[3]Model!AU$23</f>
         <v>0.13149611872684797</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="11">
+        <f>[3]Model!$AU$26</f>
+        <v>0.70009717200278587</v>
+      </c>
       <c r="X6" s="11">
+        <f>[3]Model!$AU$27</f>
+        <v>0.45352634278779386</v>
+      </c>
+      <c r="Y6" s="11">
         <f>[3]Model!$BI$22</f>
         <v>0.05</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Z6" s="11">
         <f>[3]Model!$BI$28</f>
-        <v>5.3517905418773992E-2</v>
-      </c>
-      <c r="Z6" s="11" t="str">
+        <v>-0.1306971479613509</v>
+      </c>
+      <c r="AA6" s="11" t="str">
         <f>[3]Model!$BI$29</f>
-        <v>Fairly valued</v>
-      </c>
-      <c r="AA6" s="7" t="s">
+        <v>Slightly overvalued</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AC6" s="7">
         <v>1975</v>
       </c>
-      <c r="AD6" s="17">
+      <c r="AE6" s="17">
         <f>[3]Main!$E$3</f>
-        <v>45755</v>
-      </c>
-      <c r="AE6" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF6" s="17">
         <f>[3]Main!$G$3</f>
-        <v>45776</v>
+        <v>45868</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6989,11 +7259,11 @@
       </c>
       <c r="D7" s="12">
         <f>[4]Main!$D$3</f>
-        <v>166.7</v>
+        <v>165.81</v>
       </c>
       <c r="E7" s="8">
         <f>[4]Main!$D$5</f>
-        <v>2032072.9999999998</v>
+        <v>2021223.9000000001</v>
       </c>
       <c r="F7" s="8">
         <f>[4]Main!$D$8</f>
@@ -7001,7 +7271,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="2"/>
-        <v>1909316.9999999998</v>
+        <v>1898467.9000000001</v>
       </c>
       <c r="H7" s="8">
         <f>[4]Model!AU20</f>
@@ -7025,70 +7295,80 @@
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>19.070666613396192</v>
+        <v>18.962303481891368</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="3"/>
-        <v>15.691174984824645</v>
+        <v>15.602014763380089</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="3"/>
-        <v>15.522320098931138</v>
+        <v>15.434119342856945</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="3"/>
-        <v>14.689247166172658</v>
+        <v>14.605780087929224</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="3"/>
-        <v>14.011628286871435</v>
+        <v>13.932011567150671</v>
       </c>
       <c r="R7" s="9">
         <f>G7/[4]Model!$BF$20</f>
-        <v>12.14088799396951</v>
+        <v>12.071901174109126</v>
       </c>
       <c r="S7" s="10">
         <f>[4]Model!$AU$10</f>
         <v>350018</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="31">
+        <f t="shared" si="4"/>
+        <v>5.4239150557971305</v>
+      </c>
+      <c r="U7" s="11">
         <f>[4]Model!AT$30</f>
         <v>8.6827702272695095E-2</v>
       </c>
-      <c r="U7" s="11">
+      <c r="V7" s="11">
         <f>[4]Model!AU$30</f>
         <v>0.13866243322901561</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="11">
+        <f>[4]Model!$AU$31</f>
+        <v>0.58200435406179107</v>
+      </c>
       <c r="X7" s="11">
+        <f>[4]Model!$AU$32</f>
+        <v>0.32109777211457696</v>
+      </c>
+      <c r="Y7" s="11">
         <f>[4]Model!$BI$33</f>
         <v>0.06</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Z7" s="11">
         <f>[4]Model!$BI$39</f>
-        <v>0.17985662830320859</v>
-      </c>
-      <c r="Z7" s="11" t="str">
+        <v>0.18618961424609415</v>
+      </c>
+      <c r="AA7" s="11" t="str">
         <f>[4]Model!$BI$40</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AB7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AC7" s="7">
         <v>1998</v>
       </c>
-      <c r="AD7" s="17">
+      <c r="AE7" s="17">
         <f>[4]Main!$E$3</f>
-        <v>45771</v>
-      </c>
-      <c r="AE7" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF7" s="17">
         <f>[4]Main!$G$3</f>
         <v>45862</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>95</v>
       </c>
@@ -7097,11 +7377,11 @@
       </c>
       <c r="D8" s="12">
         <f>[5]Main!$D$3</f>
-        <v>179.8</v>
+        <v>189.98</v>
       </c>
       <c r="E8" s="8">
         <f>[5]Main!$D$5</f>
-        <v>1897249.6</v>
+        <v>2016903.6719999998</v>
       </c>
       <c r="F8" s="8">
         <f>[5]Main!$D$8</f>
@@ -7109,7 +7389,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>1848670.6</v>
+        <v>1968324.6719999998</v>
       </c>
       <c r="H8" s="8">
         <f>[5]Model!AX21</f>
@@ -7117,86 +7397,96 @@
       </c>
       <c r="I8" s="8">
         <f>[5]Model!AY21</f>
-        <v>68538.312910000066</v>
+        <v>72231.661406549974</v>
       </c>
       <c r="J8" s="8">
         <f>[5]Model!AZ21</f>
-        <v>88366.472454824994</v>
+        <v>90374.257434135041</v>
       </c>
       <c r="K8" s="8">
         <f>[5]Model!BA21</f>
-        <v>97453.956771787256</v>
+        <v>99401.937973583466</v>
       </c>
       <c r="L8" s="8">
         <f>[5]Model!BB21</f>
-        <v>105030.7812352725</v>
+        <v>106950.90373861681</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>31.20224480151229</v>
+        <v>33.221790980286251</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>26.972805741914758</v>
+        <v>27.250164729306807</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>20.920497883912745</v>
+        <v>21.779705060752718</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>18.96968231191601</v>
+        <v>19.801673006849136</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>17.60122678568786</v>
+        <v>18.404002240228813</v>
       </c>
       <c r="R8" s="9">
         <f>G8/[5]Model!$BI$21</f>
-        <v>15.0071969442519</v>
+        <v>15.731749304775747</v>
       </c>
       <c r="S8" s="10">
         <f>[5]Model!$AX$5</f>
         <v>637959</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="31">
+        <f t="shared" si="4"/>
+        <v>3.0853466633435689</v>
+      </c>
+      <c r="U8" s="11">
         <f>[5]Model!AW$27</f>
         <v>0.1182957412988368</v>
       </c>
-      <c r="U8" s="11">
+      <c r="V8" s="11">
         <f>[5]Model!AX$27</f>
         <v>0.1099089224666614</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="11">
+        <f>[5]Model!$AX$28</f>
+        <v>0.48854393464156787</v>
+      </c>
       <c r="X8" s="11">
+        <f>[5]Model!$AX$29</f>
+        <v>0.1075194487420038</v>
+      </c>
+      <c r="Y8" s="11">
         <f>[5]Model!$BL$30</f>
         <v>0.05</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Z8" s="11">
         <f>[5]Model!$BL$36</f>
-        <v>8.8029229814509335E-2</v>
-      </c>
-      <c r="Z8" s="7" t="str">
+        <v>4.0562329874762826E-2</v>
+      </c>
+      <c r="AA8" s="7" t="str">
         <f>[5]Model!$BL$37</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
         <v>1994</v>
       </c>
-      <c r="AD8" s="17">
+      <c r="AE8" s="17">
         <f>[5]Main!$E$3</f>
-        <v>45755</v>
-      </c>
-      <c r="AE8" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF8" s="17">
         <f>[5]Main!$G$3</f>
-        <v>45771</v>
+        <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -7205,19 +7495,19 @@
       </c>
       <c r="D9" s="12">
         <f>[6]Main!$D$3</f>
-        <v>527</v>
+        <v>597.02</v>
       </c>
       <c r="E9" s="8">
         <f>[6]Main!$D$5</f>
-        <v>1335259.9000000001</v>
+        <v>1508669.54</v>
       </c>
       <c r="F9" s="8">
         <f>[6]Main!$D$8</f>
-        <v>55059</v>
+        <v>47569</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>1280200.9000000001</v>
+        <v>1461100.54</v>
       </c>
       <c r="H9" s="8">
         <f>[6]Model!AU13</f>
@@ -7225,86 +7515,96 @@
       </c>
       <c r="I9" s="8">
         <f>[6]Model!AV13</f>
-        <v>73128.653576000012</v>
+        <v>69360.091948000016</v>
       </c>
       <c r="J9" s="8">
         <f>[6]Model!AW13</f>
-        <v>80578.024901017605</v>
+        <v>75476.544138124795</v>
       </c>
       <c r="K9" s="8">
         <f>[6]Model!AX13</f>
-        <v>85532.19012960192</v>
+        <v>80130.824444583006</v>
       </c>
       <c r="L9" s="8">
         <f>[6]Model!AY13</f>
-        <v>89761.144705129947</v>
+        <v>84128.878349144317</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>21.05247327742148</v>
+        <v>24.027307021871405</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>17.506146187547852</v>
+        <v>21.06543545379672</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>15.887717545479733</v>
+        <v>19.358339159330527</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>14.967474795865588</v>
+        <v>18.233938688731076</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>14.262305858570844</v>
+        <v>17.367407823224127</v>
       </c>
       <c r="R9" s="9">
         <f>G9/[6]Model!$BF$13</f>
-        <v>12.862946042451245</v>
+        <v>15.707046930132082</v>
       </c>
       <c r="S9" s="10">
         <f>[6]Model!$AU$3</f>
         <v>164500</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="31">
+        <f t="shared" si="4"/>
+        <v>8.8820701519756842</v>
+      </c>
+      <c r="U9" s="11">
         <f>[6]Model!AT$17</f>
         <v>0.15918153830321846</v>
       </c>
-      <c r="U9" s="11">
+      <c r="V9" s="11">
         <f>[6]Model!AU$17</f>
         <v>0.21697701430040461</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="11">
+        <f>[6]Model!$AU$18</f>
+        <v>0.81664437689969605</v>
+      </c>
       <c r="X9" s="11">
+        <f>[6]Model!$AU$19</f>
+        <v>0.41234042553191491</v>
+      </c>
+      <c r="Y9" s="11">
         <f>[6]Model!$BI$19</f>
-        <v>0.06</v>
-      </c>
-      <c r="Y9" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="11">
         <f>[6]Model!$BI$25</f>
-        <v>0.11007147873450451</v>
-      </c>
-      <c r="Z9" s="11" t="str">
+        <v>7.9710547986230784E-2</v>
+      </c>
+      <c r="AA9" s="11" t="str">
         <f>[6]Model!$BI$26</f>
-        <v>Slightly undervalued</v>
-      </c>
-      <c r="AA9" s="7" t="s">
+        <v>Fairly valued</v>
+      </c>
+      <c r="AB9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AC9" s="7">
         <v>2004</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AE9" s="17">
         <f>[6]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE9" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF9" s="17">
         <f>[6]Main!$G$3</f>
-        <v>45770</v>
+        <v>45868</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>74</v>
       </c>
@@ -7375,44 +7675,48 @@
         <f>[7]Model!$AV$9</f>
         <v>97690</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="31">
+        <f t="shared" si="4"/>
+        <v>8.1585565564540889</v>
+      </c>
+      <c r="U10" s="11">
         <f>[7]Model!AU$36</f>
         <v>0.18795266504627928</v>
       </c>
-      <c r="U10" s="11">
+      <c r="V10" s="11">
         <f>[7]Model!AV$36</f>
         <v>9.4757835346634955E-3</v>
       </c>
-      <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="11">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11">
         <f>[7]Model!$BJ$31</f>
         <v>0.05</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Z10" s="11">
         <f>[7]Model!$BJ$37</f>
         <v>-0.62575831274388716</v>
       </c>
-      <c r="Z10" s="7" t="str">
+      <c r="AA10" s="7" t="str">
         <f>[7]Model!$BJ$38</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>2003</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AE10" s="17">
         <f>[7]Main!$E$3</f>
         <v>45770</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AF10" s="17">
         <f>[7]Main!$G$3</f>
         <v>45867</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
@@ -7446,37 +7750,37 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="11">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11">
         <v>0.05</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Z11" s="11">
         <f>[8]Model!$AI$45</f>
         <v>-5.3794479220261815E-2</v>
       </c>
-      <c r="Z11" s="11" t="str">
+      <c r="AA11" s="11" t="str">
         <f>[8]Model!$AI$46</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AB11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AC11" s="7">
         <v>1998</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AE11" s="17">
         <f>[8]Main!$E$3</f>
         <v>44323</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AF11" s="17">
         <f>[8]Main!$G$3</f>
         <v>44336</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
@@ -7485,19 +7789,19 @@
       </c>
       <c r="D12" s="12">
         <f>[9]Main!$D$3</f>
-        <v>334.1</v>
+        <v>347.6</v>
       </c>
       <c r="E12" s="8">
         <f>[9]Main!$D$5</f>
-        <v>620657.57000000007</v>
+        <v>641356.76</v>
       </c>
       <c r="F12" s="8">
         <f>[9]Main!$D$8</f>
-        <v>-4518</v>
+        <v>-5541</v>
       </c>
       <c r="G12" s="8">
         <f>[9]Main!$D$9</f>
-        <v>625175.57000000007</v>
+        <v>646897.76</v>
       </c>
       <c r="H12" s="8">
         <f>[9]Model!Y18</f>
@@ -7505,86 +7809,96 @@
       </c>
       <c r="I12" s="8">
         <f>[9]Model!Z18</f>
-        <v>20965.943490000001</v>
+        <v>19387.48919</v>
       </c>
       <c r="J12" s="8">
         <f>[9]Model!AA18</f>
-        <v>22808.922058560001</v>
+        <v>23778.803052560004</v>
       </c>
       <c r="K12" s="8">
         <f>[9]Model!AB18</f>
-        <v>23968.045488447999</v>
+        <v>24995.355212788003</v>
       </c>
       <c r="L12" s="8">
         <f>[9]Model!AC18</f>
-        <v>24681.266346551041</v>
+        <v>25749.556051681644</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" ref="M12:Q17" si="4">$G12/H12</f>
-        <v>31.665682520386977</v>
+        <f t="shared" ref="M12:Q17" si="5">$G12/H12</f>
+        <v>32.76593020310996</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="4"/>
-        <v>29.818623249565956</v>
+        <f t="shared" si="5"/>
+        <v>33.366763156400246</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="4"/>
-        <v>27.409255395538377</v>
+        <f t="shared" si="5"/>
+        <v>27.204807515757427</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="4"/>
-        <v>26.083710926755337</v>
+        <f t="shared" si="5"/>
+        <v>25.88071881727199</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="4"/>
-        <v>25.329963269383139</v>
+        <f t="shared" si="5"/>
+        <v>25.122676239606569</v>
       </c>
       <c r="R12" s="9">
         <f>G12/[9]Model!$AJ$18</f>
-        <v>22.1420038968017</v>
+        <v>21.822498897485879</v>
       </c>
       <c r="S12" s="10">
         <f>[9]Model!$Y$3</f>
         <v>35926</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="31">
+        <f t="shared" ref="T12:T17" si="6">G12/S12</f>
+        <v>18.006395368256975</v>
+      </c>
+      <c r="U12" s="11">
         <f>[9]Model!X$22</f>
         <v>0.11405663596042315</v>
       </c>
-      <c r="U12" s="11">
+      <c r="V12" s="11">
         <f>[9]Model!Y$22</f>
         <v>0.10023581294214923</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="W12" s="11">
+        <f>[9]Model!$Y$23</f>
+        <v>0.82564159661526471</v>
+      </c>
       <c r="X12" s="11">
+        <f>[9]Model!$Y$30</f>
+        <v>0.65676668707899566</v>
+      </c>
+      <c r="Y12" s="11">
         <f>[9]Model!$AN$24</f>
         <v>0.06</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Z12" s="11">
         <f>[9]Model!$AN$30</f>
-        <v>-0.35091503803599566</v>
-      </c>
-      <c r="Z12" s="7" t="str">
+        <v>-0.34683629154151641</v>
+      </c>
+      <c r="AA12" s="7" t="str">
         <f>[9]Model!$AN$31</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AB12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AC12" s="7">
         <v>1958</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AE12" s="17">
         <f>[9]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE12" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF12" s="17">
         <f>[9]Main!$G$3</f>
-        <v>45776</v>
+        <v>45867</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>115</v>
       </c>
@@ -7593,19 +7907,19 @@
       </c>
       <c r="D13" s="12">
         <f>[10]Main!$D$3</f>
-        <v>525</v>
+        <v>559.39</v>
       </c>
       <c r="E13" s="8">
         <f>[10]Main!$D$5</f>
-        <v>478642.49999999994</v>
+        <v>507982.05899999995</v>
       </c>
       <c r="F13" s="8">
         <f>[10]Main!$D$8</f>
-        <v>-8962</v>
+        <v>-10908</v>
       </c>
       <c r="G13" s="8">
         <f>[10]Main!$D$9</f>
-        <v>487604.49999999994</v>
+        <v>518890.05899999995</v>
       </c>
       <c r="H13" s="8">
         <f>[10]Model!Y17</f>
@@ -7613,86 +7927,96 @@
       </c>
       <c r="I13" s="8">
         <f>[10]Model!Z17</f>
-        <v>14369.14817</v>
+        <v>14232.637769999998</v>
       </c>
       <c r="J13" s="8">
         <f>[10]Model!AA17</f>
-        <v>16841.553170400006</v>
+        <v>16850.852171999999</v>
       </c>
       <c r="K13" s="8">
         <f>[10]Model!AB17</f>
-        <v>18211.010242992004</v>
+        <v>18222.929010719999</v>
       </c>
       <c r="L13" s="8">
         <f>[10]Model!AC17</f>
-        <v>19319.803928769124</v>
+        <v>19333.689526972801</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="4"/>
-        <v>37.875135932887986</v>
+        <f t="shared" si="5"/>
+        <v>40.305271011340686</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="4"/>
-        <v>33.934127077763996</v>
+        <f t="shared" si="5"/>
+        <v>36.45775768239762</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="4"/>
-        <v>28.952466264037497</v>
+        <f t="shared" si="5"/>
+        <v>30.793104924521675</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="4"/>
-        <v>26.775258126475485</v>
+        <f t="shared" si="5"/>
+        <v>28.474569521439314</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="4"/>
-        <v>25.238584294010767</v>
+        <f t="shared" si="5"/>
+        <v>26.838646512663114</v>
       </c>
       <c r="R13" s="9">
         <f>G13/[10]Model!$AJ$17</f>
-        <v>19.882562157488522</v>
+        <v>21.140243055262044</v>
       </c>
       <c r="S13" s="10">
         <f>[10]Model!$Y$3</f>
         <v>28167</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="31">
+        <f t="shared" si="6"/>
+        <v>18.421914261369686</v>
+      </c>
+      <c r="U13" s="11">
         <f>[10]Model!X$21</f>
         <v>0.1286594414714215</v>
       </c>
-      <c r="U13" s="11">
+      <c r="V13" s="11">
         <f>[10]Model!Y$21</f>
         <v>0.12228065981353087</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="11">
+        <f>[10]Model!$Y$22</f>
+        <v>0.63812262576774237</v>
+      </c>
       <c r="X13" s="11">
+        <f>[10]Model!$Y$26</f>
+        <v>0.55320055383959954</v>
+      </c>
+      <c r="Y13" s="11">
         <f>[10]Model!$AM$24</f>
         <v>0.06</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Z13" s="11">
         <f>[10]Model!$AM$30</f>
-        <v>-0.30789247181110724</v>
-      </c>
-      <c r="Z13" s="7" t="str">
+        <v>-0.35142924937740316</v>
+      </c>
+      <c r="AA13" s="7" t="str">
         <f>[10]Model!$AM$31</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AB13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AC13" s="7">
         <v>1966</v>
       </c>
-      <c r="AD13" s="17">
-        <f>[10]Main!$F$3</f>
+      <c r="AE13" s="17">
+        <f>[10]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE13" s="17">
-        <f>[10]Main!$H$3</f>
+      <c r="AF13" s="17">
+        <f>[10]Main!$G$3</f>
         <v>45771</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
@@ -7736,23 +8060,23 @@
         <v>8711.3999999999924</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156.20658882402003</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84.182624924273554</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.901622957389066</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.654384245562127</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.449102325688216</v>
       </c>
       <c r="R14" s="9">
@@ -7763,44 +8087,54 @@
         <f>[11]Model!$BM$26</f>
         <v>24992</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="31">
+        <f t="shared" si="6"/>
+        <v>17.236352032650448</v>
+      </c>
+      <c r="U14" s="11">
         <f>[11]Model!BL$47</f>
         <v>0.27599656870505318</v>
       </c>
-      <c r="U14" s="11">
+      <c r="V14" s="11">
         <f>[11]Model!BM$47</f>
         <v>0.24005160265952163</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="11">
+        <f>[11]Model!$BQ$41</f>
+        <v>0.46056373058057626</v>
+      </c>
       <c r="X14" s="11">
+        <f>[11]Model!$BQ$42</f>
+        <v>0.26710665651305471</v>
+      </c>
+      <c r="Y14" s="11">
         <f>[11]Model!$CE$47</f>
         <v>0.06</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Z14" s="11">
         <f>[11]Model!$CE$53</f>
         <v>-0.45650787239829793</v>
       </c>
-      <c r="Z14" s="7" t="str">
+      <c r="AA14" s="7" t="str">
         <f>[11]Model!$CE$54</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA14" s="7" t="s">
+      <c r="AB14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>1997</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="AE14" s="17">
         <f>[11]Main!$E$3</f>
         <v>45769</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AF14" s="17">
         <f>[11]Main!$G$3</f>
         <v>45854</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>185</v>
       </c>
@@ -7844,23 +8178,23 @@
         <v>8692.9387365576058</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.645220267871551</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.281064328782605</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.732109495991956</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.82804399189488</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.836428631312494</v>
       </c>
       <c r="R15" s="9">
@@ -7871,50 +8205,54 @@
         <f>[12]Model!$AY$5</f>
         <v>37895</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="31">
+        <f t="shared" si="6"/>
+        <v>6.156153318379733</v>
+      </c>
+      <c r="U15" s="11">
         <f>[12]Model!AX$26</f>
         <v>0.11179510079101806</v>
       </c>
-      <c r="U15" s="11">
+      <c r="V15" s="11">
         <f>[12]Model!AY$26</f>
         <v>8.7156094902028247E-2</v>
       </c>
-      <c r="V15" s="11">
+      <c r="W15" s="11">
         <f>[12]Model!$AY$29</f>
         <v>0.77192241720543608</v>
       </c>
-      <c r="W15" s="11">
+      <c r="X15" s="11">
         <f>[12]Model!$AY$30</f>
         <v>0.19013062409288825</v>
       </c>
-      <c r="X15" s="11">
+      <c r="Y15" s="11">
         <f>[12]Model!$BM$31</f>
         <v>0.06</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Z15" s="11">
         <f>[12]Model!$BM$37</f>
         <v>-0.42844692622181901</v>
       </c>
-      <c r="Z15" s="7" t="str">
+      <c r="AA15" s="7" t="str">
         <f>[12]Model!$BM$38</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AB15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AC15" s="7">
         <v>1999</v>
       </c>
-      <c r="AD15" s="17">
+      <c r="AE15" s="17">
         <f>[12]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AF15" s="17">
         <f>[12]Main!$G$3</f>
         <v>45805</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>147</v>
       </c>
@@ -7958,23 +8296,23 @@
         <v>12874.44235747176</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.984805015302594</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.981893492781067</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.113605633757777</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.674888263402625</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.362838189271637</v>
       </c>
       <c r="R16" s="9">
@@ -7985,44 +8323,54 @@
         <f>[13]Model!$Y$16</f>
         <v>74201</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="31">
+        <f t="shared" si="6"/>
+        <v>2.3185548712281507</v>
+      </c>
+      <c r="U16" s="11">
         <f>[13]Model!X$38</f>
         <v>0.21103820224719105</v>
       </c>
-      <c r="U16" s="11">
+      <c r="V16" s="11">
         <f>[13]Model!Y$38</f>
         <v>0.10149337925301349</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="11">
+        <f>[13]Model!$Y$39</f>
+        <v>0.45143596447487233</v>
+      </c>
       <c r="X16" s="11">
+        <f>[13]Model!$Y$43</f>
+        <v>0.17378471988248137</v>
+      </c>
+      <c r="Y16" s="11">
         <f>[13]Model!$AN$40</f>
         <v>0.06</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Z16" s="11">
         <f>[13]Model!$AN$46</f>
         <v>0.20252062275431082</v>
       </c>
-      <c r="Z16" s="7" t="str">
+      <c r="AA16" s="7" t="str">
         <f>[13]Model!$AN$47</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AA16" s="7" t="s">
+      <c r="AB16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AC16" s="7">
         <v>1850</v>
       </c>
-      <c r="AD16" s="17">
+      <c r="AE16" s="17">
         <f>[13]Main!$F$3</f>
         <v>45769</v>
       </c>
-      <c r="AE16" s="17">
+      <c r="AF16" s="17">
         <f>[13]Main!$H$3</f>
         <v>45856</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="28" t="s">
         <v>79</v>
       </c>
@@ -8031,11 +8379,11 @@
       </c>
       <c r="D17" s="12">
         <f>[14]Main!$D$3</f>
-        <v>83.6</v>
+        <v>112.86</v>
       </c>
       <c r="E17" s="8">
         <f>[14]Main!$D$5</f>
-        <v>196075.44</v>
+        <v>265074.28200000001</v>
       </c>
       <c r="F17" s="8">
         <f>[14]Main!$D$8</f>
@@ -8043,7 +8391,7 @@
       </c>
       <c r="G17" s="8">
         <f>[14]Main!$D$9</f>
-        <v>190845.44</v>
+        <v>259844.28200000001</v>
       </c>
       <c r="H17" s="8">
         <f>[14]Model!AL18</f>
@@ -8051,86 +8399,96 @@
       </c>
       <c r="I17" s="8">
         <f>[14]Model!AM18</f>
-        <v>835.43674499999997</v>
+        <v>912.45863900000018</v>
       </c>
       <c r="J17" s="8">
         <f>[14]Model!AN18</f>
-        <v>1390.8552371999997</v>
+        <v>1408.7244116000004</v>
       </c>
       <c r="K17" s="8">
         <f>[14]Model!AO18</f>
-        <v>2078.6341469519998</v>
+        <v>2195.9199466512005</v>
       </c>
       <c r="L17" s="8">
         <f>[14]Model!AP18</f>
-        <v>2891.7309941960007</v>
+        <v>3176.2438977184956</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="4"/>
-        <v>411.21620340443855</v>
+        <f t="shared" si="5"/>
+        <v>559.88856280973903</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="4"/>
-        <v>228.43792919355013</v>
+        <f t="shared" si="5"/>
+        <v>284.77376496185485</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="4"/>
-        <v>137.21445258688496</v>
+        <f t="shared" si="5"/>
+        <v>184.45359494045692</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="4"/>
-        <v>91.812905257928989</v>
+        <f t="shared" si="5"/>
+        <v>118.33048941345294</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="4"/>
-        <v>65.996954897618863</v>
+        <f t="shared" si="5"/>
+        <v>81.808667837708199</v>
       </c>
       <c r="R17" s="9">
         <f>G17/[14]Model!$AW$18</f>
-        <v>29.918477690011503</v>
+        <v>36.205411374657338</v>
       </c>
       <c r="S17" s="10">
         <f>[14]Model!$AL$3</f>
         <v>2865.4</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="31">
+        <f t="shared" si="6"/>
+        <v>90.683423605779296</v>
+      </c>
+      <c r="U17" s="11">
         <f>[14]Model!AK$22</f>
         <v>0.1674799307413819</v>
       </c>
-      <c r="U17" s="11">
+      <c r="V17" s="11">
         <f>[14]Model!AL$22</f>
         <v>0.28776234775965137</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="11">
+        <f>[14]Model!$AL$23</f>
+        <v>0.80247085921686323</v>
+      </c>
       <c r="X17" s="11">
+        <f>[14]Model!$AL$24</f>
+        <v>0.10829203601591407</v>
+      </c>
+      <c r="Y17" s="11">
         <f>[14]Model!$AZ$26</f>
         <v>0.06</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Z17" s="11">
         <f>[14]Model!$AZ$32</f>
-        <v>-0.58666400706025246</v>
-      </c>
-      <c r="Z17" s="7" t="str">
+        <v>-0.65985115258855642</v>
+      </c>
+      <c r="AA17" s="7" t="str">
         <f>[14]Model!$AZ$33</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA17" s="7" t="s">
+      <c r="AB17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AC17" s="7">
         <v>2003</v>
       </c>
-      <c r="AD17" s="17">
+      <c r="AE17" s="17">
         <f>[14]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE17" s="17">
+        <v>45783</v>
+      </c>
+      <c r="AF17" s="17">
         <f>[14]Main!$G$3</f>
-        <v>45789</v>
+        <v>45880</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>20</v>
       </c>
@@ -8164,38 +8522,38 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="11">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
         <f>[15]Model!$AE$23</f>
         <v>0.05</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Z18" s="11">
         <f>[15]Model!$AE$29</f>
         <v>-6.9181920876941971E-2</v>
       </c>
-      <c r="Z18" s="7" t="str">
+      <c r="AA18" s="7" t="str">
         <f>[15]Model!$AE$30</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AB18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AC18" s="7">
         <v>1969</v>
       </c>
-      <c r="AD18" s="17">
+      <c r="AE18" s="17">
         <f>[15]Main!$E$3</f>
         <v>44120</v>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AF18" s="17" t="str">
         <f>[15]Main!$G$3</f>
         <v>Jan-Feb?</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
@@ -8239,23 +8597,23 @@
         <v>9817.3728258876235</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" ref="M19:Q25" si="5">$G19/H19</f>
+        <f t="shared" ref="M19:Q25" si="7">$G19/H19</f>
         <v>28.359935251798561</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.250898024142785</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.368772604142503</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.036984605852396</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.061449717403747</v>
       </c>
       <c r="R19" s="9">
@@ -8266,50 +8624,54 @@
         <f>[16]Model!$AP$6</f>
         <v>21505</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="31">
+        <f t="shared" ref="T19:T40" si="8">G19/S19</f>
+        <v>7.3323059753545685</v>
+      </c>
+      <c r="U19" s="11">
         <f>[16]Model!$AO$31</f>
         <v>0.10240826990798602</v>
       </c>
-      <c r="U19" s="11">
+      <c r="V19" s="11">
         <f>[16]Model!$AP$31</f>
         <v>0.10799113813179462</v>
       </c>
-      <c r="V19" s="11">
+      <c r="W19" s="11">
         <f>[16]Model!$AP$32</f>
         <v>0.89035108114392003</v>
       </c>
-      <c r="W19" s="11">
+      <c r="X19" s="11">
         <f>[16]Model!$AP$33</f>
         <v>0.31346198558474775</v>
       </c>
-      <c r="X19" s="11">
+      <c r="Y19" s="11">
         <f>[16]Model!$BD$33</f>
         <v>0.06</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Z19" s="11">
         <f>[16]Model!$BD$39</f>
         <v>-3.1856995145475464E-2</v>
       </c>
-      <c r="Z19" s="7" t="str">
+      <c r="AA19" s="7" t="str">
         <f>[16]Model!$BD$40</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AC19" s="7">
         <v>1982</v>
       </c>
-      <c r="AD19" s="17">
+      <c r="AE19" s="17">
         <f>[16]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AF19" s="17">
         <f>[16]Main!$G$3</f>
         <v>45820</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
@@ -8353,23 +8715,23 @@
         <v>9788.6832334527826</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.281054235222442</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.25490031427605</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25.419536941777462</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.950870206073606</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.134947823594281</v>
       </c>
       <c r="R20" s="9">
@@ -8380,44 +8742,48 @@
         <f>[17]Model!$AD$3</f>
         <v>25785</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="31">
+        <f t="shared" si="8"/>
+        <v>5.7456354469652906</v>
+      </c>
+      <c r="U20" s="11">
         <f>[17]Model!AC$24</f>
         <v>-3.9023770179229644E-2</v>
       </c>
-      <c r="U20" s="11">
+      <c r="V20" s="11">
         <f>[17]Model!AD$24</f>
         <v>0.13690476190476186</v>
       </c>
-      <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="11">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11">
         <f>[17]Model!$AR$26</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Z20" s="11">
         <f>[17]Model!$AR$32</f>
         <v>0.22207640094619396</v>
       </c>
-      <c r="Z20" s="7" t="str">
+      <c r="AA20" s="7" t="str">
         <f>[17]Model!$AR$33</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AA20" s="7" t="s">
+      <c r="AB20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AC20" s="7">
         <v>1969</v>
       </c>
-      <c r="AD20" s="17">
+      <c r="AE20" s="17">
         <f>[17]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE20" s="17">
+      <c r="AF20" s="17">
         <f>[17]Main!$G$3</f>
         <v>45783</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>195</v>
       </c>
@@ -8461,23 +8827,23 @@
         <v>4878.0582544244799</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" ref="M21" si="6">$G21/H21</f>
+        <f t="shared" ref="M21" si="9">$G21/H21</f>
         <v>39.976250399233471</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" ref="N21" si="7">$G21/I21</f>
+        <f t="shared" ref="N21" si="10">$G21/I21</f>
         <v>30.273109188007691</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" ref="O21" si="8">$G21/J21</f>
+        <f t="shared" ref="O21" si="11">$G21/J21</f>
         <v>28.227368961878518</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" ref="P21" si="9">$G21/K21</f>
+        <f t="shared" ref="P21" si="12">$G21/K21</f>
         <v>26.779677974900018</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" ref="Q21" si="10">$G21/L21</f>
+        <f t="shared" ref="Q21" si="13">$G21/L21</f>
         <v>25.658906366374918</v>
       </c>
       <c r="R21" s="9">
@@ -8488,50 +8854,54 @@
         <f>[18]Model!$Y$5</f>
         <v>20456</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="31">
+        <f t="shared" si="8"/>
+        <v>6.1187739538521706</v>
+      </c>
+      <c r="U21" s="11">
         <f>[18]Model!$X$26</f>
         <v>7.6450358008682384E-2</v>
       </c>
-      <c r="U21" s="11">
+      <c r="V21" s="11">
         <f>[18]Model!$Y$26</f>
         <v>7.1387419473105229E-2</v>
       </c>
-      <c r="V21" s="11">
+      <c r="W21" s="11">
         <f>[18]Model!$Y$29</f>
         <v>0.60828118889323424</v>
       </c>
-      <c r="W21" s="11">
+      <c r="X21" s="11">
         <f>[18]Model!$Y$31</f>
         <v>0.28739734063355493</v>
       </c>
-      <c r="X21" s="11">
+      <c r="Y21" s="11">
         <f>[18]Model!$AM$26</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Z21" s="11">
         <f>[18]Model!$AM$32</f>
         <v>-0.57655076564752616</v>
       </c>
-      <c r="Z21" s="7" t="str">
+      <c r="AA21" s="7" t="str">
         <f>[18]Model!$AM$33</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AC21" s="7">
         <v>1984</v>
       </c>
-      <c r="AD21" s="17">
+      <c r="AE21" s="17">
         <f>[18]Main!$E$3</f>
         <v>45772</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AF21" s="17">
         <f>[18]Main!$G$3</f>
         <v>45867</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>22</v>
       </c>
@@ -8575,23 +8945,23 @@
         <v>3383.2235656655957</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9471113243762002</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-54.272166785971535</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153.23813227863175</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42.681658748061366</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32.969745520809376</v>
       </c>
       <c r="R22" s="9">
@@ -8602,44 +8972,48 @@
         <f>[19]Model!$AE$11</f>
         <v>53101</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="31">
+        <f t="shared" si="8"/>
+        <v>2.1006011186230014</v>
+      </c>
+      <c r="U22" s="11">
         <f>[19]Model!AD$35</f>
         <v>-0.13997525930155108</v>
       </c>
-      <c r="U22" s="11">
+      <c r="V22" s="11">
         <f>[19]Model!AE$35</f>
         <v>-2.0782621523935951E-2</v>
       </c>
-      <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="11">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11">
         <f>[19]Model!$AS$38</f>
         <v>0.06</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Z22" s="11">
         <f>[19]Model!$AS$44</f>
         <v>-0.37659448511523141</v>
       </c>
-      <c r="Z22" s="11" t="str">
+      <c r="AA22" s="11" t="str">
         <f>[19]Model!$AS$45</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA22" s="7" t="s">
+      <c r="AB22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AC22" s="7">
         <v>1968</v>
       </c>
-      <c r="AD22" s="17">
+      <c r="AE22" s="17">
         <f>[19]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE22" s="17">
+      <c r="AF22" s="17">
         <f>[19]Main!$G$3</f>
         <v>45862</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>135</v>
       </c>
@@ -8648,19 +9022,19 @@
       </c>
       <c r="D23" s="12">
         <f>[20]Main!$D$3</f>
-        <v>551.44000000000005</v>
+        <v>573.16999999999996</v>
       </c>
       <c r="E23" s="8">
         <f>[20]Main!$D$5</f>
-        <v>112383.47200000002</v>
+        <v>117213.26499999998</v>
       </c>
       <c r="F23" s="8">
         <f>[20]Main!$D$9</f>
-        <v>7912.7333752884415</v>
+        <v>9337.5</v>
       </c>
       <c r="G23" s="8">
         <f>E23-F23</f>
-        <v>104470.73862471158</v>
+        <v>107875.76499999998</v>
       </c>
       <c r="H23" s="8">
         <f>[20]Model!AC14</f>
@@ -8668,86 +9042,96 @@
       </c>
       <c r="I23" s="8">
         <f>[20]Model!AD14</f>
-        <v>1685.6336250000006</v>
+        <v>1714.8216375000011</v>
       </c>
       <c r="J23" s="8">
         <f>[20]Model!AE14</f>
-        <v>2698.4914175999993</v>
+        <v>2705.1588352000008</v>
       </c>
       <c r="K23" s="8">
         <f>[20]Model!AF14</f>
-        <v>3283.3523622400012</v>
+        <v>3302.4492121600006</v>
       </c>
       <c r="L23" s="8">
         <f>[20]Model!AG14</f>
-        <v>3895.3281177728009</v>
+        <v>3926.5754672320013</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="5"/>
-        <v>91.80205503050226</v>
+        <f t="shared" si="7"/>
+        <v>94.794169595782066</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="5"/>
-        <v>61.977132560292596</v>
+        <f t="shared" si="7"/>
+        <v>62.907863209184583</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="5"/>
-        <v>38.714497271822488</v>
+        <f t="shared" si="7"/>
+        <v>39.877793346661065</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="5"/>
-        <v>31.818314667097905</v>
+        <f t="shared" si="7"/>
+        <v>32.66538198461582</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="5"/>
-        <v>26.819496449619741</v>
+        <f t="shared" si="7"/>
+        <v>27.473243771893141</v>
       </c>
       <c r="R23" s="9">
         <f>G23/[20]Model!$AN$14</f>
-        <v>14.331097660874272</v>
+        <v>14.538451062391633</v>
       </c>
       <c r="S23" s="10">
         <f>[20]Model!$AC$3</f>
         <v>15673</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="31">
+        <f t="shared" si="8"/>
+        <v>6.8829046768327684</v>
+      </c>
+      <c r="U23" s="11">
         <f>[20]Model!AB$18</f>
         <v>0.12961541741280813</v>
       </c>
-      <c r="U23" s="11">
+      <c r="V23" s="11">
         <f>[20]Model!AC$18</f>
         <v>0.18313580433305665</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="W23" s="11">
+        <f>[20]Model!$AC$19</f>
+        <v>0.30141006827027372</v>
+      </c>
       <c r="X23" s="11">
+        <f>[20]Model!$AC$23</f>
+        <v>8.7092451987494421E-2</v>
+      </c>
+      <c r="Y23" s="11">
         <f>[20]Model!$AQ$20</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Z23" s="11">
         <f>[20]Model!$AQ$27</f>
-        <v>-0.25016144459347034</v>
-      </c>
-      <c r="Z23" s="7" t="str">
+        <v>-0.20391486232627898</v>
+      </c>
+      <c r="AA23" s="7" t="str">
         <f>[20]Model!$AQ$28</f>
         <v>Slightly overvalued</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AB23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AC23" s="7">
         <v>2007</v>
       </c>
-      <c r="AD23" s="17">
-        <f>[20]Main!$F$3</f>
-        <v>45751</v>
-      </c>
       <c r="AE23" s="17">
-        <f>[20]Main!$H$3</f>
-        <v>45770</v>
+        <f>[20]Main!$E$3</f>
+        <v>45777</v>
+      </c>
+      <c r="AF23" s="17">
+        <f>[20]Main!$G$3</f>
+        <v>45861</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
         <v>120</v>
       </c>
@@ -8756,19 +9140,19 @@
       </c>
       <c r="D24" s="12">
         <f>[21]Main!$D$3</f>
-        <v>60.96</v>
+        <v>62.89</v>
       </c>
       <c r="E24" s="8">
         <f>[21]Main!$D$5</f>
-        <v>60301.632000000005</v>
+        <v>62210.788</v>
       </c>
       <c r="F24" s="8">
         <f>[21]Main!$D$8</f>
-        <v>5527</v>
+        <v>4407</v>
       </c>
       <c r="G24" s="8">
         <f>[21]Main!$D$9</f>
-        <v>54774.632000000005</v>
+        <v>57803.788</v>
       </c>
       <c r="H24" s="8">
         <f>[21]Model!AI17</f>
@@ -8776,86 +9160,96 @@
       </c>
       <c r="I24" s="8">
         <f>[21]Model!AJ17</f>
-        <v>5202.2908079999997</v>
+        <v>5156.212074</v>
       </c>
       <c r="J24" s="8">
         <f>[21]Model!AK17</f>
-        <v>5767.3797854400027</v>
+        <v>5834.1117946800023</v>
       </c>
       <c r="K24" s="8">
         <f>[21]Model!AL17</f>
-        <v>6306.4111987968017</v>
+        <v>6256.3108258560005</v>
       </c>
       <c r="L24" s="8">
         <f>[21]Model!AM17</f>
-        <v>6761.7767353918107</v>
+        <v>6424.7147770915208</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="5"/>
-        <v>13.208254641909816</v>
+        <f t="shared" si="7"/>
+        <v>13.938699782975645</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="5"/>
-        <v>10.52894465564448</v>
+        <f t="shared" si="7"/>
+        <v>11.210514069324915</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="5"/>
-        <v>9.4973166390534765</v>
+        <f t="shared" si="7"/>
+        <v>9.9078985858155821</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="5"/>
-        <v>8.6855471794243986</v>
+        <f t="shared" si="7"/>
+        <v>9.2392768852067348</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="5"/>
-        <v>8.1006271196894364</v>
+        <f t="shared" si="7"/>
+        <v>8.997097926605214</v>
       </c>
       <c r="R24" s="9">
         <f>G24/[21]Model!$AT$17</f>
-        <v>7.3105756513468165</v>
+        <v>8.2487928817653593</v>
       </c>
       <c r="S24" s="10">
         <f>[21]Model!$AI$3</f>
         <v>31797</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="31">
+        <f t="shared" si="8"/>
+        <v>1.8179006824543196</v>
+      </c>
+      <c r="U24" s="11">
         <f>[21]Model!AH$21</f>
         <v>8.1873682680427384E-2</v>
       </c>
-      <c r="U24" s="11">
+      <c r="V24" s="11">
         <f>[21]Model!AI$21</f>
         <v>6.8052803063383793E-2</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="11">
+        <f>[21]Model!$AI$22</f>
+        <v>0.40538415573796271</v>
+      </c>
       <c r="X24" s="11">
+        <f>[21]Model!$AI$26</f>
+        <v>0.16746862911595434</v>
+      </c>
+      <c r="Y24" s="11">
         <f>[21]Model!$AX$23</f>
         <v>0.08</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Z24" s="11">
         <f>[21]Model!$AX$29</f>
-        <v>0.44345022948092061</v>
-      </c>
-      <c r="Z24" s="7" t="str">
+        <v>0.35514137882871299</v>
+      </c>
+      <c r="AA24" s="7" t="str">
         <f>[21]Model!$AX$30</f>
         <v>Undervalued</v>
       </c>
-      <c r="AA24" s="7" t="s">
+      <c r="AB24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AC24" s="7">
         <v>1998</v>
       </c>
-      <c r="AD24" s="17">
+      <c r="AE24" s="17">
         <f>[21]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE24" s="17">
+        <v>45776</v>
+      </c>
+      <c r="AF24" s="17">
         <f>[21]Main!$G$3</f>
-        <v>45777</v>
+        <v>45867</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
         <v>92</v>
       </c>
@@ -8899,23 +9293,23 @@
         <v>2936.7207553924445</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.141214518380639</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31.570674396530741</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.228251310097694</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.089138873548686</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.295838199223716</v>
       </c>
       <c r="R25" s="9">
@@ -8926,44 +9320,48 @@
         <f>[22]Model!$AH$5</f>
         <v>6564</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="31">
+        <f t="shared" si="8"/>
+        <v>5.9485319926873839</v>
+      </c>
+      <c r="U25" s="11">
         <f>[22]Model!AG$23</f>
         <v>-2.6862026862026767E-2</v>
       </c>
-      <c r="U25" s="11">
+      <c r="V25" s="11">
         <f>[22]Model!AH$23</f>
         <v>1.111765273622237</v>
       </c>
-      <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-      <c r="X25" s="11">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11">
         <f>[22]Model!$AV$26</f>
         <v>0.08</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Z25" s="11">
         <f>[22]Model!$AV$32</f>
         <v>-2.3447287090133662E-2</v>
       </c>
-      <c r="Z25" s="7" t="str">
+      <c r="AA25" s="7" t="str">
         <f>[22]Model!$AV$33</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AB25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AC25" s="7">
         <v>2012</v>
       </c>
-      <c r="AD25" s="17">
+      <c r="AE25" s="17">
         <f>[22]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AF25" s="17">
         <f>[22]Main!$G$3</f>
         <v>45784</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" s="28" t="s">
         <v>47</v>
       </c>
@@ -9019,44 +9417,48 @@
         <f>[23]Model!$AN$3</f>
         <v>7381.8418175999986</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="31">
+        <f t="shared" si="8"/>
+        <v>5.8031243500592229</v>
+      </c>
+      <c r="U26" s="11">
         <f>[23]Model!AM$20</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="U26" s="11">
+      <c r="V26" s="11">
         <f>[23]Model!AN$20</f>
         <v>0.1399999999999999</v>
       </c>
-      <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="11">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11">
         <f>[23]Model!$AX$23</f>
         <v>0.08</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Z26" s="11">
         <f>[23]Model!$AX$90</f>
         <v>-0.5208349517611679</v>
       </c>
-      <c r="Z26" s="7" t="str">
+      <c r="AA26" s="7" t="str">
         <f>[23]Model!$AX$30</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA26" s="7" t="s">
+      <c r="AB26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AC26" s="7">
         <v>2012</v>
       </c>
-      <c r="AD26" s="17">
+      <c r="AE26" s="17">
         <f>[23]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE26" s="17">
+      <c r="AF26" s="17">
         <f>[23]Main!$G$3</f>
         <v>45798</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>132</v>
       </c>
@@ -9127,45 +9529,49 @@
         <f>[24]Model!$Y$3</f>
         <v>10106</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="31">
+        <f t="shared" si="8"/>
+        <v>3.6697126459528993</v>
+      </c>
+      <c r="U27" s="11">
         <f>[24]Model!X$19</f>
         <v>7.562725611658272E-2</v>
       </c>
-      <c r="U27" s="11">
+      <c r="V27" s="11">
         <f>[24]Model!Y$19</f>
         <v>4.6776599270798913E-2</v>
       </c>
-      <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="11">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11">
         <f>[24]Model!$AN$21</f>
         <v>0.08</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Z27" s="11">
         <f>[24]Model!$AN$27</f>
         <v>-0.50305134589738842</v>
       </c>
-      <c r="Z27" s="7" t="str">
+      <c r="AA27" s="7" t="str">
         <f>[24]Model!$AN$28</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA27" s="7" t="s">
+      <c r="AB27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AC27" s="7">
         <v>1967</v>
       </c>
-      <c r="AD27" s="17">
+      <c r="AE27" s="17">
         <f>[24]Main!$F$3</f>
         <v>45751</v>
       </c>
-      <c r="AE27" s="17">
+      <c r="AF27" s="17">
         <f>[24]Main!$H$3</f>
         <v>45782</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -9173,19 +9579,19 @@
       </c>
       <c r="D28" s="12">
         <f>[25]Main!$D$3</f>
-        <v>58.22</v>
+        <v>74.09</v>
       </c>
       <c r="E28" s="8">
         <f>[25]Main!$D$5</f>
-        <v>38850.205999999998</v>
+        <v>50255.246999999996</v>
       </c>
       <c r="F28" s="8">
         <f>[25]Main!$D$6</f>
-        <v>4019.8</v>
+        <v>4510.5</v>
       </c>
       <c r="G28" s="8">
         <f>[25]Main!$D$9</f>
-        <v>35836.805999999997</v>
+        <v>46751.446999999993</v>
       </c>
       <c r="H28" s="8">
         <f>[25]Model!AQ$19</f>
@@ -9193,77 +9599,87 @@
       </c>
       <c r="I28" s="8">
         <f>[25]Model!AR$19</f>
-        <v>-514.98131720000038</v>
+        <v>-645.97905000000014</v>
       </c>
       <c r="J28" s="8">
         <f>[25]Model!AS$19</f>
-        <v>-79.798835358000503</v>
+        <v>-190.06624810800022</v>
       </c>
       <c r="K28" s="8">
         <f>[25]Model!AT$19</f>
-        <v>417.1052011499994</v>
+        <v>287.02723014899908</v>
       </c>
       <c r="L28" s="8">
         <f>[25]Model!AU$19</f>
-        <v>923.69251983036531</v>
+        <v>778.71748128609477</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9">
         <f>$G28/K28</f>
-        <v>85.917907283808631</v>
+        <v>162.88157390408844</v>
       </c>
       <c r="Q28" s="9">
         <f>$G28/L28</f>
-        <v>38.797332695279778</v>
+        <v>60.036467812161355</v>
       </c>
       <c r="R28" s="9">
         <f>G28/[25]Model!$BB$19</f>
-        <v>11.653752126975338</v>
+        <v>16.154560296290363</v>
       </c>
       <c r="S28" s="10">
         <f>[25]Model!$AQ$3</f>
         <v>3602</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="31">
+        <f t="shared" si="8"/>
+        <v>12.979302332037754</v>
+      </c>
+      <c r="U28" s="11">
         <f>[25]Model!AP$23</f>
         <v>0.25806741573033709</v>
       </c>
-      <c r="U28" s="11">
+      <c r="V28" s="11">
         <f>[25]Model!AQ$23</f>
         <v>0.28679622749356937</v>
       </c>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="W28" s="11">
+        <f>[25]Model!$AQ$27</f>
+        <v>0.26724042198778453</v>
+      </c>
       <c r="X28" s="11">
+        <f>[25]Model!$AQ$28</f>
+        <v>-0.29516935036091063</v>
+      </c>
+      <c r="Y28" s="11">
         <f>[25]Model!$BE$27</f>
         <v>0.08</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Z28" s="11">
         <f>[25]Model!$BE$33</f>
-        <v>-0.32008553378821236</v>
-      </c>
-      <c r="Z28" s="7" t="str">
+        <v>-0.5028026588253911</v>
+      </c>
+      <c r="AA28" s="7" t="str">
         <f>[25]Model!$BE$34</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA28" s="7" t="s">
+      <c r="AB28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AC28" s="7">
         <v>2006</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AE28" s="17">
         <f>[25]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE28" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF28" s="17">
         <f>[25]Main!$G$3</f>
         <v>45784</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>193</v>
       </c>
@@ -9272,19 +9688,19 @@
       </c>
       <c r="D29" s="12">
         <f>[26]Main!$D$3</f>
-        <v>52.7</v>
+        <v>44.8</v>
       </c>
       <c r="E29" s="8">
         <f>[26]Main!$D$5</f>
-        <v>32642.38</v>
+        <v>27552</v>
       </c>
       <c r="F29" s="8">
         <f>[26]Main!$D$8</f>
-        <v>2845.2000000000007</v>
+        <v>1980.4000000000005</v>
       </c>
       <c r="G29" s="8">
         <f>[26]Main!$D$9</f>
-        <v>29797.18</v>
+        <v>25571.599999999999</v>
       </c>
       <c r="H29" s="8">
         <f>[26]Model!Y$30</f>
@@ -9292,736 +9708,785 @@
       </c>
       <c r="I29" s="8">
         <f>[26]Model!Z$30</f>
-        <v>482.28284520000005</v>
+        <v>378.20919960000106</v>
       </c>
       <c r="J29" s="8">
         <f>[26]Model!AA$30</f>
-        <v>815.27382816000022</v>
+        <v>1211.5398576160012</v>
       </c>
       <c r="K29" s="8">
         <f>[26]Model!AB$30</f>
-        <v>1434.0540926184005</v>
+        <v>1915.5502761472021</v>
       </c>
       <c r="L29" s="8">
         <f>[26]Model!AC$30</f>
-        <v>1925.6700331818413</v>
+        <v>2239.8032370161568</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" ref="M29:Q29" si="11">$G29/H29</f>
-        <v>10.285174830002411</v>
+        <f t="shared" ref="M29:Q29" si="14">$G29/H29</f>
+        <v>8.8266197231714436</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="11"/>
-        <v>61.783619916323737</v>
+        <f t="shared" si="14"/>
+        <v>67.612316218232806</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="11"/>
-        <v>36.548677230630055</v>
+        <f t="shared" si="14"/>
+        <v>21.106693138695682</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" si="11"/>
-        <v>20.778281763133592</v>
+        <f t="shared" si="14"/>
+        <v>13.349479947575611</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="11"/>
-        <v>15.473668638216923</v>
+        <f t="shared" si="14"/>
+        <v>11.416895724316491</v>
       </c>
       <c r="R29" s="9">
         <f>G29/[26]Model!$AJ$30</f>
-        <v>11.767867610914635</v>
+        <v>8.468507911560673</v>
       </c>
       <c r="S29" s="10">
         <f>[26]Model!$Y$7</f>
         <v>24121.1</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="31">
+        <f t="shared" si="8"/>
+        <v>1.0601340734875275</v>
+      </c>
+      <c r="U29" s="11">
         <f>[26]Model!$X$38</f>
         <v>0.25006274384539928</v>
       </c>
-      <c r="U29" s="11">
+      <c r="V29" s="11">
         <f>[26]Model!$Y$38</f>
         <v>0.10063607658471585</v>
       </c>
-      <c r="V29" s="11">
+      <c r="W29" s="11">
         <f>[26]Model!$Y$43</f>
         <v>0.36851967779247219</v>
       </c>
-      <c r="W29" s="11">
+      <c r="X29" s="11">
         <f>[26]Model!$Y$47</f>
         <v>3.6996654381433743E-2</v>
       </c>
-      <c r="X29" s="11">
+      <c r="Y29" s="11">
         <f>[26]Model!$AN$36</f>
         <v>0.08</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Z29" s="11">
         <f>[26]Model!$AN$42</f>
-        <v>-0.17606632725014193</v>
-      </c>
-      <c r="Z29" s="7" t="str">
+        <v>0.11667361343101468</v>
+      </c>
+      <c r="AA29" s="7" t="str">
         <f>[26]Model!$AN$43</f>
-        <v>Slightly overvalued</v>
-      </c>
-      <c r="AA29" s="7" t="s">
+        <v>Slightly undervalued</v>
+      </c>
+      <c r="AB29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AC29" s="7">
         <v>2021</v>
       </c>
-      <c r="AD29" s="17">
+      <c r="AE29" s="17">
         <f>[26]Main!$E$3</f>
-        <v>45758</v>
-      </c>
-      <c r="AE29" s="17">
+        <v>45779</v>
+      </c>
+      <c r="AF29" s="17">
         <f>[26]Main!$G$3</f>
-        <v>45778</v>
+        <v>45870</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D30" s="12">
         <f>[27]Main!$D$3</f>
-        <v>149.62</v>
+        <v>96.02</v>
       </c>
       <c r="E30" s="8">
         <f>[27]Main!$D$5</f>
-        <v>8513.3780000000006</v>
+        <v>17715.689999999999</v>
       </c>
       <c r="F30" s="8">
         <f>[27]Main!$D$8</f>
-        <v>1262.8</v>
+        <v>1951.1000000000001</v>
       </c>
       <c r="G30" s="8">
-        <f>[27]Main!$D$9</f>
-        <v>7250.5780000000004</v>
+        <f>E30-F30</f>
+        <v>15764.589999999998</v>
       </c>
       <c r="H30" s="8">
-        <f>[27]Model!AZ$13</f>
-        <v>454.49999999999966</v>
+        <f>[27]Model!V13</f>
+        <v>-484.2000000000001</v>
       </c>
       <c r="I30" s="8">
-        <f>[27]Model!BA$13</f>
-        <v>449.57382599999983</v>
+        <f>[27]Model!W13</f>
+        <v>196.49439999999973</v>
       </c>
       <c r="J30" s="8">
-        <f>[27]Model!BB$13</f>
-        <v>445.48834746</v>
+        <f>[27]Model!X13</f>
+        <v>339.83764319999977</v>
       </c>
       <c r="K30" s="8">
-        <f>[27]Model!BC$13</f>
-        <v>441.07713379859996</v>
+        <f>[27]Model!Y13</f>
+        <v>460.92067101599946</v>
       </c>
       <c r="L30" s="8">
-        <f>[27]Model!BD$13</f>
-        <v>443.01880423842584</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" ref="M30" si="12">$G30/H30</f>
-        <v>15.952866886688682</v>
-      </c>
+        <f>[27]Model!Z13</f>
+        <v>580.42539640355994</v>
+      </c>
+      <c r="M30" s="9"/>
       <c r="N30" s="9">
-        <f t="shared" ref="N30" si="13">$G30/I30</f>
-        <v>16.127669318542587</v>
+        <f>$G30/I30</f>
+        <v>80.229207549935367</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ref="O30" si="14">$G30/J30</f>
-        <v>16.275572731228451</v>
+        <f>$G30/J30</f>
+        <v>46.388592657236295</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" ref="P30" si="15">$G30/K30</f>
-        <v>16.438344780100714</v>
+        <f>$G30/K30</f>
+        <v>34.202393147719725</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ref="Q30" si="16">$G30/L30</f>
-        <v>16.366298519685074</v>
+        <f>$G30/L30</f>
+        <v>27.160407000935475</v>
       </c>
       <c r="R30" s="9">
-        <f>G30/[27]Model!$BK$13</f>
-        <v>16.044350612290323</v>
+        <f>G30/[27]Model!$AG$13</f>
+        <v>18.103449397771385</v>
       </c>
       <c r="S30" s="10">
-        <f>[27]Model!$AZ$3</f>
-        <v>4727.8999999999996</v>
-      </c>
-      <c r="T30" s="11">
-        <f>[27]Model!$AY$17</f>
-        <v>-2.7815200945136453E-2</v>
+        <f>[27]Model!$V$3</f>
+        <v>1300.3</v>
+      </c>
+      <c r="T30" s="31">
+        <f t="shared" si="8"/>
+        <v>12.123809890025377</v>
       </c>
       <c r="U30" s="11">
-        <f>[27]Model!$AZ$17</f>
-        <v>7.9735635859716769E-3</v>
+        <f>[27]Model!U$17</f>
+        <v>0.2059397030148491</v>
       </c>
       <c r="V30" s="11">
-        <f>[27]Model!$AZ$18</f>
-        <v>0.30677467797542246</v>
+        <f>[27]Model!V$17</f>
+        <v>0.61728855721393039</v>
       </c>
       <c r="W30" s="11">
-        <f>[27]Model!$AZ$19</f>
-        <v>0.11516741047822494</v>
+        <f>[27]Model!$V$18</f>
+        <v>0.90502191801891874</v>
       </c>
       <c r="X30" s="11">
-        <f>[27]Model!$BN$20</f>
+        <f>[27]Model!$V$22</f>
+        <v>-0.43097746673844506</v>
+      </c>
+      <c r="Y30" s="11">
+        <f>[27]Model!$AJ$19</f>
         <v>0.08</v>
       </c>
-      <c r="Y30" s="11">
-        <f>[27]Model!$BN$26</f>
-        <v>-0.23066366640452585</v>
-      </c>
-      <c r="Z30" s="7" t="str">
-        <f>[27]Model!$BN$27</f>
-        <v>Slightly overvalued</v>
-      </c>
-      <c r="AA30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>1993</v>
-      </c>
-      <c r="AD30" s="17">
+      <c r="Z30" s="11">
+        <f>[27]Model!$AJ$25</f>
+        <v>-0.4201885933883216</v>
+      </c>
+      <c r="AA30" s="7" t="str">
+        <f>[27]Model!$AJ$26</f>
+        <v>Overvalued</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>2005</v>
+      </c>
+      <c r="AE30" s="17">
         <f>[27]Main!$E$3</f>
-        <v>45764</v>
-      </c>
-      <c r="AE30" s="17">
+        <v>45751</v>
+      </c>
+      <c r="AF30" s="17">
         <f>[27]Main!$G$3</f>
-        <v>45785</v>
+        <v>45790</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12">
         <f>[28]Main!$D$3</f>
-        <v>96.02</v>
+        <v>7.86</v>
       </c>
       <c r="E31" s="8">
         <f>[28]Main!$D$5</f>
-        <v>17370.018</v>
+        <v>13332.918</v>
       </c>
       <c r="F31" s="8">
         <f>[28]Main!$D$8</f>
-        <v>1670.3</v>
+        <v>-406</v>
       </c>
       <c r="G31" s="8">
-        <f>E31-F31</f>
-        <v>15699.718000000001</v>
+        <f>[28]Main!$D$9</f>
+        <v>13738.918</v>
       </c>
       <c r="H31" s="8">
-        <f>[28]Model!V13</f>
-        <v>-484.2000000000001</v>
+        <f>[28]Model!AQ15</f>
+        <v>-697.69999999999982</v>
       </c>
       <c r="I31" s="8">
-        <f>[28]Model!W13</f>
-        <v>224.29629999999995</v>
+        <f>[28]Model!AR15</f>
+        <v>-257.5282720000007</v>
       </c>
       <c r="J31" s="8">
-        <f>[28]Model!X13</f>
-        <v>394.28181599999988</v>
+        <f>[28]Model!AS15</f>
+        <v>-11.275192191999793</v>
       </c>
       <c r="K31" s="8">
-        <f>[28]Model!Y13</f>
-        <v>496.32664398000003</v>
+        <f>[28]Model!AT15</f>
+        <v>132.78307062092836</v>
       </c>
       <c r="L31" s="8">
-        <f>[28]Model!Z13</f>
-        <v>596.15461994340012</v>
+        <f>[28]Model!AU15</f>
+        <v>216.41383488513557</v>
       </c>
       <c r="M31" s="9"/>
-      <c r="N31" s="9">
-        <f>$G31/I31</f>
-        <v>69.995439068767539</v>
-      </c>
-      <c r="O31" s="9">
-        <f>$G31/J31</f>
-        <v>39.818519046285424</v>
-      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="9">
-        <f>$G31/K31</f>
-        <v>31.631825916306514</v>
+        <f t="shared" ref="P31:Q42" si="15">$G31/K31</f>
+        <v>103.46889807377723</v>
       </c>
       <c r="Q31" s="9">
-        <f>$G31/L31</f>
-        <v>26.334976656711238</v>
-      </c>
-      <c r="R31" s="9"/>
+        <f t="shared" si="15"/>
+        <v>63.484471809725598</v>
+      </c>
+      <c r="R31" s="9">
+        <f>G31/[28]Model!$BB$15</f>
+        <v>28.778171318253424</v>
+      </c>
       <c r="S31" s="10">
-        <f>[28]Model!$V$3</f>
-        <v>1300.3</v>
-      </c>
-      <c r="T31" s="11">
-        <f>[28]Model!U$17</f>
-        <v>0.2059397030148491</v>
+        <f>[28]Model!$AQ$3</f>
+        <v>5361.4</v>
+      </c>
+      <c r="T31" s="31">
+        <f t="shared" si="8"/>
+        <v>2.5625616443466259</v>
       </c>
       <c r="U31" s="11">
-        <f>[28]Model!V$17</f>
-        <v>0.61728855721393039</v>
-      </c>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+        <f>[28]Model!AP$19</f>
+        <v>9.561475944195319E-4</v>
+      </c>
+      <c r="V31" s="11">
+        <f>[28]Model!AQ$19</f>
+        <v>0.16395293300334335</v>
+      </c>
+      <c r="W31" s="11">
+        <f>[28]Model!$AQ$20</f>
+        <v>0.53851605923825863</v>
+      </c>
       <c r="X31" s="11">
-        <f>[28]Model!$AJ$19</f>
+        <f>[28]Model!$AQ$21</f>
+        <v>-0.14682732122206885</v>
+      </c>
+      <c r="Y31" s="11">
+        <f>[28]Model!$BE$22</f>
         <v>0.08</v>
       </c>
-      <c r="Y31" s="11">
-        <f>[28]Model!$AJ$25</f>
-        <v>-0.36407237828778038</v>
-      </c>
-      <c r="Z31" s="7" t="str">
-        <f>[28]Model!$AJ$26</f>
-        <v>Overvalued</v>
+      <c r="Z31" s="11">
+        <f>[28]Model!$BE$54</f>
+        <v>-0.33764030354459329</v>
       </c>
       <c r="AA31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="7">
-        <v>2005</v>
-      </c>
-      <c r="AD31" s="17">
-        <f>[28]Main!$F$3</f>
-        <v>45751</v>
+      <c r="AC31" s="7">
+        <v>2011</v>
       </c>
       <c r="AE31" s="17">
-        <f>[28]Main!$H$3</f>
-        <v>45790</v>
+        <f>[28]Main!$E$3</f>
+        <v>45777</v>
+      </c>
+      <c r="AF31" s="17">
+        <f>[28]Main!$G$3</f>
+        <v>45867</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D32" s="12">
         <f>[29]Main!$D$3</f>
-        <v>7.93</v>
+        <v>73.25</v>
       </c>
       <c r="E32" s="8">
         <f>[29]Main!$D$5</f>
-        <v>13451.659</v>
+        <v>22458.45</v>
       </c>
       <c r="F32" s="8">
         <f>[29]Main!$D$8</f>
-        <v>-267.69999999999982</v>
+        <v>8383.2000000000007</v>
       </c>
       <c r="G32" s="8">
         <f>[29]Main!$D$9</f>
-        <v>13719.359</v>
+        <v>14075.25</v>
       </c>
       <c r="H32" s="8">
-        <f>[29]Model!AQ15</f>
-        <v>-697.69999999999982</v>
+        <f>[29]Model!AP14</f>
+        <v>1009.8999999999994</v>
       </c>
       <c r="I32" s="8">
-        <f>[29]Model!AR15</f>
-        <v>-256.86973999999924</v>
+        <f>[29]Model!AQ14</f>
+        <v>984.13692099999992</v>
       </c>
       <c r="J32" s="8">
-        <f>[29]Model!AS15</f>
-        <v>-42.118379839999193</v>
+        <f>[29]Model!AR14</f>
+        <v>1020.4692323920002</v>
       </c>
       <c r="K32" s="8">
-        <f>[29]Model!AT15</f>
-        <v>125.97534720256085</v>
+        <f>[29]Model!AS14</f>
+        <v>1013.2984622599199</v>
       </c>
       <c r="L32" s="8">
-        <f>[29]Model!AU15</f>
-        <v>217.46516903044258</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+        <f>[29]Model!AT14</f>
+        <v>1012.8674818394792</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" ref="M32:O34" si="16">$G32/H32</f>
+        <v>13.937271016932378</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="16"/>
+        <v>14.302125750650504</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="16"/>
+        <v>13.792919524881052</v>
+      </c>
       <c r="P32" s="9">
-        <f t="shared" ref="P32:Q42" si="17">$G32/K32</f>
-        <v>108.90510964768438</v>
+        <f t="shared" si="15"/>
+        <v>13.890527346314649</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="17"/>
-        <v>63.087615645149363</v>
+        <f t="shared" si="15"/>
+        <v>13.896437838479908</v>
       </c>
       <c r="R32" s="9">
-        <f>G32/[29]Model!$BB$15</f>
-        <v>24.344254838275813</v>
+        <f>G32/[29]Model!$AZ$14</f>
+        <v>13.091073052746273</v>
       </c>
       <c r="S32" s="10">
-        <f>[29]Model!$AQ$3</f>
-        <v>5361.4</v>
-      </c>
-      <c r="T32" s="11">
-        <f>[29]Model!AP$19</f>
-        <v>9.561475944195319E-4</v>
+        <f>[29]Model!$AP$3</f>
+        <v>4665.2999999999993</v>
+      </c>
+      <c r="T32" s="31">
+        <f t="shared" si="8"/>
+        <v>3.0170085525046626</v>
       </c>
       <c r="U32" s="11">
-        <f>[29]Model!AQ$19</f>
-        <v>0.16395293300334335</v>
-      </c>
-      <c r="V32" s="11"/>
+        <f>[29]Model!AO$18</f>
+        <v>3.0571363532893248E-2</v>
+      </c>
+      <c r="V32" s="11">
+        <f>[29]Model!AP$18</f>
+        <v>3.0481744085878892E-2</v>
+      </c>
       <c r="W32" s="11"/>
-      <c r="X32" s="11">
-        <f>[29]Model!$BE$22</f>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11">
+        <f>[29]Model!$BC$21</f>
         <v>0.08</v>
       </c>
-      <c r="Y32" s="11">
-        <f>[29]Model!$BE$53</f>
-        <v>-0.28652956601637836</v>
-      </c>
-      <c r="Z32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA32" s="7" t="s">
+      <c r="Z32" s="11">
+        <f>[29]Model!$BC$27</f>
+        <v>-7.5975386540388157E-2</v>
+      </c>
+      <c r="AA32" s="7" t="str">
+        <f>[29]Model!$BC$28</f>
+        <v>Fairly valued</v>
+      </c>
+      <c r="AB32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AC32" s="7">
         <v>2011</v>
       </c>
-      <c r="AD32" s="17">
+      <c r="AE32" s="17">
         <f>[29]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AF32" s="17">
         <f>[29]Main!$G$3</f>
-        <v>45771</v>
+        <v>45803</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>39</v>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D33" s="12">
         <f>[30]Main!$D$3</f>
-        <v>73.25</v>
+        <v>486.42</v>
       </c>
       <c r="E33" s="8">
         <f>[30]Main!$D$5</f>
-        <v>22458.45</v>
+        <v>22132.11</v>
       </c>
       <c r="F33" s="8">
         <f>[30]Main!$D$8</f>
-        <v>8383.2000000000007</v>
+        <v>1082.5999999999999</v>
       </c>
       <c r="G33" s="8">
         <f>[30]Main!$D$9</f>
-        <v>14075.25</v>
+        <v>21049.510000000002</v>
       </c>
       <c r="H33" s="8">
-        <f>[30]Model!AP14</f>
-        <v>1009.8999999999994</v>
+        <f>[30]Model!AC$15</f>
+        <v>88.699999999999974</v>
       </c>
       <c r="I33" s="8">
-        <f>[30]Model!AQ14</f>
-        <v>984.13692099999992</v>
+        <f>[30]Model!AD$15</f>
+        <v>125.01772000000005</v>
       </c>
       <c r="J33" s="8">
-        <f>[30]Model!AR14</f>
-        <v>1020.4692323920002</v>
+        <f>[30]Model!AE$15</f>
+        <v>184.95692937500004</v>
       </c>
       <c r="K33" s="8">
-        <f>[30]Model!AS14</f>
-        <v>1013.2984622599199</v>
+        <f>[30]Model!AF$15</f>
+        <v>270.2450169</v>
       </c>
       <c r="L33" s="8">
-        <f>[30]Model!AT14</f>
-        <v>1012.8674818394792</v>
+        <f>[30]Model!AG$15</f>
+        <v>354.22822119599982</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" ref="M33:O35" si="18">$G33/H33</f>
-        <v>13.937271016932378</v>
+        <f t="shared" si="16"/>
+        <v>237.31127395715905</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="18"/>
-        <v>14.302125750650504</v>
+        <f t="shared" ref="N33" si="17">$G33/I33</f>
+        <v>168.37221155528988</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="18"/>
-        <v>13.792919524881052</v>
+        <f t="shared" ref="O33" si="18">$G33/J33</f>
+        <v>113.8076311665087</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="17"/>
-        <v>13.890527346314649</v>
+        <f t="shared" si="15"/>
+        <v>77.890464887976265</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="17"/>
-        <v>13.896437838479908</v>
+        <f t="shared" si="15"/>
+        <v>59.423582708710811</v>
       </c>
       <c r="R33" s="9">
-        <f>G33/[30]Model!$AZ$14</f>
-        <v>13.091073052746273</v>
+        <f>G33/[30]Model!$AN$43</f>
+        <v>23.125533064302203</v>
       </c>
       <c r="S33" s="10">
-        <f>[30]Model!$AP$3</f>
-        <v>4665.2999999999993</v>
-      </c>
-      <c r="T33" s="11">
-        <f>[30]Model!AO$18</f>
-        <v>3.0571363532893248E-2</v>
+        <f>[30]Model!$AC$3</f>
+        <v>748.1</v>
+      </c>
+      <c r="T33" s="31">
+        <f t="shared" si="8"/>
+        <v>28.137294479347684</v>
       </c>
       <c r="U33" s="11">
-        <f>[30]Model!AP$18</f>
-        <v>3.0481744085878892E-2</v>
-      </c>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+        <f>[30]Model!$AB$19</f>
+        <v>0.43734776725304458</v>
+      </c>
+      <c r="V33" s="11">
+        <f>[30]Model!$AC$19</f>
+        <v>0.40858595368103923</v>
+      </c>
+      <c r="W33" s="11">
+        <f>[30]Model!$AC$20</f>
+        <v>0.72784387114022187</v>
+      </c>
       <c r="X33" s="11">
-        <f>[30]Model!$BC$21</f>
+        <f>[30]Model!$AC$24</f>
+        <v>8.381232455554069E-2</v>
+      </c>
+      <c r="Y33" s="11">
+        <f>[30]Model!$AR$22</f>
         <v>0.08</v>
       </c>
-      <c r="Y33" s="11">
-        <f>[30]Model!$BC$27</f>
-        <v>-7.5975386540388157E-2</v>
-      </c>
-      <c r="Z33" s="7" t="str">
-        <f>[30]Model!$BC$28</f>
-        <v>Fairly valued</v>
-      </c>
-      <c r="AA33" s="7" t="s">
+      <c r="Z33" s="11">
+        <f>[30]Model!$AR$28</f>
+        <v>-0.65814945001941016</v>
+      </c>
+      <c r="AA33" s="7" t="str">
+        <f>[30]Model!$AR$29</f>
+        <v>Overvalued</v>
+      </c>
+      <c r="AB33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AC33" s="7">
         <v>2011</v>
       </c>
-      <c r="AD33" s="17">
+      <c r="AE33" s="17">
         <f>[30]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE33" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF33" s="17">
         <f>[30]Main!$G$3</f>
-        <v>45803</v>
+        <v>45875</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>160</v>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D34" s="12">
         <f>[31]Main!$D$3</f>
-        <v>310.01</v>
+        <v>12.7</v>
       </c>
       <c r="E34" s="8">
         <f>[31]Main!$D$5</f>
-        <v>13919.448999999999</v>
+        <v>13944.599999999999</v>
       </c>
       <c r="F34" s="8">
         <f>[31]Main!$D$8</f>
-        <v>785.8</v>
+        <v>1822.9000000000005</v>
       </c>
       <c r="G34" s="8">
         <f>[31]Main!$D$9</f>
-        <v>13133.648999999999</v>
+        <v>12121.699999999997</v>
       </c>
       <c r="H34" s="8">
-        <f>[31]Model!AC$15</f>
-        <v>88.699999999999974</v>
+        <f>[31]Model!Z17</f>
+        <v>296.87220480000059</v>
       </c>
       <c r="I34" s="8">
-        <f>[31]Model!AD$15</f>
-        <v>117.56309199999988</v>
+        <f>[31]Model!AA17</f>
+        <v>420.54475509000019</v>
       </c>
       <c r="J34" s="8">
-        <f>[31]Model!AE$15</f>
-        <v>181.39875499999997</v>
+        <f>[31]Model!AB17</f>
+        <v>524.94156068649954</v>
       </c>
       <c r="K34" s="8">
-        <f>[31]Model!AF$15</f>
-        <v>266.05404514999987</v>
+        <f>[31]Model!AC17</f>
+        <v>572.38438085189262</v>
       </c>
       <c r="L34" s="8">
-        <f>[31]Model!AG$15</f>
-        <v>349.6044035974997</v>
+        <f>[31]Model!AD17</f>
+        <v>616.36569738837795</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="18"/>
-        <v>148.06819616685459</v>
+        <f t="shared" si="16"/>
+        <v>40.831373917831911</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" ref="N34" si="19">$G34/I34</f>
-        <v>111.71575004168835</v>
+        <f t="shared" si="16"/>
+        <v>28.823804965552</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" ref="O34" si="20">$G34/J34</f>
-        <v>72.402090080496976</v>
+        <f t="shared" si="16"/>
+        <v>23.091522767120356</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" si="17"/>
-        <v>49.364590538720499</v>
+        <f t="shared" si="15"/>
+        <v>21.177552018381419</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="17"/>
-        <v>37.567172681042081</v>
+        <f t="shared" si="15"/>
+        <v>19.666409164820859</v>
       </c>
       <c r="R34" s="9">
-        <f>G34/[31]Model!$AN$43</f>
-        <v>14.533616159343467</v>
+        <f>G34/[31]Model!$AJ$17</f>
+        <v>16.732418313974762</v>
       </c>
       <c r="S34" s="10">
-        <f>[31]Model!$AC$3</f>
-        <v>748.1</v>
-      </c>
-      <c r="T34" s="11">
-        <f>[31]Model!$AB$19</f>
-        <v>0.43734776725304458</v>
+        <f>[31]Model!$Y$7</f>
+        <v>3766.2000000000003</v>
+      </c>
+      <c r="T34" s="31">
+        <f t="shared" si="8"/>
+        <v>3.2185492007859371</v>
       </c>
       <c r="U34" s="11">
-        <f>[31]Model!$AC$19</f>
-        <v>0.40858595368103923</v>
+        <f>[31]Model!X$24</f>
+        <v>0.65216157948485232</v>
       </c>
       <c r="V34" s="11">
-        <f>[31]Model!$AC$20</f>
-        <v>0.72784387114022187</v>
+        <f>[31]Model!Y$24</f>
+        <v>0.29329349953641692</v>
       </c>
       <c r="W34" s="11">
-        <f>[31]Model!$AC$24</f>
-        <v>8.381232455554069E-2</v>
+        <f>[31]Model!$Y$25</f>
+        <v>0.58762147522701935</v>
       </c>
       <c r="X34" s="11">
-        <f>[31]Model!$AR$22</f>
+        <f>[31]Model!$Y$28</f>
+        <v>0.12259040943125696</v>
+      </c>
+      <c r="Y34" s="11">
+        <f>[31]Model!$AN$23</f>
         <v>0.08</v>
       </c>
-      <c r="Y34" s="11">
-        <f>[31]Model!$AR$28</f>
-        <v>-0.48276090564846819</v>
-      </c>
-      <c r="Z34" s="7" t="str">
-        <f>[31]Model!$AR$29</f>
+      <c r="Z34" s="11">
+        <f>[31]Model!$AN$29</f>
+        <v>-0.32894234972067471</v>
+      </c>
+      <c r="AA34" s="7" t="str">
+        <f>[31]Model!$AN$30</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC34" s="7">
         <v>2011</v>
       </c>
-      <c r="AD34" s="17">
+      <c r="AE34" s="17">
         <f>[31]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE34" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF34" s="17">
         <f>[31]Main!$G$3</f>
-        <v>45784</v>
+        <v>45874</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D35" s="12">
         <f>[32]Main!$D$3</f>
-        <v>10.36</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="E35" s="8">
         <f>[32]Main!$D$5</f>
-        <v>11270.644</v>
+        <v>11644.35</v>
       </c>
       <c r="F35" s="8">
         <f>[32]Main!$D$8</f>
-        <v>1512.4000000000005</v>
+        <v>1503.2</v>
       </c>
       <c r="G35" s="8">
         <f>[32]Main!$D$9</f>
-        <v>9758.2439999999988</v>
+        <v>10141.15</v>
       </c>
       <c r="H35" s="8">
-        <f>[32]Model!Z17</f>
-        <v>303.49784900000031</v>
+        <f>[32]Model!AV$18</f>
+        <v>631.49999999999989</v>
       </c>
       <c r="I35" s="8">
-        <f>[32]Model!AA17</f>
-        <v>456.92357161199971</v>
+        <f>[32]Model!AW$18</f>
+        <v>648.75758120000035</v>
       </c>
       <c r="J35" s="8">
-        <f>[32]Model!AB17</f>
-        <v>568.85512020544002</v>
+        <f>[32]Model!AX$18</f>
+        <v>748.28422614399983</v>
       </c>
       <c r="K35" s="8">
-        <f>[32]Model!AC17</f>
-        <v>620.25302472713383</v>
+        <f>[32]Model!AY$18</f>
+        <v>770.59021232831992</v>
       </c>
       <c r="L35" s="8">
-        <f>[32]Model!AD17</f>
-        <v>716.54640673339497</v>
+        <f>[32]Model!AZ$18</f>
+        <v>783.3193960868864</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="18"/>
-        <v>32.152596903578015</v>
+        <f>$G35/H35</f>
+        <v>16.058828186856694</v>
       </c>
       <c r="N35" s="9">
-        <f t="shared" si="18"/>
-        <v>21.356403141062483</v>
+        <f>$G35/I35</f>
+        <v>15.631647773952817</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" si="18"/>
-        <v>17.154181536549839</v>
+        <f>$G35/J35</f>
+        <v>13.552537452591492</v>
       </c>
       <c r="P35" s="9">
-        <f t="shared" si="17"/>
-        <v>15.732682648815643</v>
+        <f>$G35/K35</f>
+        <v>13.160237228239321</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="17"/>
-        <v>13.61843965485231</v>
+        <f>$G35/L35</f>
+        <v>12.946379281121663</v>
       </c>
       <c r="R35" s="9">
-        <f>G35/[32]Model!$AJ$17</f>
-        <v>11.668580167198515</v>
+        <f>G35/[32]Model!$BF$18</f>
+        <v>11.481797743963707</v>
       </c>
       <c r="S35" s="10">
-        <f>[32]Model!$Y$7</f>
-        <v>3766.2000000000003</v>
-      </c>
-      <c r="T35" s="11">
-        <f>[32]Model!X$24</f>
-        <v>0.65216157948485232</v>
+        <f>[32]Model!$AV$3</f>
+        <v>4554.8999999999996</v>
+      </c>
+      <c r="T35" s="31">
+        <f>G35/S35</f>
+        <v>2.2264264857625853</v>
       </c>
       <c r="U35" s="11">
-        <f>[32]Model!Y$24</f>
-        <v>0.29329349953641692</v>
-      </c>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+        <f>[32]Model!AU$22</f>
+        <v>-5.2964374628214017E-2</v>
+      </c>
+      <c r="V35" s="11">
+        <f>[32]Model!AV$22</f>
+        <v>5.9648714667907221E-2</v>
+      </c>
+      <c r="W35" s="11">
+        <f>[32]Model!$AV$23</f>
+        <v>0.43298425871039981</v>
+      </c>
       <c r="X35" s="11">
-        <f>[32]Model!$AN$23</f>
+        <f>[32]Model!$AV$24</f>
+        <v>0.14377922676677862</v>
+      </c>
+      <c r="Y35" s="11">
+        <f>[32]Model!$BI$25</f>
         <v>0.08</v>
       </c>
-      <c r="Y35" s="11">
-        <f>[32]Model!$AN$29</f>
-        <v>-0.1126517168571709</v>
-      </c>
-      <c r="Z35" s="7" t="str">
-        <f>[32]Model!$AN$30</f>
-        <v>Slightly overvalued</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>2011</v>
-      </c>
-      <c r="AD35" s="17">
+      <c r="Z35" s="11">
+        <f>[32]Model!$BI$31</f>
+        <v>-4.3547613894122761E-2</v>
+      </c>
+      <c r="AA35" s="7" t="str">
+        <f>[32]Model!$BI$32</f>
+        <v>Fairly valued</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>1981</v>
+      </c>
+      <c r="AE35" s="17">
         <f>[32]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE35" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF35" s="17">
         <f>[32]Main!$G$3</f>
-        <v>45782</v>
+        <v>45866</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
         <v>171</v>
       </c>
@@ -10074,11 +10539,11 @@
         <v>38.934307590423195</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>23.308694643895834</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>17.69292164588817</v>
       </c>
       <c r="R36" s="9">
@@ -10089,269 +10554,281 @@
         <f>[33]Model!$X$6</f>
         <v>1800.3999999999999</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="31">
+        <f t="shared" si="8"/>
+        <v>5.3955209953343726</v>
+      </c>
+      <c r="U36" s="11">
         <f>[33]Model!W$26</f>
         <v>0.98365076689701625</v>
       </c>
-      <c r="U36" s="11">
+      <c r="V36" s="11">
         <f>[33]Model!X$26</f>
         <v>0.52978162970515763</v>
       </c>
-      <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="11">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11">
         <f>[33]Model!$AM$25</f>
         <v>0.08</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Z36" s="11">
         <f>[33]Model!$AM$31</f>
         <v>-3.9690812656469676E-2</v>
       </c>
-      <c r="Z36" s="7" t="str">
+      <c r="AA36" s="7" t="str">
         <f>[33]Model!$AM$32</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA36" s="7" t="s">
+      <c r="AB36" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AC36" s="7">
         <v>2020</v>
       </c>
-      <c r="AD36" s="17">
+      <c r="AE36" s="17">
         <f>[33]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE36" s="17">
+      <c r="AF36" s="17">
         <f>[33]Main!$G$3</f>
         <v>45782</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37" s="27" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="D37" s="12">
         <f>[34]Main!$D$3</f>
-        <v>71.540000000000006</v>
+        <v>82.36</v>
       </c>
       <c r="E37" s="8">
         <f>[34]Main!$D$5</f>
-        <v>10673.768</v>
+        <v>7338.2759999999998</v>
       </c>
       <c r="F37" s="8">
         <f>[34]Main!$D$8</f>
-        <v>1502.8</v>
+        <v>-1676.2</v>
       </c>
       <c r="G37" s="8">
         <f>[34]Main!$D$9</f>
-        <v>9170.9680000000008</v>
+        <v>9014.4760000000006</v>
       </c>
       <c r="H37" s="8">
-        <f>[34]Model!AR$18</f>
-        <v>618.58199999999965</v>
+        <f>[34]Model!Z$23</f>
+        <v>199.2000000000003</v>
       </c>
       <c r="I37" s="8">
-        <f>[34]Model!AS$18</f>
-        <v>711.36306362499977</v>
+        <f>[34]Model!AA$23</f>
+        <v>150.26912399999998</v>
       </c>
       <c r="J37" s="8">
-        <f>[34]Model!AT$18</f>
-        <v>801.23706914000013</v>
+        <f>[34]Model!AB$23</f>
+        <v>358.60669531200028</v>
       </c>
       <c r="K37" s="8">
-        <f>[34]Model!AU$18</f>
-        <v>825.12573710620006</v>
+        <f>[34]Model!AC$23</f>
+        <v>432.95125278024017</v>
       </c>
       <c r="L37" s="8">
-        <f>[34]Model!AV$18</f>
-        <v>838.96848049124037</v>
+        <f>[34]Model!AD$23</f>
+        <v>488.513168767362</v>
       </c>
       <c r="M37" s="9">
-        <f>$G37/H37</f>
-        <v>14.825791891778303</v>
+        <f t="shared" ref="M37:O37" si="19">$G37/H37</f>
+        <v>45.253393574297121</v>
       </c>
       <c r="N37" s="9">
-        <f>$G37/I37</f>
-        <v>12.892105970847178</v>
+        <f t="shared" si="19"/>
+        <v>59.988877023066976</v>
       </c>
       <c r="O37" s="9">
-        <f>$G37/J37</f>
-        <v>11.446010616862209</v>
+        <f t="shared" si="19"/>
+        <v>25.137500548217854</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="17"/>
-        <v>11.114630883001563</v>
+        <f t="shared" si="15"/>
+        <v>20.820995301694204</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="17"/>
-        <v>10.931242607147926</v>
+        <f t="shared" si="15"/>
+        <v>18.452882289224107</v>
       </c>
       <c r="R37" s="9">
-        <f>G37/[34]Model!$BB$18</f>
-        <v>9.6950275566938195</v>
+        <f>G37/[34]Model!$AK$23</f>
+        <v>11.745275561814704</v>
       </c>
       <c r="S37" s="10">
-        <f>[34]Model!$AR$3</f>
-        <v>4606.5749999999998</v>
-      </c>
-      <c r="T37" s="11">
-        <f>[34]Model!AQ$22</f>
-        <v>-5.2964374628214017E-2</v>
-      </c>
-      <c r="U37" s="11">
-        <f>[34]Model!AR$22</f>
-        <v>7.1670350122135629E-2</v>
-      </c>
+        <f>[34]Model!$Z$3</f>
+        <v>3330.6000000000004</v>
+      </c>
+      <c r="T37" s="31">
+        <f t="shared" si="8"/>
+        <v>2.7065621809884104</v>
+      </c>
+      <c r="U37" s="11"/>
       <c r="V37" s="11">
-        <f>[34]Model!$AR$23</f>
-        <v>0.4344687756087765</v>
+        <f>[34]Model!$Z$27</f>
+        <v>0.29858078602620086</v>
       </c>
       <c r="W37" s="11">
-        <f>[34]Model!$AR$24</f>
-        <v>0.15152309470702194</v>
+        <f>[34]Model!$Z$28</f>
+        <v>0.29216957905482505</v>
       </c>
       <c r="X37" s="11">
-        <f>[34]Model!$BE$25</f>
-        <v>0.08</v>
+        <f>[34]Model!$Z$32</f>
+        <v>7.4160811865729995E-2</v>
       </c>
       <c r="Y37" s="11">
-        <f>[34]Model!$BE$31</f>
-        <v>0.10377013281789149</v>
-      </c>
-      <c r="Z37" s="7" t="str">
-        <f>[34]Model!$BE$32</f>
-        <v>Slightly undervalued</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB37" s="7">
-        <v>1981</v>
-      </c>
-      <c r="AD37" s="17">
+        <f>[34]Model!$AO$30</f>
+        <v>0.09</v>
+      </c>
+      <c r="Z37" s="11">
+        <f>[34]Model!$AO$36</f>
+        <v>-0.35523475844729624</v>
+      </c>
+      <c r="AA37" s="7" t="str">
+        <f>[34]Model!$AO$37</f>
+        <v>Overvalued</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>1999</v>
+      </c>
+      <c r="AE37" s="17">
         <f>[34]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE37" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF37" s="17">
         <f>[34]Main!$G$3</f>
-        <v>45782</v>
+        <v>45867</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B38" s="29" t="s">
-        <v>191</v>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="D38" s="12">
         <f>[35]Main!$D$3</f>
-        <v>73.5</v>
+        <v>149.62</v>
       </c>
       <c r="E38" s="8">
         <f>[35]Main!$D$5</f>
-        <v>6548.8499999999995</v>
+        <v>8513.3780000000006</v>
       </c>
       <c r="F38" s="8">
         <f>[35]Main!$D$8</f>
-        <v>-1629.1</v>
+        <v>1262.8</v>
       </c>
       <c r="G38" s="8">
         <f>[35]Main!$D$9</f>
-        <v>8177.9499999999989</v>
+        <v>7250.5780000000004</v>
       </c>
       <c r="H38" s="8">
-        <f>[35]Model!Z$23</f>
-        <v>199.2000000000003</v>
+        <f>[35]Model!AZ$13</f>
+        <v>454.49999999999966</v>
       </c>
       <c r="I38" s="8">
-        <f>[35]Model!AA$23</f>
-        <v>238.72730960000027</v>
+        <f>[35]Model!BA$13</f>
+        <v>449.57382599999983</v>
       </c>
       <c r="J38" s="8">
-        <f>[35]Model!AB$23</f>
-        <v>504.26543477760021</v>
+        <f>[35]Model!BB$13</f>
+        <v>445.48834746</v>
       </c>
       <c r="K38" s="8">
-        <f>[35]Model!AC$23</f>
-        <v>599.2175455562882</v>
+        <f>[35]Model!BC$13</f>
+        <v>441.07713379859996</v>
       </c>
       <c r="L38" s="8">
-        <f>[35]Model!AD$23</f>
-        <v>674.82399552379991</v>
+        <f>[35]Model!BD$13</f>
+        <v>443.01880423842584</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" ref="M38:O38" si="21">$G38/H38</f>
-        <v>41.053965863453747</v>
+        <f>$G38/H38</f>
+        <v>15.952866886688682</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="21"/>
-        <v>34.256449392834732</v>
+        <f>$G38/I38</f>
+        <v>16.127669318542587</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="21"/>
-        <v>16.217550194783385</v>
+        <f>$G38/J38</f>
+        <v>16.275572731228451</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="17"/>
-        <v>13.647714524794058</v>
+        <f>$G38/K38</f>
+        <v>16.438344780100714</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="17"/>
-        <v>12.118641385376725</v>
+        <f>$G38/L38</f>
+        <v>16.366298519685074</v>
       </c>
       <c r="R38" s="9">
-        <f>G38/[35]Model!$AK$23</f>
-        <v>8.6198856862153121</v>
+        <f>G38/[35]Model!$BK$13</f>
+        <v>16.044350612290323</v>
       </c>
       <c r="S38" s="10">
-        <f>[35]Model!$Z$3</f>
-        <v>3330.6000000000004</v>
-      </c>
-      <c r="T38" s="11"/>
+        <f>[35]Model!$AZ$3</f>
+        <v>4727.8999999999996</v>
+      </c>
+      <c r="T38" s="31">
+        <f>G38/S38</f>
+        <v>1.5335726220943762</v>
+      </c>
       <c r="U38" s="11">
-        <f>[35]Model!$Z$27</f>
-        <v>0.29858078602620086</v>
+        <f>[35]Model!$AY$17</f>
+        <v>-2.7815200945136453E-2</v>
       </c>
       <c r="V38" s="11">
-        <f>[35]Model!$Z$28</f>
-        <v>0.29216957905482505</v>
+        <f>[35]Model!$AZ$17</f>
+        <v>7.9735635859716769E-3</v>
       </c>
       <c r="W38" s="11">
-        <f>[35]Model!$Z$32</f>
-        <v>7.4160811865729995E-2</v>
+        <f>[35]Model!$AZ$18</f>
+        <v>0.30677467797542246</v>
       </c>
       <c r="X38" s="11">
-        <f>[35]Model!$AO$30</f>
+        <f>[35]Model!$AZ$19</f>
+        <v>0.11516741047822494</v>
+      </c>
+      <c r="Y38" s="11">
+        <f>[35]Model!$BN$20</f>
         <v>0.09</v>
       </c>
-      <c r="Y38" s="11">
-        <f>[35]Model!$AO$36</f>
-        <v>5.2231953691133093E-3</v>
-      </c>
-      <c r="Z38" s="7" t="str">
-        <f>[35]Model!$AO$37</f>
-        <v>Fairly valued</v>
-      </c>
-      <c r="AA38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB38" s="7">
-        <v>1999</v>
-      </c>
-      <c r="AD38" s="17">
+      <c r="Z38" s="11">
+        <f>[35]Model!$BN$26</f>
+        <v>-0.29684783704459616</v>
+      </c>
+      <c r="AA38" s="7" t="str">
+        <f>[35]Model!$BN$27</f>
+        <v>Overvalued</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>1993</v>
+      </c>
+      <c r="AE38" s="17">
         <f>[35]Main!$E$3</f>
-        <v>45756</v>
-      </c>
-      <c r="AE38" s="17">
+        <v>45764</v>
+      </c>
+      <c r="AF38" s="17">
         <f>[35]Main!$G$3</f>
-        <v>45778</v>
+        <v>45785</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39" s="27" t="s">
         <v>71</v>
       </c>
@@ -10360,19 +10837,19 @@
       </c>
       <c r="D39" s="12">
         <f>[36]Main!$D$3</f>
-        <v>60</v>
+        <v>59.53</v>
       </c>
       <c r="E39" s="8">
         <f>[36]Main!$D$5</f>
-        <v>8753.9999999999982</v>
+        <v>8727.098</v>
       </c>
       <c r="F39" s="8">
         <f>[36]Main!$D$8</f>
-        <v>2058.5</v>
+        <v>2256.1</v>
       </c>
       <c r="G39" s="8">
         <f>[36]Main!$D$9</f>
-        <v>6695.4999999999982</v>
+        <v>6470.9979999999996</v>
       </c>
       <c r="H39" s="8">
         <f>[36]Model!AP18</f>
@@ -10380,80 +10857,90 @@
       </c>
       <c r="I39" s="8">
         <f>[36]Model!AQ18</f>
-        <v>11.911727999999531</v>
+        <v>-8.2235920000007852</v>
       </c>
       <c r="J39" s="8">
         <f>[36]Model!AR18</f>
-        <v>221.74054400000037</v>
+        <v>196.63455295999964</v>
       </c>
       <c r="K39" s="8">
         <f>[36]Model!AS18</f>
-        <v>367.46020472000026</v>
+        <v>342.45798946879961</v>
       </c>
       <c r="L39" s="8">
         <f>[36]Model!AT18</f>
-        <v>490.2996515480005</v>
+        <v>465.99155682684778</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9">
         <f>$G39/J39</f>
-        <v>30.195199665425132</v>
+        <v>32.908753332464215</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="17"/>
-        <v>18.221020709172791</v>
+        <f t="shared" si="15"/>
+        <v>18.895742540676085</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="17"/>
-        <v>13.655934649067371</v>
+        <f t="shared" si="15"/>
+        <v>13.886513403942381</v>
       </c>
       <c r="R39" s="9">
         <f>G39/[36]Model!$BA$18</f>
-        <v>10.030859249221578</v>
+        <v>10.043090211753164</v>
       </c>
       <c r="S39" s="10">
         <f>[36]Model!$AP$5</f>
         <v>4112.7</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="31">
+        <f t="shared" si="8"/>
+        <v>1.5734184355776011</v>
+      </c>
+      <c r="U39" s="11">
         <f>[36]Model!AO$24</f>
         <v>0.11452969584546024</v>
       </c>
-      <c r="U39" s="11">
+      <c r="V39" s="11">
         <f>[36]Model!AP$24</f>
         <v>0.18018250688705217</v>
       </c>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="W39" s="11">
+        <f>[36]Model!$AP$27</f>
+        <v>0.43898169086001887</v>
+      </c>
       <c r="X39" s="11">
+        <f>[36]Model!$AP$28</f>
+        <v>-5.3079485496146134E-2</v>
+      </c>
+      <c r="Y39" s="11">
         <f>[36]Model!$BD$26</f>
         <v>0.09</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Z39" s="11">
         <f>[36]Model!$BD$32</f>
-        <v>-0.19948232694771839</v>
-      </c>
-      <c r="Z39" s="7" t="str">
+        <v>-0.2009046635940247</v>
+      </c>
+      <c r="AA39" s="7" t="str">
         <f>[36]Model!$BD$33</f>
         <v>Slightly overvalued</v>
       </c>
-      <c r="AA39" s="7" t="s">
+      <c r="AB39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AC39" s="7">
         <v>2002</v>
       </c>
-      <c r="AD39" s="17">
+      <c r="AE39" s="17">
         <f>[36]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE39" s="17">
+        <v>45783</v>
+      </c>
+      <c r="AF39" s="17">
         <f>[36]Main!$G$3</f>
-        <v>45771</v>
+        <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" s="27" t="s">
         <v>197</v>
       </c>
@@ -10462,53 +10949,116 @@
       </c>
       <c r="D40" s="12">
         <f>[37]Main!$D$3</f>
-        <v>139.97999999999999</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="E40" s="8">
         <f>[37]Main!$D$5</f>
-        <v>6089.1299999999992</v>
+        <v>6940.4250000000002</v>
       </c>
       <c r="F40" s="8">
         <f>[37]Main!$D$8</f>
-        <v>301.89999999999998</v>
+        <v>307.70000000000005</v>
       </c>
       <c r="G40" s="8">
         <f>[37]Main!$D$9</f>
-        <v>5787.23</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="AA40" s="7" t="s">
+        <v>6632.7250000000004</v>
+      </c>
+      <c r="H40" s="8">
+        <f>[37]Model!Z$13</f>
+        <v>333.28025000000036</v>
+      </c>
+      <c r="I40" s="8">
+        <f>[37]Model!AA$13</f>
+        <v>407.45271719999994</v>
+      </c>
+      <c r="J40" s="8">
+        <f>[37]Model!AB$13</f>
+        <v>459.67040872000001</v>
+      </c>
+      <c r="K40" s="8">
+        <f>[37]Model!AC$13</f>
+        <v>490.07085759580002</v>
+      </c>
+      <c r="L40" s="8">
+        <f>[37]Model!AD$13</f>
+        <v>512.97105644649412</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" ref="M40" si="20">$G40/H40</f>
+        <v>19.901344289078015</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" ref="N40" si="21">$G40/I40</f>
+        <v>16.278514585888253</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" ref="O40" si="22">$G40/J40</f>
+        <v>14.429306029225401</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="15"/>
+        <v>13.534216322388486</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="15"/>
+        <v>12.930018012998424</v>
+      </c>
+      <c r="R40" s="9">
+        <f>G40/[37]Model!$AJ$13</f>
+        <v>10.95203783450763</v>
+      </c>
+      <c r="S40" s="10">
+        <f>[37]Model!$Z$3</f>
+        <v>2366.0300000000002</v>
+      </c>
+      <c r="T40" s="31">
+        <f t="shared" si="8"/>
+        <v>2.8033139901015622</v>
+      </c>
+      <c r="U40" s="11">
+        <f>[37]Model!$Y$17</f>
+        <v>0.1103189289213018</v>
+      </c>
+      <c r="V40" s="11">
+        <f>[37]Model!$Z$17</f>
+        <v>0.15976177638351086</v>
+      </c>
+      <c r="W40" s="11">
+        <f>[37]Model!$Z$18</f>
+        <v>0.40182584329023741</v>
+      </c>
+      <c r="X40" s="11">
+        <f>[37]Model!$Z$20</f>
+        <v>0.18119254616382729</v>
+      </c>
+      <c r="Y40" s="11">
+        <f>[37]Model!$AM$19</f>
+        <v>0.09</v>
+      </c>
+      <c r="Z40" s="11">
+        <f>[37]Model!$AM$25</f>
+        <v>-0.12398551427679472</v>
+      </c>
+      <c r="AA40" s="7" t="str">
+        <f>[37]Model!$AM$26</f>
+        <v>Slightly overvalued</v>
+      </c>
+      <c r="AB40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AC40" s="7">
         <v>2000</v>
       </c>
-      <c r="AD40" s="17">
+      <c r="AE40" s="17">
         <f>[37]Main!$E$3</f>
-        <v>45772</v>
-      </c>
-      <c r="AE40" s="17">
+        <v>45781</v>
+      </c>
+      <c r="AF40" s="17">
         <f>[37]Main!$G$3</f>
-        <v>45776</v>
+        <v>45881</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
         <v>61</v>
       </c>
@@ -10552,23 +11102,23 @@
         <v>413.39704472070275</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" ref="M41:O42" si="22">$G41/H41</f>
+        <f t="shared" ref="M41:O42" si="23">$G41/H41</f>
         <v>38.501326219512343</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22.940466489979588</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13.896804358052199</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>12.522050283816393</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>12.219182658678138</v>
       </c>
       <c r="R41" s="9">
@@ -10579,50 +11129,54 @@
         <f>[38]Model!$BO$6</f>
         <v>3823</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="31">
+        <f t="shared" ref="T41:T53" si="24">G41/S41</f>
+        <v>1.3213115354433695</v>
+      </c>
+      <c r="U41" s="11">
         <f>[38]Model!$BN$22</f>
         <v>-0.11034622393197013</v>
       </c>
-      <c r="U41" s="11">
+      <c r="V41" s="11">
         <f>[38]Model!$BO$22</f>
         <v>-0.27495827643756632</v>
       </c>
-      <c r="V41" s="11">
+      <c r="W41" s="11">
         <f>[38]Model!$BO$23</f>
         <v>0.2913680355741563</v>
       </c>
-      <c r="W41" s="11">
+      <c r="X41" s="11">
         <f>[38]Model!$BO$24</f>
         <v>-6.8532566047607782E-3</v>
       </c>
-      <c r="X41" s="11">
+      <c r="Y41" s="11">
         <f>[38]Model!$CC$30</f>
         <v>0.08</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Z41" s="11">
         <f>[38]Model!$CC$36</f>
         <v>9.1688418573467878E-3</v>
       </c>
-      <c r="Z41" s="7" t="str">
+      <c r="AA41" s="7" t="str">
         <f>[38]Model!$CC$37</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA41" s="7" t="s">
+      <c r="AB41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AC41" s="7">
         <v>1984</v>
       </c>
-      <c r="AD41" s="17">
+      <c r="AE41" s="17">
         <f>[38]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE41" s="17">
+      <c r="AF41" s="17">
         <f>[38]Main!$G$3</f>
         <v>45812</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42" s="27" t="s">
         <v>167</v>
       </c>
@@ -10666,23 +11220,23 @@
         <v>396.42219656109609</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23.851387377584334</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17.475443592178202</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.606119208811638</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>12.389663196489353</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>11.058626479620852</v>
       </c>
       <c r="R42" s="9">
@@ -10693,44 +11247,48 @@
         <f>[39]Model!$AC$5</f>
         <v>672.3</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="31">
+        <f t="shared" si="24"/>
+        <v>6.5207273538598836</v>
+      </c>
+      <c r="U42" s="11">
         <f>[39]Model!AB$24</f>
         <v>-9.2676944639103032E-2</v>
       </c>
-      <c r="U42" s="11">
+      <c r="V42" s="11">
         <f>[39]Model!AC$24</f>
         <v>0.29812705155435415</v>
       </c>
-      <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="11">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11">
         <f>[39]Model!$AR$25</f>
         <v>0.09</v>
       </c>
-      <c r="Y42" s="11">
+      <c r="Z42" s="11">
         <f>[39]Model!$AR$31</f>
         <v>8.4812741052432195E-2</v>
       </c>
-      <c r="Z42" s="7" t="str">
+      <c r="AA42" s="7" t="str">
         <f>[39]Model!$AR$32</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA42" s="7" t="s">
+      <c r="AB42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AB42" s="7">
+      <c r="AC42" s="7">
         <v>1993</v>
       </c>
-      <c r="AD42" s="17">
+      <c r="AE42" s="17">
         <f>[39]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AF42" s="17">
         <f>[39]Main!$G$3</f>
         <v>45785</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43" s="28" t="s">
         <v>175</v>
       </c>
@@ -10786,45 +11344,49 @@
         <f>[40]Model!$AA$3</f>
         <v>43.099999999999994</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="31">
+        <f t="shared" si="24"/>
+        <v>105.65436194895594</v>
+      </c>
+      <c r="U43" s="11">
         <f>[40]Model!Z$22</f>
         <v>0.96428571428571441</v>
       </c>
-      <c r="U43" s="11">
+      <c r="V43" s="11">
         <f>[40]Model!AA$22</f>
         <v>0.95909090909090877</v>
       </c>
-      <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="11">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11">
         <f>[40]Model!$AP$24</f>
         <v>0.09</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Z43" s="11">
         <f>[40]Model!$AP$30</f>
         <v>-0.68463910360246483</v>
       </c>
-      <c r="Z43" s="7" t="str">
+      <c r="AA43" s="7" t="str">
         <f>[40]Model!$AP$31</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA43" s="7" t="s">
+      <c r="AB43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AC43" s="7">
         <v>2015</v>
       </c>
-      <c r="AD43" s="17">
+      <c r="AE43" s="17">
         <f>[40]Main!$E$3</f>
         <v>45729</v>
       </c>
-      <c r="AE43" s="17">
+      <c r="AF43" s="17">
         <f>[40]Main!$G$3</f>
         <v>45804</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="27" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -10867,23 +11429,23 @@
         <v>639.76869922577112</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" ref="M44:Q48" si="23">$G44/H44</f>
+        <f t="shared" ref="M44:Q48" si="25">$G44/H44</f>
         <v>9.2427156175185079</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.1788615191660483</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.5562825996239029</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.149941238926969</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.8339041989566001</v>
       </c>
       <c r="R44" s="9">
@@ -10894,50 +11456,54 @@
         <f>[41]Model!$Q$12</f>
         <v>1537.2</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="31">
+        <f t="shared" si="24"/>
+        <v>2.8442089513400983</v>
+      </c>
+      <c r="U44" s="11">
         <f>[41]Model!P$36</f>
         <v>0.76377670077185411</v>
       </c>
-      <c r="U44" s="11">
+      <c r="V44" s="11">
         <f>[41]Model!Q$36</f>
         <v>0.56442092407897415</v>
       </c>
-      <c r="V44" s="11">
+      <c r="W44" s="11">
         <f>[41]Model!$Q$39</f>
         <v>0.71064272703616971</v>
       </c>
-      <c r="W44" s="11">
+      <c r="X44" s="11">
         <f>[41]Model!$Q$41</f>
         <v>0.32650273224043719</v>
       </c>
-      <c r="X44" s="11">
+      <c r="Y44" s="11">
         <f>[41]Model!$AE$36</f>
         <v>0.09</v>
       </c>
-      <c r="Y44" s="11">
+      <c r="Z44" s="11">
         <f>[41]Model!$AE$42</f>
         <v>0.29282192477201852</v>
       </c>
-      <c r="Z44" s="7" t="str">
+      <c r="AA44" s="7" t="str">
         <f>[41]Model!$AE$43</f>
         <v>Undervalued</v>
       </c>
-      <c r="AA44" s="7" t="s">
+      <c r="AB44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AC44" s="7">
         <v>2011</v>
       </c>
-      <c r="AD44" s="17">
+      <c r="AE44" s="17">
         <f>[41]Main!$F$3</f>
         <v>45730</v>
       </c>
-      <c r="AE44" s="17">
+      <c r="AF44" s="17">
         <f>[41]Main!$H$3</f>
         <v>45762</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>151</v>
       </c>
@@ -10981,23 +11547,23 @@
         <v>542.918339415834</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>11.628233280073065</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10.406077979668463</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.4962160444857595</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.7628369974055786</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.2309056900362272</v>
       </c>
       <c r="R45" s="9">
@@ -11008,44 +11574,48 @@
         <f>[42]Model!$AD$6/[42]Main!$D$13</f>
         <v>3299.9649122807009</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="31">
+        <f t="shared" si="24"/>
+        <v>1.3541688375208674</v>
+      </c>
+      <c r="U45" s="11">
         <f>[42]Model!AC$23</f>
         <v>4.0000260842914193E-2</v>
       </c>
-      <c r="U45" s="11">
+      <c r="V45" s="11">
         <f>[42]Model!AD$23</f>
         <v>0.17942351222387298</v>
       </c>
-      <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="11">
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11">
         <f>[42]Model!$AS$22</f>
         <v>0.16</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Z45" s="11">
         <f>[42]Model!$AS$29</f>
         <v>-0.46482714641767242</v>
       </c>
-      <c r="Z45" s="7" t="str">
+      <c r="AA45" s="7" t="str">
         <f>[42]Model!$AS$30</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA45" s="7" t="s">
+      <c r="AB45" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB45" s="7">
+      <c r="AC45" s="7">
         <v>2006</v>
       </c>
-      <c r="AD45" s="17">
+      <c r="AE45" s="17">
         <f>[42]Main!$F$3</f>
         <v>45751</v>
       </c>
-      <c r="AE45" s="17">
+      <c r="AF45" s="17">
         <f>[42]Main!$G$3</f>
         <v>45806</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
         <v>130</v>
       </c>
@@ -11054,11 +11624,11 @@
       </c>
       <c r="D46" s="12">
         <f>[43]Main!$D$3</f>
-        <v>11.39</v>
+        <v>13.77</v>
       </c>
       <c r="E46" s="8">
         <f>[43]Main!$D$5</f>
-        <v>3338.4090000000006</v>
+        <v>4035.9870000000001</v>
       </c>
       <c r="F46" s="8">
         <f>[43]Main!$D$10</f>
@@ -11066,7 +11636,7 @@
       </c>
       <c r="G46" s="8">
         <f>[43]Main!$D$11</f>
-        <v>4595.9531696113081</v>
+        <v>5293.5311696113076</v>
       </c>
       <c r="H46" s="8">
         <f>[43]Model!AM18/[43]Main!$D$13</f>
@@ -11089,77 +11659,81 @@
         <v>567.73125562529424</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="23"/>
-        <v>-17.190784390695228</v>
+        <f t="shared" si="25"/>
+        <v>-19.800017459688092</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="23"/>
-        <v>11.079897282584117</v>
+        <f t="shared" si="25"/>
+        <v>12.761614284771094</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" si="23"/>
-        <v>9.3331494544200702</v>
+        <f t="shared" si="25"/>
+        <v>10.749743464377325</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="23"/>
-        <v>8.5831176305168579</v>
+        <f t="shared" si="25"/>
+        <v>9.8858711202716396</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="23"/>
-        <v>8.0952970689439407</v>
+        <f t="shared" si="25"/>
+        <v>9.3240087051065359</v>
       </c>
       <c r="R46" s="9">
         <f>G46/([43]Model!$AX$18/[43]Main!$D$13)</f>
-        <v>7.5006673992520785</v>
+        <v>8.6391255971361911</v>
       </c>
       <c r="S46" s="10">
         <f>[43]Model!$AM$6/[43]Main!$D$13</f>
         <v>2250.7420494699645</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="31">
+        <f t="shared" si="24"/>
+        <v>2.3519048621577494</v>
+      </c>
+      <c r="U46" s="11">
         <f>[43]Model!AL$25</f>
         <v>0.26036999245818726</v>
       </c>
-      <c r="U46" s="11">
+      <c r="V46" s="11">
         <f>[43]Model!AM$25</f>
         <v>0.12101372756071815</v>
       </c>
-      <c r="V46" s="11">
+      <c r="W46" s="11">
         <f>[43]Model!$AM$26</f>
         <v>0.73396288620949512</v>
       </c>
-      <c r="W46" s="11">
+      <c r="X46" s="11">
         <f>[43]Model!$AM$30</f>
         <v>0.19938457673951274</v>
       </c>
-      <c r="X46" s="11">
+      <c r="Y46" s="11">
         <f>[43]Model!$BC$24</f>
         <v>0.15</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Z46" s="11">
         <f>[43]Model!$BC$31</f>
-        <v>0.47478324345323664</v>
-      </c>
-      <c r="Z46" s="7" t="str">
+        <v>0.21988243594280066</v>
+      </c>
+      <c r="AA46" s="7" t="str">
         <f>[43]Model!$BC$32</f>
-        <v>Undervalued</v>
-      </c>
-      <c r="AA46" s="7" t="s">
+        <v>Slightly undervalued</v>
+      </c>
+      <c r="AB46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AC46" s="7">
         <v>2000</v>
       </c>
-      <c r="AD46" s="17">
+      <c r="AE46" s="17">
         <f>[43]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE46" s="17">
+        <v>45780</v>
+      </c>
+      <c r="AF46" s="17">
         <f>[43]Main!$G$3</f>
         <v>45832</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B47" s="27" t="s">
         <v>102</v>
       </c>
@@ -11203,23 +11777,23 @@
         <v>21.999999999999979</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-24.017395422257316</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-27.414450450450488</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.6054679750976046</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-149.16686274509783</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>138.31836363636376</v>
       </c>
       <c r="R47" s="9"/>
@@ -11227,45 +11801,49 @@
         <f>[44]Model!$AD$3</f>
         <v>1426.5</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="31">
+        <f t="shared" si="24"/>
+        <v>2.1331959341044513</v>
+      </c>
+      <c r="U47" s="11">
         <f>[44]Model!AC$20</f>
         <v>0.24318400981853228</v>
       </c>
-      <c r="U47" s="11">
+      <c r="V47" s="11">
         <f>[44]Model!AD$20</f>
         <v>5.9234186587688864E-3</v>
       </c>
-      <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="11">
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11">
         <f>[44]Model!$AV$22</f>
         <v>0.09</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Z47" s="11">
         <f>[44]Model!$AV$28</f>
         <v>5.3153950437602404E-2</v>
       </c>
-      <c r="Z47" s="7" t="str">
+      <c r="AA47" s="7" t="str">
         <f>[44]Model!$AV$29</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AA47" s="7" t="s">
+      <c r="AB47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB47" s="7">
+      <c r="AC47" s="7">
         <v>1996</v>
       </c>
-      <c r="AD47" s="17">
+      <c r="AE47" s="17">
         <f>[44]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE47" s="17">
+      <c r="AF47" s="17">
         <f>[44]Main!$G$3</f>
         <v>45784</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="25" t="s">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -11273,112 +11851,116 @@
       </c>
       <c r="D48" s="12">
         <f>[45]Main!$D$3</f>
-        <v>15</v>
+        <v>16.87</v>
       </c>
       <c r="E48" s="8">
         <f>[45]Main!$D$5</f>
-        <v>1327.5</v>
+        <v>1509.865</v>
       </c>
       <c r="F48" s="8">
         <f>[45]Main!$D$8</f>
-        <v>93.9</v>
+        <v>126.8</v>
       </c>
       <c r="G48" s="8">
         <f>[45]Main!$D$9</f>
-        <v>1233.5999999999999</v>
+        <v>1383.0650000000001</v>
       </c>
       <c r="H48" s="8">
         <f>[45]Model!AB27</f>
-        <v>106.2141045000001</v>
+        <v>113.24559999999995</v>
       </c>
       <c r="I48" s="8">
         <f>[45]Model!AC27</f>
-        <v>138.91624085999987</v>
+        <v>138.23346399999994</v>
       </c>
       <c r="J48" s="8">
         <f>[45]Model!AD27</f>
-        <v>170.45307595219995</v>
+        <v>166.66507059200003</v>
       </c>
       <c r="K48" s="8">
         <f>[45]Model!AE27</f>
-        <v>182.54290103168199</v>
+        <v>178.35527070432005</v>
       </c>
       <c r="L48" s="8">
         <f>[45]Model!AF27</f>
-        <v>193.13506186367351</v>
+        <v>186.25340380022882</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="23"/>
-        <v>11.614276708419631</v>
+        <f t="shared" si="25"/>
+        <v>12.212968980693296</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="23"/>
-        <v>8.880171190661752</v>
+        <f t="shared" si="25"/>
+        <v>10.005283525268531</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" si="23"/>
-        <v>7.2371823923314684</v>
+        <f t="shared" si="25"/>
+        <v>8.2984694698613559</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="23"/>
-        <v>6.7578634558124904</v>
+        <f t="shared" si="25"/>
+        <v>7.7545507600549985</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="23"/>
-        <v>6.3872400386355013</v>
+        <f t="shared" si="25"/>
+        <v>7.4257166407731487</v>
       </c>
       <c r="R48" s="9">
         <f>G48/[45]Model!$AL$27</f>
-        <v>5.3520685377416157</v>
+        <v>6.2758149935393668</v>
       </c>
       <c r="S48" s="10">
         <f>[45]Model!$AA$8</f>
         <v>482.9</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="31">
+        <f t="shared" si="24"/>
+        <v>2.8640815903913857</v>
+      </c>
+      <c r="U48" s="11">
         <f>[45]Model!Z$34</f>
-        <v>0.19909502262443413</v>
-      </c>
-      <c r="U48" s="11">
+        <v>0.15774446823697352</v>
+      </c>
+      <c r="V48" s="11">
         <f>[45]Model!AA$34</f>
-        <v>0.2148427672955977</v>
-      </c>
-      <c r="V48" s="11">
-        <f>[45]Model!$AA$38</f>
+        <v>0.14796547472256472</v>
+      </c>
+      <c r="W48" s="11">
+        <f>[45]Model!$AA$40</f>
         <v>0.7256160695796231</v>
       </c>
-      <c r="W48" s="11">
-        <f>[45]Model!$AA$41</f>
-        <v>0.19092979913025471</v>
-      </c>
       <c r="X48" s="11">
-        <f>[45]Model!$AO$39</f>
+        <f>[45]Model!$AA$43</f>
+        <v>0.19631393663284327</v>
+      </c>
+      <c r="Y48" s="11">
+        <f>[45]Model!$AO$41</f>
         <v>0.1</v>
       </c>
-      <c r="Y48" s="11">
-        <f>[45]Model!$AO$45</f>
-        <v>0.4949184142731724</v>
-      </c>
-      <c r="Z48" s="7" t="str">
-        <f>[45]Model!$AO$46</f>
-        <v>Undervalued</v>
-      </c>
-      <c r="AA48" s="7" t="s">
+      <c r="Z48" s="11">
+        <f>[45]Model!$AO$47</f>
+        <v>0.11399138868960712</v>
+      </c>
+      <c r="AA48" s="7" t="str">
+        <f>[45]Model!$AO$48</f>
+        <v>Slightly undervalued</v>
+      </c>
+      <c r="AB48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AC48" s="7">
         <v>1995</v>
       </c>
-      <c r="AD48" s="17">
-        <f>[45]Main!$F$3</f>
-        <v>45751</v>
-      </c>
       <c r="AE48" s="17">
-        <f>[45]Main!$H$3</f>
-        <v>45771</v>
+        <f>[45]Main!$E$3</f>
+        <v>45776</v>
+      </c>
+      <c r="AF48" s="17">
+        <f>[45]Main!$G$3</f>
+        <v>45890</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B49" s="28" t="s">
         <v>70</v>
       </c>
@@ -11434,44 +12016,48 @@
         <f>[46]Model!$AR$3</f>
         <v>1402.8980000000001</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="31">
+        <f t="shared" si="24"/>
+        <v>0.5218412172517175</v>
+      </c>
+      <c r="U49" s="11">
         <f>[46]Model!AP$18</f>
         <v>-5.5409723807349986E-2</v>
       </c>
-      <c r="U49" s="11">
+      <c r="V49" s="11">
         <f>[46]Model!AQ$18</f>
         <v>-8.2885277593185425E-2</v>
       </c>
-      <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="11">
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11">
         <f>[46]Model!$BE$21</f>
         <v>0.1</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Z49" s="11">
         <f>[46]Model!$BE$27</f>
         <v>-0.48395796893878795</v>
       </c>
-      <c r="Z49" s="7" t="str">
+      <c r="AA49" s="7" t="str">
         <f>[46]Model!$BE$28</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA49" s="7" t="s">
+      <c r="AB49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB49" s="7">
+      <c r="AC49" s="7">
         <v>2002</v>
       </c>
-      <c r="AD49" s="17">
+      <c r="AE49" s="17">
         <f>[46]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE49" s="17">
+      <c r="AF49" s="17">
         <f>[46]Main!$G$3</f>
         <v>45784</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B50" s="27" t="s">
         <v>90</v>
       </c>
@@ -11539,43 +12125,47 @@
         <f>[47]Model!$AK$3</f>
         <v>1316.4</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="31">
+        <f t="shared" si="24"/>
+        <v>0.63598678213309023</v>
+      </c>
+      <c r="U50" s="11">
         <f>[47]Model!AJ$18</f>
         <v>6.1668242309650179E-2</v>
       </c>
-      <c r="U50" s="11">
+      <c r="V50" s="11">
         <f>[47]Model!AK$18</f>
         <v>-9.8294403726282509E-2</v>
       </c>
-      <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="11">
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11">
         <f>[47]Model!$AY$21</f>
         <v>0.1</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Z50" s="11">
         <f>[47]Model!$AY$49</f>
         <v>0.42182547973186435</v>
       </c>
-      <c r="Z50" s="7" t="s">
+      <c r="AA50" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AA50" s="7" t="s">
+      <c r="AB50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AC50" s="7">
         <v>1994</v>
       </c>
-      <c r="AD50" s="17">
+      <c r="AE50" s="17">
         <f>[47]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE50" s="17">
+      <c r="AF50" s="17">
         <f>[47]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B51" s="27" t="s">
         <v>155</v>
       </c>
@@ -11634,44 +12224,48 @@
         <f>[48]Model!$AA$8</f>
         <v>628.79999999999995</v>
       </c>
-      <c r="T51" s="11">
+      <c r="T51" s="31">
+        <f t="shared" si="24"/>
+        <v>1.2062531806615777</v>
+      </c>
+      <c r="U51" s="11">
         <f>[48]Model!Z$42</f>
         <v>0.27060165383518697</v>
       </c>
-      <c r="U51" s="11">
+      <c r="V51" s="11">
         <f>[48]Model!AA$42</f>
         <v>-0.29443447037701986</v>
       </c>
-      <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="11">
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11">
         <f>[48]Model!$AP$39</f>
         <v>0.11</v>
       </c>
-      <c r="Y51" s="11">
+      <c r="Z51" s="11">
         <f>[48]Model!$AP$45</f>
         <v>-0.48096549399129951</v>
       </c>
-      <c r="Z51" s="7" t="str">
+      <c r="AA51" s="7" t="str">
         <f>[48]Model!$AP$46</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA51" s="7" t="s">
+      <c r="AB51" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AB51" s="7">
+      <c r="AC51" s="7">
         <v>1997</v>
       </c>
-      <c r="AD51" s="17">
+      <c r="AE51" s="17">
         <f>[48]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE51" s="17">
+      <c r="AF51" s="17">
         <f>[48]Main!$G$3</f>
         <v>45785</v>
       </c>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
         <v>188</v>
       </c>
@@ -11715,23 +12309,23 @@
         <v>60.321196610999991</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" ref="M52:Q52" si="24">$G52/H52</f>
+        <f t="shared" ref="M52:Q52" si="26">$G52/H52</f>
         <v>14.13961038961039</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.8772544181151822</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.3995314777987193</v>
       </c>
       <c r="P52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.7936839589696154</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.2196843641623563</v>
       </c>
       <c r="R52" s="9">
@@ -11742,50 +12336,54 @@
         <f>[49]Model!$Y$3</f>
         <v>127.2</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="31">
+        <f t="shared" si="24"/>
+        <v>3.4237421383647795</v>
+      </c>
+      <c r="U52" s="11">
         <f>[49]Model!$X$22</f>
         <v>0.42091503267973862</v>
       </c>
-      <c r="U52" s="11">
+      <c r="V52" s="11">
         <f>[49]Model!$Y$22</f>
         <v>0.170193192272309</v>
       </c>
-      <c r="V52" s="11">
+      <c r="W52" s="11">
         <f>[49]Model!$Y$23</f>
         <v>0.94103773584905659</v>
       </c>
-      <c r="W52" s="11">
+      <c r="X52" s="11">
         <f>[49]Model!$Y$27</f>
         <v>0.285377358490566</v>
       </c>
-      <c r="X52" s="11">
+      <c r="Y52" s="11">
         <f>[49]Model!$AM$25</f>
         <v>0.11</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="Z52" s="11">
         <f>[49]Model!$AM$31</f>
         <v>0.5144913850915962</v>
       </c>
-      <c r="Z52" s="7" t="str">
+      <c r="AA52" s="7" t="str">
         <f>[49]Model!$AM$32</f>
         <v>Heavily undervalued</v>
       </c>
-      <c r="AA52" s="7" t="s">
+      <c r="AB52" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AC52" s="7">
         <v>2006</v>
       </c>
-      <c r="AD52" s="17">
+      <c r="AE52" s="17">
         <f>[49]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE52" s="17">
+      <c r="AF52" s="17">
         <f>[49]Main!$G$3</f>
         <v>45792</v>
       </c>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B53" s="29" t="s">
         <v>63</v>
       </c>
@@ -11850,44 +12448,48 @@
         <f>[50]Model!$AU$7</f>
         <v>206.39999999999998</v>
       </c>
-      <c r="T53" s="11">
+      <c r="T53" s="31">
+        <f t="shared" si="24"/>
+        <v>0.49660852713178294</v>
+      </c>
+      <c r="U53" s="11">
         <f>[50]Model!AT$31</f>
         <v>-0.23368678629690032</v>
       </c>
-      <c r="U53" s="11">
+      <c r="V53" s="11">
         <f>[50]Model!AU$31</f>
         <v>9.8456625864821401E-2</v>
       </c>
-      <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="11">
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11">
         <f>[50]Model!$BI$33</f>
         <v>0.12</v>
       </c>
-      <c r="Y53" s="11">
+      <c r="Z53" s="11">
         <f>[50]Model!$BI$39</f>
         <v>0.51120802229567275</v>
       </c>
-      <c r="Z53" s="7" t="str">
+      <c r="AA53" s="7" t="str">
         <f>[50]Model!$BI$40</f>
         <v>Heavily undervalued</v>
       </c>
-      <c r="AA53" s="7" t="s">
+      <c r="AB53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB53" s="7">
+      <c r="AC53" s="7">
         <v>1996</v>
       </c>
-      <c r="AD53" s="17">
+      <c r="AE53" s="17">
         <f>[50]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE53" s="17">
+      <c r="AF53" s="17">
         <f>[50]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
         <v>87</v>
       </c>
@@ -11922,38 +12524,39 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="18"/>
-      <c r="T54" s="11"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="11">
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11">
         <f>[51]Model!$AE$24</f>
         <v>0.11</v>
       </c>
-      <c r="Y54" s="11">
+      <c r="Z54" s="11">
         <f>[51]Model!$AE$30</f>
         <v>-0.25169013126318518</v>
       </c>
-      <c r="Z54" s="7" t="str">
+      <c r="AA54" s="7" t="str">
         <f>[51]Model!$AE$31</f>
         <v>Slightly overvalued</v>
       </c>
-      <c r="AA54" s="7" t="s">
+      <c r="AB54" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AB54" s="7">
+      <c r="AC54" s="7">
         <v>1972</v>
       </c>
-      <c r="AD54" s="17">
+      <c r="AE54" s="17">
         <f>[51]Main!$E$3</f>
         <v>44279</v>
       </c>
-      <c r="AE54" s="17">
+      <c r="AF54" s="17">
         <f>[51]Main!$G$3</f>
         <v>44406</v>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B55" s="27" t="s">
         <v>153</v>
       </c>
@@ -11997,23 +12600,23 @@
         <v>-44.752185381000011</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" ref="M55:Q56" si="25">$G55/H55</f>
+        <f t="shared" ref="M55:Q56" si="27">$G55/H55</f>
         <v>11.42449431438129</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.4338398594667687</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1075094848489808</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.698895933417667</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.6329765148190152</v>
       </c>
       <c r="R55" s="9"/>
@@ -12021,44 +12624,48 @@
         <f>[52]Model!$AD$3</f>
         <v>617.6</v>
       </c>
-      <c r="T55" s="11">
+      <c r="T55" s="31">
+        <f t="shared" ref="T55:T60" si="28">G55/S55</f>
+        <v>-0.55309647020725372</v>
+      </c>
+      <c r="U55" s="11">
         <f>[52]Model!AC$19</f>
         <v>-6.5727699530516381E-2</v>
       </c>
-      <c r="U55" s="11">
+      <c r="V55" s="11">
         <f>[52]Model!AD$19</f>
         <v>-0.13791178112786151</v>
       </c>
-      <c r="V55" s="11"/>
       <c r="W55" s="11"/>
-      <c r="X55" s="11">
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11">
         <f>[52]Model!$AS$21</f>
         <v>0.12</v>
       </c>
-      <c r="Y55" s="11">
+      <c r="Z55" s="11">
         <f>[52]Model!$AS$27</f>
         <v>0.25066821021641306</v>
       </c>
-      <c r="Z55" s="7" t="str">
+      <c r="AA55" s="7" t="str">
         <f>[52]Model!$AS$28</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AA55" s="7" t="s">
+      <c r="AB55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB55" s="7">
+      <c r="AC55" s="7">
         <v>2005</v>
       </c>
-      <c r="AD55" s="17">
+      <c r="AE55" s="17">
         <f>[52]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE55" s="17">
+      <c r="AF55" s="17">
         <f>[52]Main!$G$3</f>
         <v>45802</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B56" s="27" t="s">
         <v>106</v>
       </c>
@@ -12102,23 +12709,23 @@
         <v>-18.632540500000005</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.7824068157614481</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.7909319059172728</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.9787824262043157</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.709461081854144</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.9825646695897401</v>
       </c>
       <c r="R56" s="9">
@@ -12129,44 +12736,48 @@
         <f>[53]Model!$AI$3</f>
         <v>95.5</v>
       </c>
-      <c r="T56" s="11">
+      <c r="T56" s="31">
+        <f t="shared" si="28"/>
+        <v>-1.752544502617801</v>
+      </c>
+      <c r="U56" s="11">
         <f>[53]Model!AH$18</f>
         <v>-0.43604004449388212</v>
       </c>
-      <c r="U56" s="11">
+      <c r="V56" s="11">
         <f>[53]Model!AI$18</f>
         <v>-0.37212360289283364</v>
       </c>
-      <c r="V56" s="11"/>
       <c r="W56" s="11"/>
-      <c r="X56" s="11">
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11">
         <f>[53]Model!$AW$21</f>
         <v>0.12</v>
       </c>
-      <c r="Y56" s="11">
+      <c r="Z56" s="11">
         <f>[53]Model!$AW$27</f>
         <v>-0.52302112324583339</v>
       </c>
-      <c r="Z56" s="7" t="str">
+      <c r="AA56" s="7" t="str">
         <f>[53]Model!$AW$28</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AA56" s="7" t="s">
+      <c r="AB56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AB56" s="7">
+      <c r="AC56" s="7">
         <v>2012</v>
       </c>
-      <c r="AD56" s="17">
+      <c r="AE56" s="17">
         <f>[53]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AF56" s="17">
         <f>[53]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
         <v>109</v>
       </c>
@@ -12234,44 +12845,48 @@
         <f>[54]Model!$T$3</f>
         <v>46.9</v>
       </c>
-      <c r="T57" s="11">
+      <c r="T57" s="31">
+        <f t="shared" si="28"/>
+        <v>2.3397441364605545</v>
+      </c>
+      <c r="U57" s="11">
         <f>[54]Model!S$21</f>
         <v>2.4338235294117649</v>
       </c>
-      <c r="U57" s="11">
+      <c r="V57" s="11">
         <f>[54]Model!T$21</f>
         <v>4.2826552462524869E-3</v>
       </c>
-      <c r="V57" s="11"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="11">
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11">
         <f>[54]Model!$AH$24</f>
         <v>0.12</v>
       </c>
-      <c r="Y57" s="11">
+      <c r="Z57" s="11">
         <f>[54]Model!$AH$30</f>
         <v>0.51192284558708812</v>
       </c>
-      <c r="Z57" s="7" t="str">
+      <c r="AA57" s="7" t="str">
         <f>[54]Model!$AH$31</f>
         <v>Heavily undervalued</v>
       </c>
-      <c r="AA57" s="7" t="s">
+      <c r="AB57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AB57" s="7">
+      <c r="AC57" s="7">
         <v>2015</v>
       </c>
-      <c r="AD57" s="17">
+      <c r="AE57" s="17">
         <f>[54]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE57" s="17">
+      <c r="AF57" s="17">
         <f>[54]Main!$G$3</f>
         <v>45845</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
         <v>141</v>
       </c>
@@ -12342,44 +12957,48 @@
         <f>[55]Model!$AE$13</f>
         <v>139.44</v>
       </c>
-      <c r="T58" s="11">
+      <c r="T58" s="31">
+        <f t="shared" si="28"/>
+        <v>-0.35504876649454958</v>
+      </c>
+      <c r="U58" s="11">
         <f>[55]Model!AD$44</f>
         <v>-9.0761750405186525E-2</v>
       </c>
-      <c r="U58" s="11">
+      <c r="V58" s="11">
         <f>[55]Model!AE$44</f>
         <v>0.24278074866310151</v>
       </c>
-      <c r="V58" s="11"/>
       <c r="W58" s="11"/>
-      <c r="X58" s="11">
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11">
         <f>[55]Model!$AS$42</f>
         <v>0.12</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Z58" s="11">
         <f>[55]Model!$AS$48</f>
         <v>0.5117314448778445</v>
       </c>
-      <c r="Z58" s="7" t="str">
+      <c r="AA58" s="7" t="str">
         <f>[55]Model!$AS$49</f>
         <v>Heavily undervalued</v>
       </c>
-      <c r="AA58" s="7" t="s">
+      <c r="AB58" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AB58" s="7">
+      <c r="AC58" s="7">
         <v>1969</v>
       </c>
-      <c r="AD58" s="17">
+      <c r="AE58" s="17">
         <f>[55]Main!$E$3</f>
         <v>45772</v>
       </c>
-      <c r="AE58" s="17">
+      <c r="AF58" s="17">
         <f>[55]Main!$G$3</f>
         <v>45817</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B59" s="27" t="s">
         <v>157</v>
       </c>
@@ -12444,44 +13063,48 @@
         <f>[56]Model!$AA$3</f>
         <v>12.3</v>
       </c>
-      <c r="T59" s="11">
+      <c r="T59" s="31">
+        <f t="shared" si="28"/>
+        <v>1.7074796747967484</v>
+      </c>
+      <c r="U59" s="11">
         <f>[56]Model!AA$16</f>
         <v>-6.1068702290076216E-2</v>
       </c>
-      <c r="U59" s="11">
+      <c r="V59" s="11">
         <f>[56]Model!AB$16</f>
         <v>2.2357723577235866E-2</v>
       </c>
-      <c r="V59" s="11"/>
       <c r="W59" s="11"/>
-      <c r="X59" s="11">
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11">
         <f>[56]Model!$AO$18</f>
         <v>0.12</v>
       </c>
-      <c r="Y59" s="11">
+      <c r="Z59" s="11">
         <f>[56]Model!$AO$24</f>
         <v>-0.42072331946903563</v>
       </c>
-      <c r="Z59" s="7" t="str">
+      <c r="AA59" s="7" t="str">
         <f>[56]Model!$AO$25</f>
         <v>Overvalued</v>
       </c>
-      <c r="AA59" s="7" t="s">
+      <c r="AB59" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB59" s="7">
+      <c r="AC59" s="7">
         <v>1958</v>
       </c>
-      <c r="AD59" s="17">
+      <c r="AE59" s="17">
         <f>[56]Main!$E$3</f>
         <v>45751</v>
       </c>
-      <c r="AE59" s="17">
+      <c r="AF59" s="17">
         <f>[56]Main!$G$3</f>
         <v>45785</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>169</v>
       </c>
@@ -12490,100 +13113,104 @@
       </c>
       <c r="D60" s="12">
         <f>[57]Main!$D$3</f>
-        <v>18.45</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E60" s="8">
         <f>[57]Main!$D$5</f>
-        <v>184.03874999999999</v>
+        <v>43.067999999999998</v>
       </c>
       <c r="F60" s="8">
         <f>[57]Main!$D$10</f>
-        <v>42.906336088154269</v>
+        <v>140.4951856946355</v>
       </c>
       <c r="G60" s="8">
         <f>[57]Main!$D$11</f>
-        <v>141.13241391184573</v>
+        <v>-97.427185694635497</v>
       </c>
       <c r="H60" s="8">
         <f>[57]Model!O$23</f>
-        <v>-8.9289999999999505</v>
+        <v>-65.195625000000021</v>
       </c>
       <c r="I60" s="8">
         <f>[57]Model!P$23</f>
-        <v>-4.1479499999999918</v>
+        <v>-75.811683750000014</v>
       </c>
       <c r="J60" s="8">
         <f>[57]Model!Q$23</f>
-        <v>0.25370300000004137</v>
+        <v>-85.133768362500035</v>
       </c>
       <c r="K60" s="8">
         <f>[57]Model!R$23</f>
-        <v>6.864712200000076</v>
+        <v>-92.999013768375065</v>
       </c>
       <c r="L60" s="8">
         <f>[57]Model!S$23</f>
-        <v>9.7365742740000307</v>
+        <v>-99.507942011156317</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9">
         <f>$E$60/J60</f>
-        <v>725.41022376546584</v>
+        <v>-0.5058862168137116</v>
       </c>
       <c r="P60" s="9">
         <f>$E$60/K60</f>
-        <v>26.809390494185315</v>
+        <v>-0.46310168522072603</v>
       </c>
       <c r="Q60" s="9">
         <f>$E$60/L60</f>
-        <v>18.901796958653737</v>
+        <v>-0.43280967458026048</v>
       </c>
       <c r="R60" s="9">
         <f>E60/[57]Model!$Z$23</f>
-        <v>233.3763663057822</v>
+        <v>-0.35493594328342115</v>
       </c>
       <c r="S60" s="10">
         <f>[57]Model!$O$5</f>
-        <v>712.375</v>
-      </c>
-      <c r="T60" s="11">
+        <v>334.37624999999997</v>
+      </c>
+      <c r="T60" s="31">
+        <f t="shared" si="28"/>
+        <v>-0.29136993340476636</v>
+      </c>
+      <c r="U60" s="11">
         <f>[57]Model!N$27</f>
-        <v>0.27266636891469398</v>
-      </c>
-      <c r="U60" s="11">
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="V60" s="11">
         <f>[57]Model!O$27</f>
-        <v>0.25</v>
-      </c>
-      <c r="V60" s="11"/>
+        <v>-0.35</v>
+      </c>
       <c r="W60" s="11"/>
-      <c r="X60" s="11">
-        <f>[57]Model!$AC$30</f>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11">
+        <f>[57]Model!$AA$30</f>
         <v>0.15</v>
       </c>
-      <c r="Y60" s="11">
-        <f>[57]Model!$AC$37</f>
-        <v>-0.7539115941398663</v>
-      </c>
-      <c r="Z60" s="7" t="str">
-        <f>[57]Model!$AC$38</f>
-        <v>Heavily overvalued</v>
-      </c>
-      <c r="AA60" s="7" t="s">
+      <c r="Z60" s="11">
+        <f>[57]Model!$AA$37</f>
+        <v>0.42025776126590375</v>
+      </c>
+      <c r="AA60" s="7" t="str">
+        <f>[57]Model!$AA$38</f>
+        <v>Undervalued</v>
+      </c>
+      <c r="AB60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB60" s="7">
+      <c r="AC60" s="7">
         <v>2018</v>
       </c>
-      <c r="AD60" s="17">
+      <c r="AE60" s="17">
         <f>[57]Main!$E$3</f>
-        <v>45751</v>
-      </c>
-      <c r="AE60" s="17">
+        <v>45780</v>
+      </c>
+      <c r="AF60" s="17" t="str">
         <f>[57]Main!$G$3</f>
-        <v>45741</v>
+        <v>?</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
         <v>165</v>
       </c>
@@ -12603,16 +13230,17 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="22"/>
-      <c r="T61" s="11"/>
+      <c r="T61" s="22"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="AD61" s="17"/>
+      <c r="Z61" s="11"/>
       <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>99</v>
       </c>
@@ -12632,16 +13260,17 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="11"/>
+      <c r="T62" s="22"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="AD62" s="17"/>
+      <c r="Z62" s="11"/>
       <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>101</v>
       </c>
@@ -12661,16 +13290,17 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="22"/>
-      <c r="T63" s="11"/>
+      <c r="T63" s="22"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="AD63" s="17"/>
+      <c r="Z63" s="11"/>
       <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>186</v>
       </c>
@@ -12690,16 +13320,17 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="22"/>
-      <c r="T64" s="11"/>
+      <c r="T64" s="22"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="AD64" s="17"/>
+      <c r="Z64" s="11"/>
       <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>85</v>
       </c>
@@ -12707,7 +13338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>38</v>
       </c>
@@ -12715,7 +13346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>41</v>
       </c>
@@ -12723,7 +13354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>45</v>
       </c>
@@ -12731,7 +13362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>46</v>
       </c>
@@ -12739,7 +13370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>112</v>
       </c>
@@ -12747,7 +13378,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>139</v>
       </c>
@@ -12755,7 +13386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>144</v>
       </c>
@@ -12763,7 +13394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>146</v>
       </c>
@@ -12771,7 +13402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
         <v>162</v>
       </c>
@@ -12779,7 +13410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>182</v>
       </c>
@@ -12787,66 +13418,71 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AA77" s="7" t="s">
+      <c r="AB78" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA78" s="7" t="s">
+      <c r="AB79" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AA79" s="7" t="s">
+      <c r="AB80" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA80" s="7" t="s">
+      <c r="AB81" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12862,10 +13498,10 @@
     <hyperlink ref="B19" r:id="rId7" xr:uid="{5F163C80-38C2-464D-A54B-1991DBE92DAE}"/>
     <hyperlink ref="B15" r:id="rId8" display="Salesforce.com" xr:uid="{93D87434-2443-4971-9137-D6F1AC82040E}"/>
     <hyperlink ref="B41" r:id="rId9" xr:uid="{0A593B9D-DB8E-4D20-9333-4BFFE4871798}"/>
-    <hyperlink ref="B30" r:id="rId10" xr:uid="{10E4FD51-7038-45AA-AC3C-1594C7E69E7F}"/>
+    <hyperlink ref="B38" r:id="rId10" xr:uid="{10E4FD51-7038-45AA-AC3C-1594C7E69E7F}"/>
     <hyperlink ref="B53" r:id="rId11" xr:uid="{E2DF0D1C-29B2-4E00-84AF-31CF689ABFB3}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{EE0E652E-C275-4798-8F34-5D9204EC3F09}"/>
-    <hyperlink ref="B32" r:id="rId13" xr:uid="{00E5FEAB-AC7E-4A58-8E54-A8AFBC200B27}"/>
+    <hyperlink ref="B31" r:id="rId13" xr:uid="{00E5FEAB-AC7E-4A58-8E54-A8AFBC200B27}"/>
     <hyperlink ref="B10" r:id="rId14" xr:uid="{36D0E700-6724-4ECE-805A-A69DF2511058}"/>
     <hyperlink ref="B39" r:id="rId15" xr:uid="{D6E6111D-085D-4AD7-B108-54A545359473}"/>
     <hyperlink ref="B49" r:id="rId16" xr:uid="{BAA20A0A-ED96-43D5-9159-C8669F65FEC8}"/>
@@ -12873,12 +13509,12 @@
     <hyperlink ref="B28" r:id="rId18" xr:uid="{26827201-FDC2-4F19-A8D2-20FC3BB18B40}"/>
     <hyperlink ref="B54" r:id="rId19" xr:uid="{582B8A04-7FC6-4DFB-B7AE-827EA6E42A84}"/>
     <hyperlink ref="B26" r:id="rId20" xr:uid="{4DE42159-792A-4573-831E-56201D6A438A}"/>
-    <hyperlink ref="B33" r:id="rId21" xr:uid="{E573422A-BA41-412F-AE13-CE6E5F747D4C}"/>
+    <hyperlink ref="B32" r:id="rId21" xr:uid="{E573422A-BA41-412F-AE13-CE6E5F747D4C}"/>
     <hyperlink ref="B50" r:id="rId22" xr:uid="{05291EF6-28E1-45B1-9D62-A7A481FC2A7E}"/>
     <hyperlink ref="B25" r:id="rId23" xr:uid="{8557C56C-A1A6-4799-A97E-27D16263FD56}"/>
     <hyperlink ref="B8" r:id="rId24" xr:uid="{46622E50-4FA8-4F9A-B3BF-D336B9D843AA}"/>
     <hyperlink ref="B56" r:id="rId25" xr:uid="{5BF10660-36E0-42BB-892E-457ADEC233AB}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{58D79405-6560-476F-8CA2-022BFD1EADA6}"/>
+    <hyperlink ref="B35" r:id="rId26" xr:uid="{58D79405-6560-476F-8CA2-022BFD1EADA6}"/>
     <hyperlink ref="B47" r:id="rId27" xr:uid="{4A0CE2B8-04BB-4941-92BE-6DB997CD14FE}"/>
     <hyperlink ref="B57" r:id="rId28" xr:uid="{966096F2-578C-439D-9F69-51648E2559C1}"/>
     <hyperlink ref="B5" r:id="rId29" xr:uid="{72B93C8C-F457-48A0-AAA2-2D120A01F301}"/>
@@ -12887,10 +13523,10 @@
     <hyperlink ref="B12" r:id="rId32" xr:uid="{15312B10-4081-4DD8-B770-7475AD3247C2}"/>
     <hyperlink ref="B13" r:id="rId33" xr:uid="{DA6C35BB-FDB4-4FCC-862D-D80F72891D1C}"/>
     <hyperlink ref="B44" r:id="rId34" xr:uid="{21B77EB6-7439-4B9C-B015-92F05D642187}"/>
-    <hyperlink ref="B31" r:id="rId35" xr:uid="{992F30A7-9484-40C5-B181-EF3E2B75BB5B}"/>
+    <hyperlink ref="B30" r:id="rId35" xr:uid="{992F30A7-9484-40C5-B181-EF3E2B75BB5B}"/>
     <hyperlink ref="B23" r:id="rId36" xr:uid="{D71D0207-8577-4517-9CFA-69A248404CEE}"/>
     <hyperlink ref="B46" r:id="rId37" xr:uid="{50E1C81F-2265-4E38-B629-C63B8E7103B8}"/>
-    <hyperlink ref="B35" r:id="rId38" display="SOFI.xlsx" xr:uid="{56EADF64-15FA-4DC2-B8F1-8E237685384B}"/>
+    <hyperlink ref="B34" r:id="rId38" display="SOFI.xlsx" xr:uid="{56EADF64-15FA-4DC2-B8F1-8E237685384B}"/>
     <hyperlink ref="B58" r:id="rId39" xr:uid="{EE9850D5-05A9-4AEF-B4C3-F4C54EBE90C5}"/>
     <hyperlink ref="B16" r:id="rId40" xr:uid="{0346A791-92AC-4451-8AEC-3FEF42C00D47}"/>
     <hyperlink ref="B48" r:id="rId41" xr:uid="{A8212C21-9C8B-49E6-9A72-68988D96BA17}"/>
@@ -12907,11 +13543,13 @@
     <hyperlink ref="B36" r:id="rId52" xr:uid="{B6E92712-84DB-4402-91DC-7BA504A1FF5D}"/>
     <hyperlink ref="B42" r:id="rId53" xr:uid="{1AD0D70F-9385-4871-AD60-ABE352CDC82C}"/>
     <hyperlink ref="B52" r:id="rId54" xr:uid="{C56234F2-911B-4144-AA8B-EA39512F2749}"/>
-    <hyperlink ref="B34" r:id="rId55" xr:uid="{41FD82F1-FA88-47A8-B89A-C49B5EFF1DC5}"/>
+    <hyperlink ref="B33" r:id="rId55" xr:uid="{41FD82F1-FA88-47A8-B89A-C49B5EFF1DC5}"/>
     <hyperlink ref="B29" r:id="rId56" xr:uid="{AE50C18A-BCF5-4ED8-881B-37D12746B425}"/>
     <hyperlink ref="B21" r:id="rId57" xr:uid="{A9FB40FB-BCAE-4E3A-9EF1-A59DFEE9D933}"/>
+    <hyperlink ref="B40" r:id="rId58" xr:uid="{7A10496F-0F74-4C71-BA4B-2A10A8E34983}"/>
+    <hyperlink ref="B37" r:id="rId59" xr:uid="{693B9C0C-5FA9-48F0-B874-61231FBB3976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId60"/>
 </worksheet>
 </file>